--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ingame_loading_bg2.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>bg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>ingame_loading_bg9.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_loading_bg11.dds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1052,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>PT.xy</t>
   </si>
@@ -33,10 +33,6 @@
     <t>BG1</t>
   </si>
   <si>
-    <t>hinfoa1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>BG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -45,22 +41,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mainmenu_img_bg_1.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainmenu_btn_heroinfo_ability_0.dds</t>
-  </si>
-  <si>
-    <t>mainmenu_btn_heroinfo_ability_1.dds</t>
-  </si>
-  <si>
-    <t>mainmenu_btn_heroinfo_ability_2.dds</t>
-  </si>
-  <si>
-    <t>mainmenu_btn_heroinfo_ability_3.dds</t>
-  </si>
-  <si>
     <t>cMainMenu</t>
   </si>
   <si>
@@ -90,6 +70,168 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>l1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cUILoadingInGame</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>myinfo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroinfo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>herotalent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_loading_bg9.png</t>
+  </si>
+  <si>
+    <t>ingame_loading_bg10.png</t>
+  </si>
+  <si>
+    <t>mainmenu_img_bg_1.png</t>
+  </si>
+  <si>
+    <t>mainmenu_img_bg_2.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_ability_0.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_ability_1.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_ability_2.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_ability_3.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_equip_0.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_equip_1.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_equip_2.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_equip_3.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_talents_0.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_talents_1.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_talents_2.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_talents_3.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_teamslot_1.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_teamslot_2.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_teamslotbg_1.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_teamslotbg_2.png</t>
+  </si>
+  <si>
+    <t>mainmenu_img_main_1.png</t>
+  </si>
+  <si>
+    <t>rotateSpd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_hero_skill_1.png</t>
+  </si>
+  <si>
+    <t>ingame_btn_hero_skill_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_hero_skill_4.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>mainmenu_btn_ready_1.dds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -98,35 +240,130 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>mainmenu_btn_ready_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>mainmenu_btn_ready_3.dds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>l1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>l1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cUILoadingInGame</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingame_loading_bg9.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingame_loading_bg11.dds</t>
+    <t>abil5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_ability1.png</t>
+  </si>
+  <si>
+    <t>abil1img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil2img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil3img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil4img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil5img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_ability2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_ability3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_ability4.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_ability5.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_portrait_1.png</t>
+  </si>
+  <si>
+    <t>ingame_btn_portrait_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_portrait_char.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>charport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_bottom_mp.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>charportimg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bothpbg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>botmpbg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_bottom_mp_bg.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>botmp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_bottom_hp.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_bottom_hp_bg.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bothp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_bottom_bord_bg.png</t>
+  </si>
+  <si>
+    <t>botboard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_healwell_1.png</t>
+  </si>
+  <si>
+    <t>ingame_btn_recall_1.png</t>
+  </si>
+  <si>
+    <t>healwell</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gohome</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_healwell_4.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1048,125 +1285,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3">
         <f>COUNTA(A4:A6)</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+      <c r="B3" t="str">
+        <f>B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C3" t="str">
+        <f>C$1</f>
+        <v>BG</v>
+      </c>
+      <c r="D3" t="str">
+        <f>D$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="E3" t="str">
+        <f>E$1</f>
+        <v>rotate</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:L3" si="0">F$1</f>
+        <v>rotateSpd</v>
       </c>
       <c r="G3" t="str">
-        <f>G1</f>
-        <v>normal</v>
+        <f t="shared" si="0"/>
+        <v>Button</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:J3" si="0">H1</f>
-        <v>over</v>
+        <f t="shared" si="0"/>
+        <v>Func</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>select</v>
+        <v>normal</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="0"/>
+        <v>over</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>select</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1177,102 +1439,127 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>30</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8">
         <f>COUNTA(A9:A11)</f>
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+      <c r="B8" t="str">
+        <f>B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C8" t="str">
+        <f>C$1</f>
+        <v>BG</v>
+      </c>
+      <c r="D8" t="str">
+        <f>D$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="E8" t="str">
+        <f>E$1</f>
+        <v>rotate</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:L8" si="1">F$1</f>
+        <v>rotateSpd</v>
       </c>
       <c r="G8" t="str">
-        <f>G1</f>
-        <v>normal</v>
+        <f t="shared" si="1"/>
+        <v>Button</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ref="H8:J8" si="1">H1</f>
-        <v>over</v>
+        <f t="shared" si="1"/>
+        <v>Func</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>select</v>
+        <v>normal</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
+        <v>over</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>select</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1001</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1283,70 +1570,89 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>29</v>
+      <c r="G10" s="1">
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>31</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A13">
+        <f>COUNTA(A14:A31)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A13">
-        <f>COUNTA(A14:A17)</f>
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
+      <c r="B13" t="str">
+        <f>B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C13" t="str">
+        <f>C$1</f>
+        <v>BG</v>
+      </c>
+      <c r="D13" t="str">
+        <f>D$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="E13" t="str">
+        <f>E$1</f>
+        <v>rotate</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ref="F13:L13" si="2">F$1</f>
+        <v>rotateSpd</v>
       </c>
       <c r="G13" t="str">
-        <f>G1</f>
-        <v>normal</v>
+        <f t="shared" si="2"/>
+        <v>Button</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:J13" si="2">H1</f>
-        <v>over</v>
+        <f t="shared" si="2"/>
+        <v>Func</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>select</v>
+        <v>normal</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="2"/>
+        <v>over</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>select</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1359,193 +1665,1292 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A15">
+        <v>-62</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A16">
+        <v>385</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>380</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>380</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A19">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>380</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A20">
+        <f>A21-40</f>
+        <v>730</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A21">
+        <f>A22-40</f>
+        <v>770</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A22">
+        <f>A23-40</f>
+        <v>810</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A23">
+        <f>A24-40</f>
+        <v>850</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A24">
+        <v>890</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A25">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>67</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>99</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A15">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A16">
-        <v>500</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A33">
+        <f>COUNTA(A34:A53)</f>
         <v>20</v>
       </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A19">
-        <f>COUNTA(A20:A23)</f>
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="str">
-        <f>G1</f>
+      <c r="B33" t="str">
+        <f>B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C33" t="str">
+        <f>C$1</f>
+        <v>BG</v>
+      </c>
+      <c r="D33" t="str">
+        <f>D$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="E33" t="str">
+        <f>E$1</f>
+        <v>rotate</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ref="F33:L33" si="3">F$1</f>
+        <v>rotateSpd</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>Func</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
         <v>normal</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" ref="H19:J19" si="3">H1</f>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
         <v>over</v>
       </c>
-      <c r="I19" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="3"/>
         <v>select</v>
       </c>
-      <c r="J19" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="3"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A20">
-        <v>321</v>
-      </c>
-      <c r="B20">
-        <v>222</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A34">
+        <v>700</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="H34">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A35">
+        <v>300</v>
+      </c>
+      <c r="B35">
+        <v>436</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A36">
+        <v>356</v>
+      </c>
+      <c r="B36">
+        <v>410</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>99</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A37">
+        <f>A36+45</f>
+        <v>401</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>410</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>99</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A38">
+        <f t="shared" ref="A38:A40" si="4">A37+45</f>
+        <v>446</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B45" si="5">B37</f>
+        <v>410</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>491</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>536</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>99</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A41">
+        <f>A36</f>
+        <v>356</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>101</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A21">
-        <v>500</v>
-      </c>
-      <c r="B21">
-        <v>300</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="I41" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A42">
+        <f t="shared" ref="A42:A45" si="6">A37</f>
+        <v>401</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>150</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
+      <c r="H42">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>491</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>536</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>105</v>
+      </c>
+      <c r="I45" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A46">
+        <v>-200</v>
+      </c>
+      <c r="B46">
+        <v>-200</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A47">
+        <f>A35+302</f>
+        <v>602</v>
+      </c>
+      <c r="B47">
+        <f>B35-2</f>
+        <v>434</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>99</v>
+      </c>
+      <c r="I47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>370</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>99</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>370</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A50">
+        <f>A49+94</f>
+        <v>99</v>
+      </c>
+      <c r="B50">
+        <v>444</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A51">
+        <f>A50</f>
+        <v>99</v>
+      </c>
+      <c r="B51">
+        <v>444</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A52">
+        <f>A51-4</f>
+        <v>95</v>
+      </c>
+      <c r="B52">
+        <f>B51+10</f>
+        <v>454</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A53">
+        <f t="shared" ref="A53" si="7">A52</f>
+        <v>95</v>
+      </c>
+      <c r="B53">
+        <f>B52</f>
+        <v>454</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>PT.xy</t>
   </si>
@@ -208,10 +208,6 @@
     <t>ingame_btn_hero_skill_1.png</t>
   </si>
   <si>
-    <t>ingame_btn_hero_skill_2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>abil1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -364,6 +360,22 @@
   </si>
   <si>
     <t>ingame_btn_healwell_4.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_recall_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gohomeimg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_recall_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_hero_skill_2.dds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1285,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1416,16 +1428,16 @@
         <v>1000</v>
       </c>
       <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.6">
@@ -1547,16 +1559,16 @@
         <v>1001</v>
       </c>
       <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>61</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.6">
@@ -1754,16 +1766,16 @@
         <v>50</v>
       </c>
       <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
         <v>60</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>61</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>62</v>
-      </c>
-      <c r="L16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.6">
@@ -2119,8 +2131,8 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A53)</f>
-        <v>20</v>
+        <f>COUNTA(A34:A54)</f>
+        <v>21</v>
       </c>
       <c r="B33" t="str">
         <f>B$1</f>
@@ -2193,16 +2205,16 @@
         <v>150</v>
       </c>
       <c r="I34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
         <v>60</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>61</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>62</v>
-      </c>
-      <c r="L34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.6">
@@ -2216,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2231,7 +2243,7 @@
         <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2254,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2269,7 +2281,7 @@
         <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2294,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2309,7 +2321,7 @@
         <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2334,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2349,7 +2361,7 @@
         <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2374,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2389,7 +2401,7 @@
         <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2414,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2429,7 +2441,7 @@
         <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2454,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2472,13 +2484,13 @@
         <v>53</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.6">
@@ -2494,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2512,13 +2524,13 @@
         <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.6">
@@ -2534,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2552,13 +2564,13 @@
         <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.6">
@@ -2574,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2592,13 +2604,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.6">
@@ -2614,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2632,13 +2644,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.6">
@@ -2652,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2667,16 +2679,16 @@
         <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.6">
@@ -2685,14 +2697,14 @@
         <v>602</v>
       </c>
       <c r="B47">
-        <f>B35-2</f>
-        <v>434</v>
+        <f>B35-1</f>
+        <v>435</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2707,30 +2719,32 @@
         <v>99</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A48">
-        <v>5</v>
+        <f>A47</f>
+        <v>602</v>
       </c>
       <c r="B48">
-        <v>370</v>
+        <f>B47</f>
+        <v>435</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2739,22 +2753,22 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" t="s">
-        <v>76</v>
-      </c>
-      <c r="K48" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.6">
@@ -2765,10 +2779,10 @@
         <v>370</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2777,37 +2791,36 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A50">
-        <f>A49+94</f>
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2822,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2836,17 +2849,17 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A51">
-        <f>A50</f>
+        <f>A50+94</f>
         <v>99</v>
       </c>
       <c r="B51">
         <v>444</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2861,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2875,18 +2888,17 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A52">
-        <f>A51-4</f>
-        <v>95</v>
+        <f>A51</f>
+        <v>99</v>
       </c>
       <c r="B52">
-        <f>B51+10</f>
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2901,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2915,41 +2927,81 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A53">
-        <f t="shared" ref="A53" si="7">A52</f>
+        <f>A52-4</f>
         <v>95</v>
       </c>
       <c r="B53">
-        <f>B52</f>
+        <f>B52+10</f>
         <v>454</v>
       </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A54">
+        <f t="shared" ref="A54" si="7">A53</f>
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <f>B53</f>
+        <v>454</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
         <v>82</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>0</v>
       </c>
     </row>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>PT.xy</t>
   </si>
@@ -376,6 +376,30 @@
   </si>
   <si>
     <t>ingame_btn_hero_skill_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_bottom_barbg_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>botbarbg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_healwell_4.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>healwellbtn1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_healwell_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_healwell_2.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1297,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2131,8 +2155,8 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A54)</f>
-        <v>21</v>
+        <f>COUNTA(A34:A98)</f>
+        <v>23</v>
       </c>
       <c r="B33" t="str">
         <f>B$1</f>
@@ -2849,18 +2873,19 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A51">
-        <f>A50+94</f>
+        <f>A50+85</f>
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <f>B50+50</f>
+        <v>420</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
         <v>99</v>
       </c>
-      <c r="B51">
-        <v>444</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
@@ -2871,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2888,17 +2913,18 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A52">
-        <f>A51</f>
-        <v>99</v>
+        <f>A50+111</f>
+        <v>116</v>
       </c>
       <c r="B52">
-        <v>444</v>
+        <f>B51+3</f>
+        <v>423</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2913,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2927,18 +2953,18 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A53">
-        <f>A52-4</f>
-        <v>95</v>
+        <f>A52</f>
+        <v>116</v>
       </c>
       <c r="B53">
-        <f>B52+10</f>
-        <v>454</v>
+        <f>B52</f>
+        <v>423</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2953,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2967,42 +2993,122 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A54">
-        <f t="shared" ref="A54" si="7">A53</f>
-        <v>95</v>
+        <f>A53-6</f>
+        <v>110</v>
       </c>
       <c r="B54">
-        <f>B53</f>
-        <v>454</v>
+        <f>B53+12</f>
+        <v>435</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A55">
+        <f t="shared" ref="A55" si="7">A54</f>
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <f>B54</f>
+        <v>435</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>81</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
         <v>82</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A56">
+        <f>A51+3</f>
+        <v>93</v>
+      </c>
+      <c r="B56">
+        <f>B51+33</f>
+        <v>453</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>99</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" t="s">
+        <v>103</v>
+      </c>
+      <c r="L56" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>PT.xy</t>
   </si>
@@ -400,6 +400,37 @@
   </si>
   <si>
     <t>ingame_btn_healwell_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_hero_skill_lock.png</t>
+  </si>
+  <si>
+    <t>skill1lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>used</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1321,19 +1352,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1341,42 +1372,48 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3">
         <f>COUNTA(A4:A6)</f>
         <v>2</v>
@@ -1387,46 +1424,54 @@
       </c>
       <c r="C3" t="str">
         <f>C$1</f>
-        <v>BG</v>
+        <v>enable</v>
       </c>
       <c r="D3" t="str">
         <f>D$1</f>
-        <v>IndexName</v>
+        <v>used</v>
       </c>
       <c r="E3" t="str">
         <f>E$1</f>
+        <v>BG</v>
+      </c>
+      <c r="F3" t="str">
+        <f>F$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="G3" t="str">
+        <f>G$1</f>
         <v>rotate</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:L3" si="0">F$1</f>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:N3" si="0">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G3" t="str">
+      <c r="I3" t="str">
         <f t="shared" si="0"/>
         <v>Button</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <f t="shared" si="0"/>
         <v>Func</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <f t="shared" si="0"/>
         <v>normal</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="0"/>
         <v>over</v>
       </c>
-      <c r="K3" t="str">
+      <c r="M3" t="str">
         <f t="shared" si="0"/>
         <v>select</v>
       </c>
-      <c r="L3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="0"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>385</v>
       </c>
@@ -1434,37 +1479,43 @@
         <v>400</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1474,40 +1525,46 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A8">
         <f>COUNTA(A9:A11)</f>
         <v>2</v>
@@ -1518,46 +1575,54 @@
       </c>
       <c r="C8" t="str">
         <f>C$1</f>
-        <v>BG</v>
+        <v>enable</v>
       </c>
       <c r="D8" t="str">
         <f>D$1</f>
-        <v>IndexName</v>
+        <v>used</v>
       </c>
       <c r="E8" t="str">
         <f>E$1</f>
+        <v>BG</v>
+      </c>
+      <c r="F8" t="str">
+        <f>F$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="G8" t="str">
+        <f>G$1</f>
         <v>rotate</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" ref="F8:L8" si="1">F$1</f>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:N8" si="1">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v>Button</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="1"/>
         <v>Func</v>
       </c>
-      <c r="I8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>normal</v>
       </c>
-      <c r="J8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>over</v>
       </c>
-      <c r="K8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="1"/>
         <v>select</v>
       </c>
-      <c r="L8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="1"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>385</v>
       </c>
@@ -1565,37 +1630,43 @@
         <v>400</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>1001</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1605,40 +1676,46 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A13">
         <f>COUNTA(A14:A31)</f>
         <v>12</v>
@@ -1649,46 +1726,54 @@
       </c>
       <c r="C13" t="str">
         <f>C$1</f>
-        <v>BG</v>
+        <v>enable</v>
       </c>
       <c r="D13" t="str">
         <f>D$1</f>
-        <v>IndexName</v>
+        <v>used</v>
       </c>
       <c r="E13" t="str">
         <f>E$1</f>
+        <v>BG</v>
+      </c>
+      <c r="F13" t="str">
+        <f>F$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="G13" t="str">
+        <f>G$1</f>
         <v>rotate</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" ref="F13:L13" si="2">F$1</f>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:N13" si="2">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G13" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
         <v>Button</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="2"/>
         <v>Func</v>
       </c>
-      <c r="I13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="2"/>
         <v>normal</v>
       </c>
-      <c r="J13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
         <v>over</v>
       </c>
-      <c r="K13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="2"/>
         <v>select</v>
       </c>
-      <c r="L13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1698,35 +1783,41 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>32</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>-62</v>
       </c>
@@ -1736,35 +1827,41 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>33</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>385</v>
       </c>
@@ -1772,37 +1869,43 @@
         <v>400</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>50</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>61</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>40</v>
       </c>
@@ -1810,37 +1913,43 @@
         <v>380</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1848,37 +1957,43 @@
         <v>380</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>39</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>40</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>160</v>
       </c>
@@ -1886,37 +2001,43 @@
         <v>380</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>44</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20">
         <f>A21-40</f>
         <v>730</v>
@@ -1925,37 +2046,43 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>99</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>46</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>47</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21">
         <f>A22-40</f>
         <v>770</v>
@@ -1964,37 +2091,43 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>99</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>46</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>47</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>47</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22">
         <f>A23-40</f>
         <v>810</v>
@@ -2003,37 +2136,43 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>46</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>47</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23">
         <f>A24-40</f>
         <v>850</v>
@@ -2042,37 +2181,43 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>99</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>47</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>890</v>
       </c>
@@ -2080,37 +2225,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>99</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" t="s">
-        <v>49</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25">
         <v>67</v>
       </c>
@@ -2118,45 +2269,51 @@
         <v>67</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.02</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>99</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>50</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A98)</f>
-        <v>23</v>
+        <f>COUNTA(A34:A102)</f>
+        <v>28</v>
       </c>
       <c r="B33" t="str">
         <f>B$1</f>
@@ -2164,46 +2321,54 @@
       </c>
       <c r="C33" t="str">
         <f>C$1</f>
-        <v>BG</v>
+        <v>enable</v>
       </c>
       <c r="D33" t="str">
         <f>D$1</f>
-        <v>IndexName</v>
+        <v>used</v>
       </c>
       <c r="E33" t="str">
         <f>E$1</f>
+        <v>BG</v>
+      </c>
+      <c r="F33" t="str">
+        <f>F$1</f>
+        <v>IndexName</v>
+      </c>
+      <c r="G33" t="str">
+        <f>G$1</f>
         <v>rotate</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" ref="F33:L33" si="3">F$1</f>
+      <c r="H33" t="str">
+        <f t="shared" ref="H33:N33" si="3">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G33" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="3"/>
         <v>Button</v>
       </c>
-      <c r="H33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="3"/>
         <v>Func</v>
       </c>
-      <c r="I33" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="3"/>
         <v>normal</v>
       </c>
-      <c r="J33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="3"/>
         <v>over</v>
       </c>
-      <c r="K33" t="str">
+      <c r="M33" t="str">
         <f t="shared" si="3"/>
         <v>select</v>
       </c>
-      <c r="L33" t="str">
+      <c r="N33" t="str">
         <f t="shared" si="3"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>700</v>
       </c>
@@ -2211,37 +2376,43 @@
         <v>400</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>150</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>59</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>60</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>61</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>300</v>
       </c>
@@ -2251,35 +2422,41 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>88</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>99</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>87</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>356</v>
       </c>
@@ -2289,35 +2466,41 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>99</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>64</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A37">
         <f>A36+45</f>
         <v>401</v>
@@ -2329,35 +2512,41 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>66</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>99</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>70</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A38">
         <f t="shared" ref="A38:A40" si="4">A37+45</f>
         <v>446</v>
@@ -2369,35 +2558,41 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>99</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>71</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>491</v>
@@ -2409,35 +2604,41 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
         <v>68</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>99</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>72</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>536</v>
@@ -2449,35 +2650,41 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
         <v>69</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>99</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>73</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41">
         <f>A36</f>
         <v>356</v>
@@ -2489,35 +2696,41 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>54</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>101</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>53</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>97</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>97</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
         <f t="shared" ref="A42:A45" si="6">A37</f>
         <v>401</v>
@@ -2529,35 +2742,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>55</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>102</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>53</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>97</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
         <v>97</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -2569,35 +2788,41 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
         <v>56</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>103</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>53</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>97</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
         <v>97</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
         <f t="shared" si="6"/>
         <v>491</v>
@@ -2609,35 +2834,41 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>57</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>104</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>53</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>97</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>97</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
         <f t="shared" si="6"/>
         <v>536</v>
@@ -2649,465 +2880,767 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
         <v>63</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>105</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>97</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>97</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
+        <f>A41</f>
+        <v>356</v>
+      </c>
+      <c r="B46">
+        <f>B41</f>
+        <v>410</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A47">
+        <f t="shared" ref="A47:B50" si="7">A42</f>
+        <v>401</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A48">
+        <f t="shared" si="7"/>
+        <v>446</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A49">
+        <f t="shared" si="7"/>
+        <v>491</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A50">
+        <f t="shared" si="7"/>
+        <v>536</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A51">
         <v>-200</v>
       </c>
-      <c r="B46">
+      <c r="B51">
         <v>-200</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>91</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>99</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K51" t="s">
         <v>89</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L51" t="s">
         <v>89</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M51" t="s">
         <v>89</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A47">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A52">
         <f>A35+302</f>
         <v>602</v>
       </c>
-      <c r="B47">
+      <c r="B52">
         <f>B35-1</f>
         <v>435</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>92</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>99</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K52" t="s">
         <v>90</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L52" t="s">
         <v>96</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M52" t="s">
         <v>96</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A48">
-        <f>A47</f>
-        <v>602</v>
-      </c>
-      <c r="B48">
-        <f>B47</f>
-        <v>435</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>99</v>
-      </c>
-      <c r="I48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>370</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>99</v>
-      </c>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-      <c r="J49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K49" t="s">
-        <v>75</v>
-      </c>
-      <c r="L49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A50">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>370</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A51">
-        <f>A50+85</f>
-        <v>90</v>
-      </c>
-      <c r="B51">
-        <f>B50+50</f>
-        <v>420</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>99</v>
-      </c>
-      <c r="I51" t="s">
-        <v>98</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A52">
-        <f>A50+111</f>
-        <v>116</v>
-      </c>
-      <c r="B52">
-        <f>B51+3</f>
-        <v>423</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>84</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
         <f>A52</f>
-        <v>116</v>
+        <v>602</v>
       </c>
       <c r="B53">
         <f>B52</f>
+        <v>435</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>99</v>
+      </c>
+      <c r="K53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>370</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>99</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>370</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>76</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A56">
+        <f>A55+85</f>
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <f>B55+50</f>
+        <v>420</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>99</v>
+      </c>
+      <c r="K56" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A57">
+        <f>A55+111</f>
+        <v>116</v>
+      </c>
+      <c r="B57">
+        <f>B56+3</f>
         <v>423</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A58">
+        <f>A57</f>
+        <v>116</v>
+      </c>
+      <c r="B58">
+        <f>B57</f>
+        <v>423</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>80</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
         <v>85</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A54">
-        <f>A53-6</f>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A59">
+        <f>A58-6</f>
         <v>110</v>
       </c>
-      <c r="B54">
-        <f>B53+12</f>
+      <c r="B59">
+        <f>B58+12</f>
         <v>435</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
         <v>83</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
         <v>78</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A55">
-        <f t="shared" ref="A55" si="7">A54</f>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A60">
+        <f t="shared" ref="A60" si="8">A59</f>
         <v>110</v>
       </c>
-      <c r="B55">
-        <f>B54</f>
+      <c r="B60">
+        <f>B59</f>
         <v>435</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
         <v>81</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
         <v>82</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A56">
-        <f>A51+3</f>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A61">
+        <f>A56+3</f>
         <v>93</v>
       </c>
-      <c r="B56">
-        <f>B51+33</f>
+      <c r="B61">
+        <f>B56+33</f>
         <v>453</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>101</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>99</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K61" t="s">
         <v>89</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L61" t="s">
         <v>102</v>
       </c>
-      <c r="K56" t="s">
+      <c r="M61" t="s">
         <v>103</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N61" t="s">
         <v>100</v>
       </c>
     </row>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
   <si>
     <t>PT.xy</t>
   </si>
@@ -431,6 +431,241 @@
   </si>
   <si>
     <t>used</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_1.dds</t>
+  </si>
+  <si>
+    <t>ingame_img_count_2.dds</t>
+  </si>
+  <si>
+    <t>ingame_img_count_3.dds</t>
+  </si>
+  <si>
+    <t>ingame_img_count_4.dds</t>
+  </si>
+  <si>
+    <t>ingame_img_count_5.dds</t>
+  </si>
+  <si>
+    <t>skill1cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_6.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_7.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_8.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_9.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_0.dds</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1352,11 +1587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1419,55 +1654,55 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B3:G3" si="0">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C3" t="str">
-        <f>C$1</f>
+        <f t="shared" si="0"/>
         <v>enable</v>
       </c>
       <c r="D3" t="str">
-        <f>D$1</f>
+        <f t="shared" si="0"/>
         <v>used</v>
       </c>
       <c r="E3" t="str">
-        <f>E$1</f>
+        <f t="shared" si="0"/>
         <v>BG</v>
       </c>
       <c r="F3" t="str">
-        <f>F$1</f>
+        <f t="shared" si="0"/>
         <v>IndexName</v>
       </c>
       <c r="G3" t="str">
-        <f>G$1</f>
+        <f t="shared" si="0"/>
         <v>rotate</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:N3" si="0">H$1</f>
+        <f t="shared" ref="H3:N3" si="1">H$1</f>
         <v>rotateSpd</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Button</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Func</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>normal</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>over</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>select</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>disenable</v>
       </c>
     </row>
@@ -1570,55 +1805,55 @@
         <v>2</v>
       </c>
       <c r="B8" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B8:G8" si="2">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C8" t="str">
-        <f>C$1</f>
+        <f t="shared" si="2"/>
         <v>enable</v>
       </c>
       <c r="D8" t="str">
-        <f>D$1</f>
+        <f t="shared" si="2"/>
         <v>used</v>
       </c>
       <c r="E8" t="str">
-        <f>E$1</f>
+        <f t="shared" si="2"/>
         <v>BG</v>
       </c>
       <c r="F8" t="str">
-        <f>F$1</f>
+        <f t="shared" si="2"/>
         <v>IndexName</v>
       </c>
       <c r="G8" t="str">
-        <f>G$1</f>
+        <f t="shared" si="2"/>
         <v>rotate</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ref="H8:N8" si="1">H$1</f>
+        <f t="shared" ref="H8:N8" si="3">H$1</f>
         <v>rotateSpd</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Button</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Func</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>normal</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>over</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>select</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>disenable</v>
       </c>
     </row>
@@ -1721,55 +1956,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B13:G13" si="4">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C13" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
         <v>enable</v>
       </c>
       <c r="D13" t="str">
-        <f>D$1</f>
+        <f t="shared" si="4"/>
         <v>used</v>
       </c>
       <c r="E13" t="str">
-        <f>E$1</f>
+        <f t="shared" si="4"/>
         <v>BG</v>
       </c>
       <c r="F13" t="str">
-        <f>F$1</f>
+        <f t="shared" si="4"/>
         <v>IndexName</v>
       </c>
       <c r="G13" t="str">
-        <f>G$1</f>
+        <f t="shared" si="4"/>
         <v>rotate</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:N13" si="2">H$1</f>
+        <f t="shared" ref="H13:N13" si="5">H$1</f>
         <v>rotateSpd</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Button</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Func</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>normal</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>over</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>select</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>disenable</v>
       </c>
     </row>
@@ -2312,59 +2547,59 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A102)</f>
-        <v>28</v>
+        <f>COUNTA(A34:A152)</f>
+        <v>78</v>
       </c>
       <c r="B33" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B33:G33" si="6">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C33" t="str">
-        <f>C$1</f>
+        <f t="shared" si="6"/>
         <v>enable</v>
       </c>
       <c r="D33" t="str">
-        <f>D$1</f>
+        <f t="shared" si="6"/>
         <v>used</v>
       </c>
       <c r="E33" t="str">
-        <f>E$1</f>
+        <f t="shared" si="6"/>
         <v>BG</v>
       </c>
       <c r="F33" t="str">
-        <f>F$1</f>
+        <f t="shared" si="6"/>
         <v>IndexName</v>
       </c>
       <c r="G33" t="str">
-        <f>G$1</f>
+        <f t="shared" si="6"/>
         <v>rotate</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:N33" si="3">H$1</f>
+        <f t="shared" ref="H33:N33" si="7">H$1</f>
         <v>rotateSpd</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Func</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>normal</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>over</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>select</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>disenable</v>
       </c>
     </row>
@@ -2548,11 +2783,11 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A38">
-        <f t="shared" ref="A38:A40" si="4">A37+45</f>
+        <f t="shared" ref="A38:A40" si="8">A37+45</f>
         <v>446</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B45" si="5">B37</f>
+        <f t="shared" ref="B38:B45" si="9">B37</f>
         <v>410</v>
       </c>
       <c r="C38">
@@ -2594,11 +2829,11 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>491</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C39">
@@ -2640,11 +2875,11 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C40">
@@ -2690,7 +2925,7 @@
         <v>356</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C41">
@@ -2732,11 +2967,11 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <f t="shared" ref="A42:A45" si="6">A37</f>
+        <f t="shared" ref="A42:A45" si="10">A37</f>
         <v>401</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C42">
@@ -2778,11 +3013,11 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>446</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C43">
@@ -2824,11 +3059,11 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>491</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C44">
@@ -2870,11 +3105,11 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>536</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C45">
@@ -2962,11 +3197,11 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A47">
-        <f t="shared" ref="A47:B50" si="7">A42</f>
+        <f t="shared" ref="A47:B50" si="11">A42</f>
         <v>401</v>
       </c>
       <c r="B47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>410</v>
       </c>
       <c r="C47">
@@ -3008,11 +3243,11 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>446</v>
       </c>
       <c r="B48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>410</v>
       </c>
       <c r="C48">
@@ -3054,11 +3289,11 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>491</v>
       </c>
       <c r="B49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>410</v>
       </c>
       <c r="C49">
@@ -3100,11 +3335,11 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>536</v>
       </c>
       <c r="B50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>410</v>
       </c>
       <c r="C50">
@@ -3146,13 +3381,15 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
-        <v>-200</v>
+        <f>A46 + 20</f>
+        <v>376</v>
       </c>
       <c r="B51">
-        <v>-200</v>
+        <f>B46 + 20</f>
+        <v>430</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3161,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3173,474 +3410,2772 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="M51" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="N51" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
+        <f t="shared" ref="A52:B52" si="12">A47 + 20</f>
+        <v>421</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="12"/>
+        <v>430</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>171</v>
+      </c>
+      <c r="L52" t="s">
+        <v>171</v>
+      </c>
+      <c r="M52" t="s">
+        <v>171</v>
+      </c>
+      <c r="N52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A53">
+        <f t="shared" ref="A53:B53" si="13">A48 + 20</f>
+        <v>466</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="13"/>
+        <v>430</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53" t="s">
+        <v>171</v>
+      </c>
+      <c r="M53" t="s">
+        <v>171</v>
+      </c>
+      <c r="N53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A54">
+        <f t="shared" ref="A54:B54" si="14">A49 + 20</f>
+        <v>511</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="14"/>
+        <v>430</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" t="s">
+        <v>171</v>
+      </c>
+      <c r="M54" t="s">
+        <v>171</v>
+      </c>
+      <c r="N54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A55">
+        <f t="shared" ref="A55:B55" si="15">A50 + 20</f>
+        <v>556</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>430</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>171</v>
+      </c>
+      <c r="L55" t="s">
+        <v>171</v>
+      </c>
+      <c r="M55" t="s">
+        <v>171</v>
+      </c>
+      <c r="N55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A56">
+        <f>A51</f>
+        <v>376</v>
+      </c>
+      <c r="B56">
+        <f>B51</f>
+        <v>430</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>137</v>
+      </c>
+      <c r="L56" t="s">
+        <v>137</v>
+      </c>
+      <c r="M56" t="s">
+        <v>137</v>
+      </c>
+      <c r="N56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A57">
+        <f t="shared" ref="A57:B57" si="16">A52</f>
+        <v>421</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="16"/>
+        <v>430</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>137</v>
+      </c>
+      <c r="L57" t="s">
+        <v>137</v>
+      </c>
+      <c r="M57" t="s">
+        <v>137</v>
+      </c>
+      <c r="N57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A58">
+        <f t="shared" ref="A58:B58" si="17">A53</f>
+        <v>466</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="17"/>
+        <v>430</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>137</v>
+      </c>
+      <c r="L58" t="s">
+        <v>137</v>
+      </c>
+      <c r="M58" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A59">
+        <f t="shared" ref="A59:B59" si="18">A54</f>
+        <v>511</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="18"/>
+        <v>430</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" t="s">
+        <v>137</v>
+      </c>
+      <c r="M59" t="s">
+        <v>137</v>
+      </c>
+      <c r="N59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A60">
+        <f t="shared" ref="A60:B60" si="19">A55</f>
+        <v>556</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="19"/>
+        <v>430</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>137</v>
+      </c>
+      <c r="L60" t="s">
+        <v>137</v>
+      </c>
+      <c r="M60" t="s">
+        <v>137</v>
+      </c>
+      <c r="N60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A61">
+        <f t="shared" ref="A61:B61" si="20">A56</f>
+        <v>376</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="20"/>
+        <v>430</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>138</v>
+      </c>
+      <c r="L61" t="s">
+        <v>138</v>
+      </c>
+      <c r="M61" t="s">
+        <v>138</v>
+      </c>
+      <c r="N61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A62">
+        <f t="shared" ref="A62:B62" si="21">A57</f>
+        <v>421</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="21"/>
+        <v>430</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" t="s">
+        <v>138</v>
+      </c>
+      <c r="M62" t="s">
+        <v>138</v>
+      </c>
+      <c r="N62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A63">
+        <f t="shared" ref="A63:B63" si="22">A58</f>
+        <v>466</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="22"/>
+        <v>430</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>138</v>
+      </c>
+      <c r="L63" t="s">
+        <v>138</v>
+      </c>
+      <c r="M63" t="s">
+        <v>138</v>
+      </c>
+      <c r="N63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A64">
+        <f t="shared" ref="A64:B64" si="23">A59</f>
+        <v>511</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="23"/>
+        <v>430</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>138</v>
+      </c>
+      <c r="L64" t="s">
+        <v>138</v>
+      </c>
+      <c r="M64" t="s">
+        <v>138</v>
+      </c>
+      <c r="N64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A65">
+        <f t="shared" ref="A65:B65" si="24">A60</f>
+        <v>556</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="24"/>
+        <v>430</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>138</v>
+      </c>
+      <c r="L65" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" t="s">
+        <v>138</v>
+      </c>
+      <c r="N65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A66">
+        <f t="shared" ref="A66:B66" si="25">A61</f>
+        <v>376</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="25"/>
+        <v>430</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" t="s">
+        <v>139</v>
+      </c>
+      <c r="M66" t="s">
+        <v>139</v>
+      </c>
+      <c r="N66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A67">
+        <f t="shared" ref="A67:B67" si="26">A62</f>
+        <v>421</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="26"/>
+        <v>430</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>139</v>
+      </c>
+      <c r="L67" t="s">
+        <v>139</v>
+      </c>
+      <c r="M67" t="s">
+        <v>139</v>
+      </c>
+      <c r="N67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A68">
+        <f t="shared" ref="A68:B68" si="27">A63</f>
+        <v>466</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="27"/>
+        <v>430</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" t="s">
+        <v>139</v>
+      </c>
+      <c r="M68" t="s">
+        <v>139</v>
+      </c>
+      <c r="N68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A69">
+        <f t="shared" ref="A69:B69" si="28">A64</f>
+        <v>511</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="28"/>
+        <v>430</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" t="s">
+        <v>139</v>
+      </c>
+      <c r="M69" t="s">
+        <v>139</v>
+      </c>
+      <c r="N69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A70">
+        <f t="shared" ref="A70:B70" si="29">A65</f>
+        <v>556</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="29"/>
+        <v>430</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" t="s">
+        <v>139</v>
+      </c>
+      <c r="M70" t="s">
+        <v>139</v>
+      </c>
+      <c r="N70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A71">
+        <f t="shared" ref="A71:B71" si="30">A66</f>
+        <v>376</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="30"/>
+        <v>430</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>140</v>
+      </c>
+      <c r="L71" t="s">
+        <v>140</v>
+      </c>
+      <c r="M71" t="s">
+        <v>140</v>
+      </c>
+      <c r="N71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A72">
+        <f t="shared" ref="A72:B72" si="31">A67</f>
+        <v>421</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="31"/>
+        <v>430</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>140</v>
+      </c>
+      <c r="L72" t="s">
+        <v>140</v>
+      </c>
+      <c r="M72" t="s">
+        <v>140</v>
+      </c>
+      <c r="N72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A73">
+        <f t="shared" ref="A73:B73" si="32">A68</f>
+        <v>466</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="32"/>
+        <v>430</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>129</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>140</v>
+      </c>
+      <c r="L73" t="s">
+        <v>140</v>
+      </c>
+      <c r="M73" t="s">
+        <v>140</v>
+      </c>
+      <c r="N73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A74">
+        <f t="shared" ref="A74:B74" si="33">A69</f>
+        <v>511</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="33"/>
+        <v>430</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>140</v>
+      </c>
+      <c r="L74" t="s">
+        <v>140</v>
+      </c>
+      <c r="M74" t="s">
+        <v>140</v>
+      </c>
+      <c r="N74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A75">
+        <f t="shared" ref="A75:B75" si="34">A70</f>
+        <v>556</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="34"/>
+        <v>430</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>140</v>
+      </c>
+      <c r="L75" t="s">
+        <v>140</v>
+      </c>
+      <c r="M75" t="s">
+        <v>140</v>
+      </c>
+      <c r="N75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A76">
+        <f t="shared" ref="A76:B76" si="35">A71</f>
+        <v>376</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="35"/>
+        <v>430</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>141</v>
+      </c>
+      <c r="L76" t="s">
+        <v>141</v>
+      </c>
+      <c r="M76" t="s">
+        <v>141</v>
+      </c>
+      <c r="N76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A77">
+        <f t="shared" ref="A77:B77" si="36">A72</f>
+        <v>421</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="36"/>
+        <v>430</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>141</v>
+      </c>
+      <c r="L77" t="s">
+        <v>141</v>
+      </c>
+      <c r="M77" t="s">
+        <v>141</v>
+      </c>
+      <c r="N77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A78">
+        <f t="shared" ref="A78:B78" si="37">A73</f>
+        <v>466</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="37"/>
+        <v>430</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>134</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>141</v>
+      </c>
+      <c r="L78" t="s">
+        <v>141</v>
+      </c>
+      <c r="M78" t="s">
+        <v>141</v>
+      </c>
+      <c r="N78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A79">
+        <f t="shared" ref="A79:B79" si="38">A74</f>
+        <v>511</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>430</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>141</v>
+      </c>
+      <c r="L79" t="s">
+        <v>141</v>
+      </c>
+      <c r="M79" t="s">
+        <v>141</v>
+      </c>
+      <c r="N79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A80">
+        <f t="shared" ref="A80:B80" si="39">A75</f>
+        <v>556</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="39"/>
+        <v>430</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>141</v>
+      </c>
+      <c r="L80" t="s">
+        <v>141</v>
+      </c>
+      <c r="M80" t="s">
+        <v>141</v>
+      </c>
+      <c r="N80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A81">
+        <f t="shared" ref="A81:B81" si="40">A76</f>
+        <v>376</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="40"/>
+        <v>430</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>162</v>
+      </c>
+      <c r="L81" t="s">
+        <v>162</v>
+      </c>
+      <c r="M81" t="s">
+        <v>162</v>
+      </c>
+      <c r="N81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A82">
+        <f t="shared" ref="A82:B82" si="41">A77</f>
+        <v>421</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="41"/>
+        <v>430</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>162</v>
+      </c>
+      <c r="L82" t="s">
+        <v>162</v>
+      </c>
+      <c r="M82" t="s">
+        <v>162</v>
+      </c>
+      <c r="N82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A83">
+        <f t="shared" ref="A83:B83" si="42">A78</f>
+        <v>466</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="42"/>
+        <v>430</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>162</v>
+      </c>
+      <c r="L83" t="s">
+        <v>162</v>
+      </c>
+      <c r="M83" t="s">
+        <v>162</v>
+      </c>
+      <c r="N83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A84">
+        <f t="shared" ref="A84:B84" si="43">A79</f>
+        <v>511</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="43"/>
+        <v>430</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>145</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>162</v>
+      </c>
+      <c r="L84" t="s">
+        <v>162</v>
+      </c>
+      <c r="M84" t="s">
+        <v>162</v>
+      </c>
+      <c r="N84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A85">
+        <f t="shared" ref="A85:B85" si="44">A80</f>
+        <v>556</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="44"/>
+        <v>430</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>146</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>162</v>
+      </c>
+      <c r="L85" t="s">
+        <v>162</v>
+      </c>
+      <c r="M85" t="s">
+        <v>162</v>
+      </c>
+      <c r="N85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A86">
+        <f t="shared" ref="A86:B86" si="45">A81</f>
+        <v>376</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="45"/>
+        <v>430</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>163</v>
+      </c>
+      <c r="L86" t="s">
+        <v>163</v>
+      </c>
+      <c r="M86" t="s">
+        <v>163</v>
+      </c>
+      <c r="N86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A87">
+        <f t="shared" ref="A87:B87" si="46">A82</f>
+        <v>421</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="46"/>
+        <v>430</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>163</v>
+      </c>
+      <c r="L87" t="s">
+        <v>163</v>
+      </c>
+      <c r="M87" t="s">
+        <v>163</v>
+      </c>
+      <c r="N87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A88">
+        <f t="shared" ref="A88:B88" si="47">A83</f>
+        <v>466</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="47"/>
+        <v>430</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>149</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>163</v>
+      </c>
+      <c r="L88" t="s">
+        <v>163</v>
+      </c>
+      <c r="M88" t="s">
+        <v>163</v>
+      </c>
+      <c r="N88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A89">
+        <f t="shared" ref="A89:B89" si="48">A84</f>
+        <v>511</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="48"/>
+        <v>430</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>163</v>
+      </c>
+      <c r="L89" t="s">
+        <v>163</v>
+      </c>
+      <c r="M89" t="s">
+        <v>163</v>
+      </c>
+      <c r="N89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A90">
+        <f t="shared" ref="A90:B90" si="49">A85</f>
+        <v>556</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="49"/>
+        <v>430</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>163</v>
+      </c>
+      <c r="L90" t="s">
+        <v>163</v>
+      </c>
+      <c r="M90" t="s">
+        <v>163</v>
+      </c>
+      <c r="N90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A91">
+        <f t="shared" ref="A91:B91" si="50">A86</f>
+        <v>376</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="50"/>
+        <v>430</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>164</v>
+      </c>
+      <c r="L91" t="s">
+        <v>164</v>
+      </c>
+      <c r="M91" t="s">
+        <v>164</v>
+      </c>
+      <c r="N91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A92">
+        <f t="shared" ref="A92:B92" si="51">A87</f>
+        <v>421</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="51"/>
+        <v>430</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>164</v>
+      </c>
+      <c r="L92" t="s">
+        <v>164</v>
+      </c>
+      <c r="M92" t="s">
+        <v>164</v>
+      </c>
+      <c r="N92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A93">
+        <f t="shared" ref="A93:B93" si="52">A88</f>
+        <v>466</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="52"/>
+        <v>430</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>154</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>164</v>
+      </c>
+      <c r="L93" t="s">
+        <v>164</v>
+      </c>
+      <c r="M93" t="s">
+        <v>164</v>
+      </c>
+      <c r="N93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A94">
+        <f t="shared" ref="A94:B94" si="53">A89</f>
+        <v>511</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="53"/>
+        <v>430</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>164</v>
+      </c>
+      <c r="L94" t="s">
+        <v>164</v>
+      </c>
+      <c r="M94" t="s">
+        <v>164</v>
+      </c>
+      <c r="N94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A95">
+        <f t="shared" ref="A95:B95" si="54">A90</f>
+        <v>556</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="54"/>
+        <v>430</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>164</v>
+      </c>
+      <c r="L95" t="s">
+        <v>164</v>
+      </c>
+      <c r="M95" t="s">
+        <v>164</v>
+      </c>
+      <c r="N95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A96">
+        <f t="shared" ref="A96:B96" si="55">A91</f>
+        <v>376</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="55"/>
+        <v>430</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>165</v>
+      </c>
+      <c r="L96" t="s">
+        <v>165</v>
+      </c>
+      <c r="M96" t="s">
+        <v>165</v>
+      </c>
+      <c r="N96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A97">
+        <f t="shared" ref="A97:B97" si="56">A92</f>
+        <v>421</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="56"/>
+        <v>430</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>165</v>
+      </c>
+      <c r="L97" t="s">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s">
+        <v>165</v>
+      </c>
+      <c r="N97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A98">
+        <f t="shared" ref="A98:B98" si="57">A93</f>
+        <v>466</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="57"/>
+        <v>430</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>159</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>165</v>
+      </c>
+      <c r="L98" t="s">
+        <v>165</v>
+      </c>
+      <c r="M98" t="s">
+        <v>165</v>
+      </c>
+      <c r="N98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A99">
+        <f t="shared" ref="A99:B99" si="58">A94</f>
+        <v>511</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="58"/>
+        <v>430</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>165</v>
+      </c>
+      <c r="L99" t="s">
+        <v>165</v>
+      </c>
+      <c r="M99" t="s">
+        <v>165</v>
+      </c>
+      <c r="N99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A100">
+        <f t="shared" ref="A100:B100" si="59">A95</f>
+        <v>556</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="59"/>
+        <v>430</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>165</v>
+      </c>
+      <c r="L100" t="s">
+        <v>165</v>
+      </c>
+      <c r="M100" t="s">
+        <v>165</v>
+      </c>
+      <c r="N100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A101">
+        <v>-200</v>
+      </c>
+      <c r="B101">
+        <v>-200</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>99</v>
+      </c>
+      <c r="K101" t="s">
+        <v>89</v>
+      </c>
+      <c r="L101" t="s">
+        <v>89</v>
+      </c>
+      <c r="M101" t="s">
+        <v>89</v>
+      </c>
+      <c r="N101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A102">
         <f>A35+302</f>
         <v>602</v>
       </c>
-      <c r="B52">
+      <c r="B102">
         <f>B35-1</f>
         <v>435</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
         <v>92</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102">
         <v>99</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K102" t="s">
         <v>90</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L102" t="s">
         <v>96</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M102" t="s">
         <v>96</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N102" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A53">
-        <f>A52</f>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A103">
+        <f>A102</f>
         <v>602</v>
       </c>
-      <c r="B53">
-        <f>B52</f>
+      <c r="B103">
+        <f>B102</f>
         <v>435</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
         <v>95</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>99</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K103" t="s">
         <v>94</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A54">
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A104">
         <v>5</v>
       </c>
-      <c r="B54">
+      <c r="B104">
         <v>370</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
         <v>77</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-      <c r="J54">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104">
         <v>99</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K104" t="s">
         <v>74</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L104" t="s">
         <v>75</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M104" t="s">
         <v>75</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N104" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A55">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A105">
         <v>5</v>
       </c>
-      <c r="B55">
+      <c r="B105">
         <v>370</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
         <v>79</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
         <v>76</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A56">
-        <f>A55+85</f>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A106">
+        <f>A105+85</f>
         <v>90</v>
       </c>
-      <c r="B56">
-        <f>B55+50</f>
+      <c r="B106">
+        <f>B105+50</f>
         <v>420</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
         <v>99</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <v>99</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K106" t="s">
         <v>98</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A57">
-        <f>A55+111</f>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A107">
+        <f>A105+111</f>
         <v>116</v>
       </c>
-      <c r="B57">
-        <f>B56+3</f>
+      <c r="B107">
+        <f>B106+3</f>
         <v>423</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
         <v>86</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
         <v>84</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A58">
-        <f>A57</f>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A108">
+        <f>A107</f>
         <v>116</v>
       </c>
-      <c r="B58">
-        <f>B57</f>
+      <c r="B108">
+        <f>B107</f>
         <v>423</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
         <v>80</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
         <v>85</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A59">
-        <f>A58-6</f>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A109">
+        <f>A108-6</f>
         <v>110</v>
       </c>
-      <c r="B59">
-        <f>B58+12</f>
+      <c r="B109">
+        <f>B108+12</f>
         <v>435</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
         <v>83</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
         <v>78</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A60">
-        <f t="shared" ref="A60" si="8">A59</f>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A110">
+        <f t="shared" ref="A110" si="60">A109</f>
         <v>110</v>
       </c>
-      <c r="B60">
-        <f>B59</f>
+      <c r="B110">
+        <f>B109</f>
         <v>435</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
         <v>81</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
         <v>82</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A61">
-        <f>A56+3</f>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A111">
+        <f>A106+3</f>
         <v>93</v>
       </c>
-      <c r="B61">
-        <f>B56+33</f>
+      <c r="B111">
+        <f>B106+33</f>
         <v>453</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>101</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111">
         <v>99</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K111" t="s">
         <v>89</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L111" t="s">
         <v>102</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M111" t="s">
         <v>103</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N111" t="s">
         <v>100</v>
       </c>
     </row>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -534,21 +534,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ingame_img_count_1.dds</t>
-  </si>
-  <si>
-    <t>ingame_img_count_2.dds</t>
-  </si>
-  <si>
-    <t>ingame_img_count_3.dds</t>
-  </si>
-  <si>
-    <t>ingame_img_count_4.dds</t>
-  </si>
-  <si>
-    <t>ingame_img_count_5.dds</t>
-  </si>
-  <si>
     <t>skill1cool6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -629,22 +614,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ingame_img_count_6.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingame_img_count_7.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingame_img_count_8.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingame_img_count_9.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>skill1cool0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -665,8 +634,34 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ingame_img_count_0.dds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>ingame_img_count_0.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_1.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_2.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_3.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_4.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_5.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_6.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_7.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_8.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_9.png</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1585,8 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3381,12 +3376,12 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
-        <f>A46 + 20</f>
-        <v>376</v>
+        <f>A46 + 10</f>
+        <v>366</v>
       </c>
       <c r="B51">
-        <f>B46 + 20</f>
-        <v>430</v>
+        <f>B46 + 10</f>
+        <v>420</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3398,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3413,26 +3408,26 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M51" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N51" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
-        <f t="shared" ref="A52:B52" si="12">A47 + 20</f>
-        <v>421</v>
+        <f t="shared" ref="A52:B52" si="12">A47 + 10</f>
+        <v>411</v>
       </c>
       <c r="B52">
         <f t="shared" si="12"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3444,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3459,26 +3454,26 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N52" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
-        <f t="shared" ref="A53:B53" si="13">A48 + 20</f>
-        <v>466</v>
+        <f t="shared" ref="A53:B53" si="13">A48 + 10</f>
+        <v>456</v>
       </c>
       <c r="B53">
         <f t="shared" si="13"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3490,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3505,26 +3500,26 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L53" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M53" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N53" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A54">
-        <f t="shared" ref="A54:B54" si="14">A49 + 20</f>
-        <v>511</v>
+        <f t="shared" ref="A54:B54" si="14">A49 + 10</f>
+        <v>501</v>
       </c>
       <c r="B54">
         <f t="shared" si="14"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3536,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3551,26 +3546,26 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L54" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M54" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N54" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A55">
-        <f t="shared" ref="A55:B55" si="15">A50 + 20</f>
-        <v>556</v>
+        <f t="shared" ref="A55:B55" si="15">A50 + 10</f>
+        <v>546</v>
       </c>
       <c r="B55">
         <f t="shared" si="15"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3582,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3597,26 +3592,26 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A56">
         <f>A51</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B56">
         <f>B51</f>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3643,26 +3638,26 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M56" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="N56" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A57">
         <f t="shared" ref="A57:B57" si="16">A52</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B57">
         <f t="shared" si="16"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3689,26 +3684,26 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M57" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="N57" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A58">
         <f t="shared" ref="A58:B58" si="17">A53</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B58">
         <f t="shared" si="17"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3735,26 +3730,26 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M58" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="N58" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59">
         <f t="shared" ref="A59:B59" si="18">A54</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B59">
         <f t="shared" si="18"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3781,26 +3776,26 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="N59" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A60">
         <f t="shared" ref="A60:B60" si="19">A55</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B60">
         <f t="shared" si="19"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3827,26 +3822,26 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L60" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M60" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="N60" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A61">
         <f t="shared" ref="A61:B61" si="20">A56</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B61">
         <f t="shared" si="20"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3873,26 +3868,26 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N61" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A62">
         <f t="shared" ref="A62:B62" si="21">A57</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B62">
         <f t="shared" si="21"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3919,26 +3914,26 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N62" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A63">
         <f t="shared" ref="A63:B63" si="22">A58</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B63">
         <f t="shared" si="22"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3965,26 +3960,26 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M63" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N63" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A64">
         <f t="shared" ref="A64:B64" si="23">A59</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B64">
         <f t="shared" si="23"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4011,26 +4006,26 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M64" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N64" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A65">
         <f t="shared" ref="A65:B65" si="24">A60</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B65">
         <f t="shared" si="24"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4057,26 +4052,26 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M65" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A66">
         <f t="shared" ref="A66:B66" si="25">A61</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B66">
         <f t="shared" si="25"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4103,26 +4098,26 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L66" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M66" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="N66" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A67">
         <f t="shared" ref="A67:B67" si="26">A62</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B67">
         <f t="shared" si="26"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4149,26 +4144,26 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="N67" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A68">
         <f t="shared" ref="A68:B68" si="27">A63</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B68">
         <f t="shared" si="27"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4195,26 +4190,26 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L68" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="N68" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A69">
         <f t="shared" ref="A69:B69" si="28">A64</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B69">
         <f t="shared" si="28"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4241,26 +4236,26 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M69" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="N69" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A70">
         <f t="shared" ref="A70:B70" si="29">A65</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B70">
         <f t="shared" si="29"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4287,26 +4282,26 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L70" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M70" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="N70" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A71">
         <f t="shared" ref="A71:B71" si="30">A66</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B71">
         <f t="shared" si="30"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4333,26 +4328,26 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="L71" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M71" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="N71" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A72">
         <f t="shared" ref="A72:B72" si="31">A67</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B72">
         <f t="shared" si="31"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4379,26 +4374,26 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="N72" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A73">
         <f t="shared" ref="A73:B73" si="32">A68</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B73">
         <f t="shared" si="32"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4425,26 +4420,26 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="L73" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M73" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="N73" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A74">
         <f t="shared" ref="A74:B74" si="33">A69</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B74">
         <f t="shared" si="33"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4471,26 +4466,26 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M74" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="N74" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A75">
         <f t="shared" ref="A75:B75" si="34">A70</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B75">
         <f t="shared" si="34"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4517,26 +4512,26 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M75" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="N75" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A76">
         <f t="shared" ref="A76:B76" si="35">A71</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B76">
         <f t="shared" si="35"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4563,26 +4558,26 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L76" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M76" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N76" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A77">
         <f t="shared" ref="A77:B77" si="36">A72</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B77">
         <f t="shared" si="36"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4609,26 +4604,26 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M77" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N77" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A78">
         <f t="shared" ref="A78:B78" si="37">A73</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B78">
         <f t="shared" si="37"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4655,26 +4650,26 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L78" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M78" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N78" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A79">
         <f t="shared" ref="A79:B79" si="38">A74</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B79">
         <f t="shared" si="38"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4701,26 +4696,26 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M79" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N79" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A80">
         <f t="shared" ref="A80:B80" si="39">A75</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B80">
         <f t="shared" si="39"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -4747,26 +4742,26 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="M80" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N80" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A81">
         <f t="shared" ref="A81:B81" si="40">A76</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B81">
         <f t="shared" si="40"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4778,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4793,26 +4788,26 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L81" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M81" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N81" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A82">
         <f t="shared" ref="A82:B82" si="41">A77</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B82">
         <f t="shared" si="41"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4824,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4839,26 +4834,26 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L82" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M82" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N82" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A83">
         <f t="shared" ref="A83:B83" si="42">A78</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B83">
         <f t="shared" si="42"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4870,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4885,26 +4880,26 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A84">
         <f t="shared" ref="A84:B84" si="43">A79</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B84">
         <f t="shared" si="43"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4916,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4931,26 +4926,26 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L84" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M84" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N84" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A85">
         <f t="shared" ref="A85:B85" si="44">A80</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B85">
         <f t="shared" si="44"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4962,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4977,26 +4972,26 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L85" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M85" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N85" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A86">
         <f t="shared" ref="A86:B86" si="45">A81</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B86">
         <f t="shared" si="45"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5008,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5023,26 +5018,26 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L86" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M86" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N86" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A87">
         <f t="shared" ref="A87:B87" si="46">A82</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B87">
         <f t="shared" si="46"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5054,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -5069,26 +5064,26 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L87" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M87" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N87" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A88">
         <f t="shared" ref="A88:B88" si="47">A83</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B88">
         <f t="shared" si="47"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5100,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5115,26 +5110,26 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M88" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N88" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A89">
         <f t="shared" ref="A89:B89" si="48">A84</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B89">
         <f t="shared" si="48"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5146,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5161,26 +5156,26 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L89" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M89" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N89" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A90">
         <f t="shared" ref="A90:B90" si="49">A85</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B90">
         <f t="shared" si="49"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5192,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5207,26 +5202,26 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M90" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N90" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A91">
         <f t="shared" ref="A91:B91" si="50">A86</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B91">
         <f t="shared" si="50"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5238,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5253,26 +5248,26 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L91" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M91" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N91" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A92">
         <f t="shared" ref="A92:B92" si="51">A87</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B92">
         <f t="shared" si="51"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5284,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5299,26 +5294,26 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M92" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N92" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A93">
         <f t="shared" ref="A93:B93" si="52">A88</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B93">
         <f t="shared" si="52"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -5330,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5345,26 +5340,26 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L93" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M93" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N93" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A94">
         <f t="shared" ref="A94:B94" si="53">A89</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B94">
         <f t="shared" si="53"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5376,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5391,26 +5386,26 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M94" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N94" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A95">
         <f t="shared" ref="A95:B95" si="54">A90</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B95">
         <f t="shared" si="54"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -5422,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5437,26 +5432,26 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M95" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N95" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A96">
         <f t="shared" ref="A96:B96" si="55">A91</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B96">
         <f t="shared" si="55"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5468,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5483,26 +5478,26 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L96" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M96" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N96" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A97">
         <f t="shared" ref="A97:B97" si="56">A92</f>
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B97">
         <f t="shared" si="56"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5514,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5529,26 +5524,26 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L97" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M97" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N97" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A98">
         <f t="shared" ref="A98:B98" si="57">A93</f>
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B98">
         <f t="shared" si="57"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5560,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5575,26 +5570,26 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L98" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M98" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N98" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A99">
         <f t="shared" ref="A99:B99" si="58">A94</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B99">
         <f t="shared" si="58"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5606,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5621,26 +5616,26 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L99" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M99" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N99" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A100">
         <f t="shared" ref="A100:B100" si="59">A95</f>
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B100">
         <f t="shared" si="59"/>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -5652,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5667,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L100" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M100" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N100" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.6">

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="174">
   <si>
     <t>PT.xy</t>
   </si>
@@ -400,6 +400,274 @@
   </si>
   <si>
     <t>ingame_btn_healwell_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_btn_hero_skill_lock.png</t>
+  </si>
+  <si>
+    <t>skill1lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5lock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>used</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5cool0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_count_0.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_1.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_2.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_3.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_4.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_5.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_6.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_7.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_8.png</t>
+  </si>
+  <si>
+    <t>ingame_img_count_9.png</t>
+  </si>
+  <si>
+    <t>ingame_img_bottom_hp.png</t>
+  </si>
+  <si>
+    <t>hpbar</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1321,19 +1589,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1341,92 +1609,106 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3">
         <f>COUNTA(A4:A6)</f>
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B3:G3" si="0">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C3" t="str">
-        <f>C$1</f>
+        <f t="shared" si="0"/>
+        <v>enable</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>used</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
         <v>BG</v>
       </c>
-      <c r="D3" t="str">
-        <f>D$1</f>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
         <v>IndexName</v>
-      </c>
-      <c r="E3" t="str">
-        <f>E$1</f>
-        <v>rotate</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:L3" si="0">F$1</f>
-        <v>rotateSpd</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
+        <v>rotate</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:N3" si="1">H$1</f>
+        <v>rotateSpd</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
         <v>Button</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
         <v>Func</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
         <v>normal</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" si="0"/>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
         <v>over</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" si="0"/>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
         <v>select</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="0"/>
+      <c r="N3" t="str">
+        <f t="shared" si="1"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>385</v>
       </c>
@@ -1434,37 +1716,43 @@
         <v>400</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1474,90 +1762,104 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A8">
         <f>COUNTA(A9:A11)</f>
         <v>2</v>
       </c>
       <c r="B8" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B8:G8" si="2">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C8" t="str">
-        <f>C$1</f>
+        <f t="shared" si="2"/>
+        <v>enable</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>used</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
         <v>BG</v>
       </c>
-      <c r="D8" t="str">
-        <f>D$1</f>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
         <v>IndexName</v>
       </c>
-      <c r="E8" t="str">
-        <f>E$1</f>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
         <v>rotate</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" ref="F8:L8" si="1">F$1</f>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:N8" si="3">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
         <v>Button</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
         <v>Func</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
         <v>normal</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
         <v>over</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
         <v>select</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>385</v>
       </c>
@@ -1565,37 +1867,43 @@
         <v>400</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>1001</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1605,90 +1913,104 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A13">
         <f>COUNTA(A14:A31)</f>
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B13:G13" si="4">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C13" t="str">
-        <f>C$1</f>
+        <f t="shared" si="4"/>
+        <v>enable</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="4"/>
+        <v>used</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
         <v>BG</v>
       </c>
-      <c r="D13" t="str">
-        <f>D$1</f>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
         <v>IndexName</v>
       </c>
-      <c r="E13" t="str">
-        <f>E$1</f>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
         <v>rotate</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" ref="F13:L13" si="2">F$1</f>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:N13" si="5">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
         <v>Button</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
         <v>Func</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
         <v>normal</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="2"/>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
         <v>over</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
         <v>select</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="2"/>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1698,35 +2020,41 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>32</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>-62</v>
       </c>
@@ -1736,35 +2064,41 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>33</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>385</v>
       </c>
@@ -1772,37 +2106,43 @@
         <v>400</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>50</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>61</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>40</v>
       </c>
@@ -1810,37 +2150,43 @@
         <v>380</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1848,37 +2194,43 @@
         <v>380</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>39</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>40</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>160</v>
       </c>
@@ -1886,37 +2238,43 @@
         <v>380</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>44</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20">
         <f>A21-40</f>
         <v>730</v>
@@ -1925,37 +2283,43 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>99</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>46</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>47</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21">
         <f>A22-40</f>
         <v>770</v>
@@ -1964,37 +2328,43 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>99</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>46</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>47</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>47</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22">
         <f>A23-40</f>
         <v>810</v>
@@ -2003,37 +2373,43 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>46</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>47</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23">
         <f>A24-40</f>
         <v>850</v>
@@ -2042,37 +2418,43 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>99</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>47</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>890</v>
       </c>
@@ -2080,37 +2462,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>99</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" t="s">
-        <v>49</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25">
         <v>67</v>
       </c>
@@ -2118,92 +2506,106 @@
         <v>67</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.02</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>99</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>50</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A98)</f>
-        <v>23</v>
+        <f>COUNTA(A34:A152)</f>
+        <v>79</v>
       </c>
       <c r="B33" t="str">
-        <f>B$1</f>
+        <f t="shared" ref="B33:G33" si="6">B$1</f>
         <v>PT.xy</v>
       </c>
       <c r="C33" t="str">
-        <f>C$1</f>
+        <f t="shared" si="6"/>
+        <v>enable</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="6"/>
+        <v>used</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="6"/>
         <v>BG</v>
       </c>
-      <c r="D33" t="str">
-        <f>D$1</f>
+      <c r="F33" t="str">
+        <f t="shared" si="6"/>
         <v>IndexName</v>
       </c>
-      <c r="E33" t="str">
-        <f>E$1</f>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
         <v>rotate</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" ref="F33:L33" si="3">F$1</f>
+      <c r="H33" t="str">
+        <f t="shared" ref="H33:N33" si="7">H$1</f>
         <v>rotateSpd</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="3"/>
+      <c r="I33" t="str">
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="3"/>
+      <c r="J33" t="str">
+        <f t="shared" si="7"/>
         <v>Func</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
+      <c r="K33" t="str">
+        <f t="shared" si="7"/>
         <v>normal</v>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
+      <c r="L33" t="str">
+        <f t="shared" si="7"/>
         <v>over</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="3"/>
+      <c r="M33" t="str">
+        <f t="shared" si="7"/>
         <v>select</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="3"/>
+      <c r="N33" t="str">
+        <f t="shared" si="7"/>
         <v>disenable</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>700</v>
       </c>
@@ -2211,37 +2613,43 @@
         <v>400</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>150</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>59</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>60</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>61</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>300</v>
       </c>
@@ -2251,35 +2659,41 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>88</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>99</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>87</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>356</v>
       </c>
@@ -2289,35 +2703,41 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>99</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>64</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A37">
         <f>A36+45</f>
         <v>401</v>
@@ -2329,786 +2749,3480 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>66</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>99</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>70</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A38">
-        <f t="shared" ref="A38:A40" si="4">A37+45</f>
+        <f t="shared" ref="A38:A40" si="8">A37+45</f>
         <v>446</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B45" si="5">B37</f>
+        <f t="shared" ref="B38:B45" si="9">B37</f>
         <v>410</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>99</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>71</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>491</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
         <v>68</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>99</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>72</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
         <v>69</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>99</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>73</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41">
         <f>A36</f>
         <v>356</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>54</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>101</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>53</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>97</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>97</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <f t="shared" ref="A42:A45" si="6">A37</f>
+        <f t="shared" ref="A42:A45" si="10">A37</f>
         <v>401</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>55</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>102</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>53</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>97</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
         <v>97</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>446</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
         <v>56</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>103</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>53</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>97</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
         <v>97</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>491</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>57</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>104</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>53</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>97</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>97</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>536</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
         <v>63</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>105</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>53</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>97</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>97</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
+        <f>A41</f>
+        <v>356</v>
+      </c>
+      <c r="B46">
+        <f>B41</f>
+        <v>410</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A47">
+        <f t="shared" ref="A47:B50" si="11">A42</f>
+        <v>401</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="11"/>
+        <v>410</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A48">
+        <f t="shared" si="11"/>
+        <v>446</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="11"/>
+        <v>410</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A49">
+        <f t="shared" si="11"/>
+        <v>491</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="11"/>
+        <v>410</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A50">
+        <f t="shared" si="11"/>
+        <v>536</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="11"/>
+        <v>410</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A51">
+        <f>A46 + 10</f>
+        <v>366</v>
+      </c>
+      <c r="B51">
+        <f>B46 + 10</f>
+        <v>420</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>162</v>
+      </c>
+      <c r="L51" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" t="s">
+        <v>162</v>
+      </c>
+      <c r="N51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A52">
+        <f t="shared" ref="A52:B52" si="12">A47 + 10</f>
+        <v>411</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="12"/>
+        <v>420</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52" t="s">
+        <v>162</v>
+      </c>
+      <c r="M52" t="s">
+        <v>162</v>
+      </c>
+      <c r="N52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A53">
+        <f t="shared" ref="A53:B53" si="13">A48 + 10</f>
+        <v>456</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="13"/>
+        <v>420</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53" t="s">
+        <v>162</v>
+      </c>
+      <c r="M53" t="s">
+        <v>162</v>
+      </c>
+      <c r="N53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A54">
+        <f t="shared" ref="A54:B54" si="14">A49 + 10</f>
+        <v>501</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="14"/>
+        <v>420</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>162</v>
+      </c>
+      <c r="L54" t="s">
+        <v>162</v>
+      </c>
+      <c r="M54" t="s">
+        <v>162</v>
+      </c>
+      <c r="N54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A55">
+        <f t="shared" ref="A55:B55" si="15">A50 + 10</f>
+        <v>546</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>420</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>162</v>
+      </c>
+      <c r="L55" t="s">
+        <v>162</v>
+      </c>
+      <c r="M55" t="s">
+        <v>162</v>
+      </c>
+      <c r="N55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A56">
+        <f>A51</f>
+        <v>366</v>
+      </c>
+      <c r="B56">
+        <f>B51</f>
+        <v>420</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" t="s">
+        <v>163</v>
+      </c>
+      <c r="N56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A57">
+        <f t="shared" ref="A57:B57" si="16">A52</f>
+        <v>411</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="16"/>
+        <v>420</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" t="s">
+        <v>163</v>
+      </c>
+      <c r="M57" t="s">
+        <v>163</v>
+      </c>
+      <c r="N57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A58">
+        <f t="shared" ref="A58:B58" si="17">A53</f>
+        <v>456</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="17"/>
+        <v>420</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L58" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" t="s">
+        <v>163</v>
+      </c>
+      <c r="N58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A59">
+        <f t="shared" ref="A59:B59" si="18">A54</f>
+        <v>501</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="18"/>
+        <v>420</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" t="s">
+        <v>163</v>
+      </c>
+      <c r="M59" t="s">
+        <v>163</v>
+      </c>
+      <c r="N59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A60">
+        <f t="shared" ref="A60:B60" si="19">A55</f>
+        <v>546</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="19"/>
+        <v>420</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" t="s">
+        <v>163</v>
+      </c>
+      <c r="N60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A61">
+        <f t="shared" ref="A61:B61" si="20">A56</f>
+        <v>366</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="20"/>
+        <v>420</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>164</v>
+      </c>
+      <c r="L61" t="s">
+        <v>164</v>
+      </c>
+      <c r="M61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A62">
+        <f t="shared" ref="A62:B62" si="21">A57</f>
+        <v>411</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="21"/>
+        <v>420</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>164</v>
+      </c>
+      <c r="L62" t="s">
+        <v>164</v>
+      </c>
+      <c r="M62" t="s">
+        <v>164</v>
+      </c>
+      <c r="N62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A63">
+        <f t="shared" ref="A63:B63" si="22">A58</f>
+        <v>456</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="22"/>
+        <v>420</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" t="s">
+        <v>164</v>
+      </c>
+      <c r="N63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A64">
+        <f t="shared" ref="A64:B64" si="23">A59</f>
+        <v>501</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="23"/>
+        <v>420</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>164</v>
+      </c>
+      <c r="L64" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" t="s">
+        <v>164</v>
+      </c>
+      <c r="N64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A65">
+        <f t="shared" ref="A65:B65" si="24">A60</f>
+        <v>546</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="24"/>
+        <v>420</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>164</v>
+      </c>
+      <c r="L65" t="s">
+        <v>164</v>
+      </c>
+      <c r="M65" t="s">
+        <v>164</v>
+      </c>
+      <c r="N65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A66">
+        <f t="shared" ref="A66:B66" si="25">A61</f>
+        <v>366</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="25"/>
+        <v>420</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>165</v>
+      </c>
+      <c r="L66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M66" t="s">
+        <v>165</v>
+      </c>
+      <c r="N66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A67">
+        <f t="shared" ref="A67:B67" si="26">A62</f>
+        <v>411</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="26"/>
+        <v>420</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>165</v>
+      </c>
+      <c r="L67" t="s">
+        <v>165</v>
+      </c>
+      <c r="M67" t="s">
+        <v>165</v>
+      </c>
+      <c r="N67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A68">
+        <f t="shared" ref="A68:B68" si="27">A63</f>
+        <v>456</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="27"/>
+        <v>420</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>165</v>
+      </c>
+      <c r="L68" t="s">
+        <v>165</v>
+      </c>
+      <c r="M68" t="s">
+        <v>165</v>
+      </c>
+      <c r="N68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A69">
+        <f t="shared" ref="A69:B69" si="28">A64</f>
+        <v>501</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="28"/>
+        <v>420</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>165</v>
+      </c>
+      <c r="L69" t="s">
+        <v>165</v>
+      </c>
+      <c r="M69" t="s">
+        <v>165</v>
+      </c>
+      <c r="N69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A70">
+        <f t="shared" ref="A70:B70" si="29">A65</f>
+        <v>546</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="29"/>
+        <v>420</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>165</v>
+      </c>
+      <c r="L70" t="s">
+        <v>165</v>
+      </c>
+      <c r="M70" t="s">
+        <v>165</v>
+      </c>
+      <c r="N70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A71">
+        <f t="shared" ref="A71:B71" si="30">A66</f>
+        <v>366</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="30"/>
+        <v>420</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>166</v>
+      </c>
+      <c r="L71" t="s">
+        <v>166</v>
+      </c>
+      <c r="M71" t="s">
+        <v>166</v>
+      </c>
+      <c r="N71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A72">
+        <f t="shared" ref="A72:B72" si="31">A67</f>
+        <v>411</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="31"/>
+        <v>420</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>166</v>
+      </c>
+      <c r="L72" t="s">
+        <v>166</v>
+      </c>
+      <c r="M72" t="s">
+        <v>166</v>
+      </c>
+      <c r="N72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A73">
+        <f t="shared" ref="A73:B73" si="32">A68</f>
+        <v>456</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="32"/>
+        <v>420</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>129</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>166</v>
+      </c>
+      <c r="L73" t="s">
+        <v>166</v>
+      </c>
+      <c r="M73" t="s">
+        <v>166</v>
+      </c>
+      <c r="N73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A74">
+        <f t="shared" ref="A74:B74" si="33">A69</f>
+        <v>501</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="33"/>
+        <v>420</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>166</v>
+      </c>
+      <c r="L74" t="s">
+        <v>166</v>
+      </c>
+      <c r="M74" t="s">
+        <v>166</v>
+      </c>
+      <c r="N74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A75">
+        <f t="shared" ref="A75:B75" si="34">A70</f>
+        <v>546</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="34"/>
+        <v>420</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>166</v>
+      </c>
+      <c r="L75" t="s">
+        <v>166</v>
+      </c>
+      <c r="M75" t="s">
+        <v>166</v>
+      </c>
+      <c r="N75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A76">
+        <f t="shared" ref="A76:B76" si="35">A71</f>
+        <v>366</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="35"/>
+        <v>420</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>167</v>
+      </c>
+      <c r="L76" t="s">
+        <v>167</v>
+      </c>
+      <c r="M76" t="s">
+        <v>167</v>
+      </c>
+      <c r="N76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A77">
+        <f t="shared" ref="A77:B77" si="36">A72</f>
+        <v>411</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="36"/>
+        <v>420</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>167</v>
+      </c>
+      <c r="L77" t="s">
+        <v>167</v>
+      </c>
+      <c r="M77" t="s">
+        <v>167</v>
+      </c>
+      <c r="N77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A78">
+        <f t="shared" ref="A78:B78" si="37">A73</f>
+        <v>456</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="37"/>
+        <v>420</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>134</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>167</v>
+      </c>
+      <c r="L78" t="s">
+        <v>167</v>
+      </c>
+      <c r="M78" t="s">
+        <v>167</v>
+      </c>
+      <c r="N78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A79">
+        <f t="shared" ref="A79:B79" si="38">A74</f>
+        <v>501</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>420</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>167</v>
+      </c>
+      <c r="L79" t="s">
+        <v>167</v>
+      </c>
+      <c r="M79" t="s">
+        <v>167</v>
+      </c>
+      <c r="N79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A80">
+        <f t="shared" ref="A80:B80" si="39">A75</f>
+        <v>546</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="39"/>
+        <v>420</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>167</v>
+      </c>
+      <c r="L80" t="s">
+        <v>167</v>
+      </c>
+      <c r="M80" t="s">
+        <v>167</v>
+      </c>
+      <c r="N80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A81">
+        <f t="shared" ref="A81:B81" si="40">A76</f>
+        <v>366</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="40"/>
+        <v>420</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>168</v>
+      </c>
+      <c r="L81" t="s">
+        <v>168</v>
+      </c>
+      <c r="M81" t="s">
+        <v>168</v>
+      </c>
+      <c r="N81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A82">
+        <f t="shared" ref="A82:B82" si="41">A77</f>
+        <v>411</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="41"/>
+        <v>420</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>168</v>
+      </c>
+      <c r="L82" t="s">
+        <v>168</v>
+      </c>
+      <c r="M82" t="s">
+        <v>168</v>
+      </c>
+      <c r="N82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A83">
+        <f t="shared" ref="A83:B83" si="42">A78</f>
+        <v>456</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="42"/>
+        <v>420</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>168</v>
+      </c>
+      <c r="L83" t="s">
+        <v>168</v>
+      </c>
+      <c r="M83" t="s">
+        <v>168</v>
+      </c>
+      <c r="N83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A84">
+        <f t="shared" ref="A84:B84" si="43">A79</f>
+        <v>501</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="43"/>
+        <v>420</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>168</v>
+      </c>
+      <c r="L84" t="s">
+        <v>168</v>
+      </c>
+      <c r="M84" t="s">
+        <v>168</v>
+      </c>
+      <c r="N84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A85">
+        <f t="shared" ref="A85:B85" si="44">A80</f>
+        <v>546</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="44"/>
+        <v>420</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>168</v>
+      </c>
+      <c r="L85" t="s">
+        <v>168</v>
+      </c>
+      <c r="M85" t="s">
+        <v>168</v>
+      </c>
+      <c r="N85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A86">
+        <f t="shared" ref="A86:B86" si="45">A81</f>
+        <v>366</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="45"/>
+        <v>420</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>169</v>
+      </c>
+      <c r="L86" t="s">
+        <v>169</v>
+      </c>
+      <c r="M86" t="s">
+        <v>169</v>
+      </c>
+      <c r="N86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A87">
+        <f t="shared" ref="A87:B87" si="46">A82</f>
+        <v>411</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="46"/>
+        <v>420</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>169</v>
+      </c>
+      <c r="L87" t="s">
+        <v>169</v>
+      </c>
+      <c r="M87" t="s">
+        <v>169</v>
+      </c>
+      <c r="N87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A88">
+        <f t="shared" ref="A88:B88" si="47">A83</f>
+        <v>456</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="47"/>
+        <v>420</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>169</v>
+      </c>
+      <c r="L88" t="s">
+        <v>169</v>
+      </c>
+      <c r="M88" t="s">
+        <v>169</v>
+      </c>
+      <c r="N88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A89">
+        <f t="shared" ref="A89:B89" si="48">A84</f>
+        <v>501</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="48"/>
+        <v>420</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>169</v>
+      </c>
+      <c r="L89" t="s">
+        <v>169</v>
+      </c>
+      <c r="M89" t="s">
+        <v>169</v>
+      </c>
+      <c r="N89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A90">
+        <f t="shared" ref="A90:B90" si="49">A85</f>
+        <v>546</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="49"/>
+        <v>420</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>146</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>169</v>
+      </c>
+      <c r="L90" t="s">
+        <v>169</v>
+      </c>
+      <c r="M90" t="s">
+        <v>169</v>
+      </c>
+      <c r="N90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A91">
+        <f t="shared" ref="A91:B91" si="50">A86</f>
+        <v>366</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="50"/>
+        <v>420</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>170</v>
+      </c>
+      <c r="L91" t="s">
+        <v>170</v>
+      </c>
+      <c r="M91" t="s">
+        <v>170</v>
+      </c>
+      <c r="N91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A92">
+        <f t="shared" ref="A92:B92" si="51">A87</f>
+        <v>411</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="51"/>
+        <v>420</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>148</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>170</v>
+      </c>
+      <c r="L92" t="s">
+        <v>170</v>
+      </c>
+      <c r="M92" t="s">
+        <v>170</v>
+      </c>
+      <c r="N92" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A93">
+        <f t="shared" ref="A93:B93" si="52">A88</f>
+        <v>456</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="52"/>
+        <v>420</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>170</v>
+      </c>
+      <c r="L93" t="s">
+        <v>170</v>
+      </c>
+      <c r="M93" t="s">
+        <v>170</v>
+      </c>
+      <c r="N93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A94">
+        <f t="shared" ref="A94:B94" si="53">A89</f>
+        <v>501</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="53"/>
+        <v>420</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>170</v>
+      </c>
+      <c r="L94" t="s">
+        <v>170</v>
+      </c>
+      <c r="M94" t="s">
+        <v>170</v>
+      </c>
+      <c r="N94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A95">
+        <f t="shared" ref="A95:B95" si="54">A90</f>
+        <v>546</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="54"/>
+        <v>420</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>151</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>170</v>
+      </c>
+      <c r="L95" t="s">
+        <v>170</v>
+      </c>
+      <c r="M95" t="s">
+        <v>170</v>
+      </c>
+      <c r="N95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A96">
+        <f t="shared" ref="A96:B96" si="55">A91</f>
+        <v>366</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="55"/>
+        <v>420</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>152</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>171</v>
+      </c>
+      <c r="L96" t="s">
+        <v>171</v>
+      </c>
+      <c r="M96" t="s">
+        <v>171</v>
+      </c>
+      <c r="N96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A97">
+        <f t="shared" ref="A97:B97" si="56">A92</f>
+        <v>411</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="56"/>
+        <v>420</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>153</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>171</v>
+      </c>
+      <c r="L97" t="s">
+        <v>171</v>
+      </c>
+      <c r="M97" t="s">
+        <v>171</v>
+      </c>
+      <c r="N97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A98">
+        <f t="shared" ref="A98:B98" si="57">A93</f>
+        <v>456</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="57"/>
+        <v>420</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>154</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>171</v>
+      </c>
+      <c r="L98" t="s">
+        <v>171</v>
+      </c>
+      <c r="M98" t="s">
+        <v>171</v>
+      </c>
+      <c r="N98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A99">
+        <f t="shared" ref="A99:B99" si="58">A94</f>
+        <v>501</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="58"/>
+        <v>420</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>171</v>
+      </c>
+      <c r="L99" t="s">
+        <v>171</v>
+      </c>
+      <c r="M99" t="s">
+        <v>171</v>
+      </c>
+      <c r="N99" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A100">
+        <f t="shared" ref="A100:B100" si="59">A95</f>
+        <v>546</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="59"/>
+        <v>420</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>171</v>
+      </c>
+      <c r="L100" t="s">
+        <v>171</v>
+      </c>
+      <c r="M100" t="s">
+        <v>171</v>
+      </c>
+      <c r="N100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A101">
         <v>-200</v>
       </c>
-      <c r="B46">
+      <c r="B101">
         <v>-200</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
         <v>91</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101">
         <v>99</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K101" t="s">
         <v>89</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L101" t="s">
         <v>89</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M101" t="s">
         <v>89</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A47">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A102">
         <f>A35+302</f>
         <v>602</v>
       </c>
-      <c r="B47">
+      <c r="B102">
         <f>B35-1</f>
         <v>435</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
         <v>92</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102">
         <v>99</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K102" t="s">
         <v>90</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L102" t="s">
         <v>96</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M102" t="s">
         <v>96</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N102" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A48">
-        <f>A47</f>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A103">
+        <f>A102</f>
         <v>602</v>
       </c>
-      <c r="B48">
-        <f>B47</f>
+      <c r="B103">
+        <f>B102</f>
         <v>435</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
         <v>95</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>99</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K103" t="s">
         <v>94</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A49">
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A104">
         <v>5</v>
       </c>
-      <c r="B49">
+      <c r="B104">
         <v>370</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
         <v>77</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104">
         <v>99</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K104" t="s">
         <v>74</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L104" t="s">
         <v>75</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M104" t="s">
         <v>75</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N104" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A50">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A105">
         <v>5</v>
       </c>
-      <c r="B50">
+      <c r="B105">
         <v>370</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
         <v>79</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
         <v>76</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A51">
-        <f>A50+85</f>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A106">
+        <f>A105+85</f>
         <v>90</v>
       </c>
-      <c r="B51">
-        <f>B50+50</f>
+      <c r="B106">
+        <f>B105+50</f>
         <v>420</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
         <v>99</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106">
         <v>99</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K106" t="s">
         <v>98</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A52">
-        <f>A50+111</f>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A107">
+        <f>A105+111</f>
         <v>116</v>
       </c>
-      <c r="B52">
-        <f>B51+3</f>
+      <c r="B107">
+        <f>B106+3</f>
         <v>423</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
         <v>86</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
         <v>84</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A53">
-        <f>A52</f>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A108">
+        <f>A107</f>
         <v>116</v>
       </c>
-      <c r="B53">
-        <f>B52</f>
+      <c r="B108">
+        <f>B107</f>
         <v>423</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
         <v>80</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
         <v>85</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A54">
-        <f>A53-6</f>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A109">
+        <f>A108-6</f>
         <v>110</v>
       </c>
-      <c r="B54">
-        <f>B53+12</f>
+      <c r="B109">
+        <f>B108+12</f>
         <v>435</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
         <v>83</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
         <v>78</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A55">
-        <f t="shared" ref="A55" si="7">A54</f>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A110">
+        <f t="shared" ref="A110" si="60">A109</f>
         <v>110</v>
       </c>
-      <c r="B55">
-        <f>B54</f>
+      <c r="B110">
+        <f>B109</f>
         <v>435</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
         <v>81</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
         <v>82</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A56">
-        <f>A51+3</f>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A111">
+        <f>A106+3</f>
         <v>93</v>
       </c>
-      <c r="B56">
-        <f>B51+33</f>
+      <c r="B111">
+        <f>B106+33</f>
         <v>453</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>101</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111">
         <v>99</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K111" t="s">
         <v>89</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L111" t="s">
         <v>102</v>
       </c>
-      <c r="K56" t="s">
+      <c r="M111" t="s">
         <v>103</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N111" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>172</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
   <si>
     <t>PT.xy</t>
   </si>
@@ -662,13 +662,6 @@
   </si>
   <si>
     <t>ingame_img_count_9.png</t>
-  </si>
-  <si>
-    <t>ingame_img_bottom_hp.png</t>
-  </si>
-  <si>
-    <t>hpbar</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1589,11 +1582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2550,7 +2543,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33">
         <f>COUNTA(A34:A152)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ref="B33:G33" si="6">B$1</f>
@@ -6179,50 +6172,6 @@
       </c>
       <c r="N111" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>173</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112" t="s">
-        <v>172</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -152,9 +152,6 @@
     <t>mainmenu_btn_heroinfo_ability_1.png</t>
   </si>
   <si>
-    <t>mainmenu_btn_heroinfo_ability_2.png</t>
-  </si>
-  <si>
     <t>mainmenu_btn_heroinfo_ability_3.png</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>mainmenu_btn_heroinfo_equip_1.png</t>
   </si>
   <si>
-    <t>mainmenu_btn_heroinfo_equip_2.png</t>
-  </si>
-  <si>
     <t>mainmenu_btn_heroinfo_equip_3.png</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>mainmenu_btn_heroinfo_talents_1.png</t>
   </si>
   <si>
-    <t>mainmenu_btn_heroinfo_talents_2.png</t>
-  </si>
-  <si>
     <t>mainmenu_btn_heroinfo_talents_3.png</t>
   </si>
   <si>
@@ -662,6 +653,18 @@
   </si>
   <si>
     <t>ingame_img_count_9.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_ability_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_equip_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_talents_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1584,9 +1587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1602,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1614,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1733,16 +1736,16 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.6">
@@ -1884,16 +1887,16 @@
         <v>1001</v>
       </c>
       <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.6">
@@ -2123,16 +2126,16 @@
         <v>50</v>
       </c>
       <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" t="s">
         <v>59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
@@ -2173,10 +2176,10 @@
         <v>35</v>
       </c>
       <c r="M17" t="s">
+        <v>169</v>
+      </c>
+      <c r="N17" t="s">
         <v>36</v>
-      </c>
-      <c r="N17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
@@ -2211,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
         <v>38</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" t="s">
         <v>39</v>
-      </c>
-      <c r="M18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
@@ -2255,16 +2258,16 @@
         <v>3</v>
       </c>
       <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s">
         <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
@@ -2300,16 +2303,16 @@
         <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
@@ -2345,16 +2348,16 @@
         <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
@@ -2390,16 +2393,16 @@
         <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
@@ -2435,16 +2438,16 @@
         <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
@@ -2479,16 +2482,16 @@
         <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
@@ -2523,7 +2526,7 @@
         <v>99</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2630,16 +2633,16 @@
         <v>150</v>
       </c>
       <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" t="s">
         <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.6">
@@ -2659,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2674,7 +2677,7 @@
         <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2703,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2718,7 +2721,7 @@
         <v>99</v>
       </c>
       <c r="K36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2764,7 +2767,7 @@
         <v>99</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2795,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2810,7 +2813,7 @@
         <v>99</v>
       </c>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2841,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2856,7 +2859,7 @@
         <v>99</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2887,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2902,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="K40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2933,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2948,16 +2951,16 @@
         <v>101</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
@@ -2979,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2994,16 +2997,16 @@
         <v>102</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
@@ -3025,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3040,16 +3043,16 @@
         <v>103</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
@@ -3071,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3086,16 +3089,16 @@
         <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3132,16 +3135,16 @@
         <v>105</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.6">
@@ -3163,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3178,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3209,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3224,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3255,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3270,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -3301,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3316,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3347,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3362,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3393,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3408,16 +3411,16 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
@@ -3439,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3454,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
@@ -3485,31 +3488,31 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
         <v>159</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>162</v>
-      </c>
       <c r="L53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3546,16 +3549,16 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
@@ -3577,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3592,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
@@ -3623,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3638,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3684,16 +3687,16 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
@@ -3715,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3730,16 +3733,16 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3776,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.6">
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3822,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.6">
@@ -3853,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3868,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.6">
@@ -3899,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3914,16 +3917,16 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.6">
@@ -3945,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3960,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.6">
@@ -3991,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4006,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.6">
@@ -4037,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4052,16 +4055,16 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.6">
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4098,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.6">
@@ -4129,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4144,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.6">
@@ -4175,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4190,16 +4193,16 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.6">
@@ -4221,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4236,16 +4239,16 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.6">
@@ -4267,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4282,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.6">
@@ -4313,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4328,16 +4331,16 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.6">
@@ -4359,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4374,16 +4377,16 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.6">
@@ -4405,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4420,16 +4423,16 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.6">
@@ -4451,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4466,16 +4469,16 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.6">
@@ -4497,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4512,16 +4515,16 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.6">
@@ -4543,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4558,16 +4561,16 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.6">
@@ -4589,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4604,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.6">
@@ -4635,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4650,16 +4653,16 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.6">
@@ -4681,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4696,16 +4699,16 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.6">
@@ -4727,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4742,16 +4745,16 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
@@ -4773,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4788,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
@@ -4819,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -4834,16 +4837,16 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.6">
@@ -4865,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4880,16 +4883,16 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
@@ -4911,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4926,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
@@ -4957,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4972,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.6">
@@ -5003,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -5018,16 +5021,16 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.6">
@@ -5049,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -5064,16 +5067,16 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.6">
@@ -5095,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5110,16 +5113,16 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.6">
@@ -5141,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5156,16 +5159,16 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.6">
@@ -5187,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5202,16 +5205,16 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.6">
@@ -5233,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5248,16 +5251,16 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.6">
@@ -5279,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5294,16 +5297,16 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.6">
@@ -5325,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5340,16 +5343,16 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.6">
@@ -5371,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5386,16 +5389,16 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.6">
@@ -5417,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5432,16 +5435,16 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.6">
@@ -5463,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5478,16 +5481,16 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L96" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M96" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N96" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.6">
@@ -5509,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5524,16 +5527,16 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L97" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M97" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N97" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.6">
@@ -5555,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5570,16 +5573,16 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.6">
@@ -5601,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5616,16 +5619,16 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.6">
@@ -5647,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5662,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.6">
@@ -5691,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5706,16 +5709,16 @@
         <v>99</v>
       </c>
       <c r="K101" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L101" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M101" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N101" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.6">
@@ -5737,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5752,16 +5755,16 @@
         <v>99</v>
       </c>
       <c r="K102" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L102" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M102" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N102" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.6">
@@ -5783,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5798,7 +5801,7 @@
         <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -5827,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5842,16 +5845,16 @@
         <v>99</v>
       </c>
       <c r="K104" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L104" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M104" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N104" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.6">
@@ -5871,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5886,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -5917,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5932,7 +5935,7 @@
         <v>99</v>
       </c>
       <c r="K106" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -5963,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5978,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -6009,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6024,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -6055,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6070,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -6101,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -6116,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -6147,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6162,16 +6165,16 @@
         <v>99</v>
       </c>
       <c r="K111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="198">
   <si>
     <t>PT.xy</t>
   </si>
@@ -664,6 +664,108 @@
   </si>
   <si>
     <t>mainmenu_btn_heroinfo_talents_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_0.png</t>
+  </si>
+  <si>
+    <t>heroabil_0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_4.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_5.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_6.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_1_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_1_popup.png</t>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_3_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_4_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_6_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_5_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_2_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_3_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_4_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_5_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_6_popup</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1585,11 +1687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1799,8 +1901,8 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A8">
-        <f>COUNTA(A9:A11)</f>
-        <v>2</v>
+        <f>COUNTA(A9:A10)</f>
+        <v>1</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:G8" si="2">B$1</f>
@@ -1857,10 +1959,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A9">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1869,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1881,137 +1983,137 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="A12">
+        <f>COUNTA(A13:A39)</f>
+        <v>25</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:G12" si="4">B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="4"/>
+        <v>enable</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="4"/>
+        <v>used</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>BG</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>IndexName</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>rotate</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12:N12" si="5">H$1</f>
+        <v>rotateSpd</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="5"/>
+        <v>Button</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>Func</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>normal</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>over</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>select</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>disenable</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A13">
-        <f>COUNTA(A14:A31)</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" ref="B13:G13" si="4">B$1</f>
-        <v>PT.xy</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="4"/>
-        <v>enable</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="4"/>
-        <v>used</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="4"/>
-        <v>BG</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="4"/>
-        <v>IndexName</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="4"/>
-        <v>rotate</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ref="H13:N13" si="5">H$1</f>
-        <v>rotateSpd</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>Button</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v>Func</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="5"/>
-        <v>normal</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="5"/>
-        <v>over</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="5"/>
-        <v>select</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="5"/>
-        <v>disenable</v>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A14">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2023,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2038,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2052,10 +2154,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A15">
-        <v>-62</v>
+        <v>385</v>
       </c>
       <c r="B15">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2064,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2076,30 +2178,30 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A16">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2111,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2123,24 +2225,24 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>380</v>
@@ -2155,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2167,24 +2269,24 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A18">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B18">
         <v>380</v>
@@ -2199,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2211,27 +2313,28 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A19">
-        <v>160</v>
+        <f>A20-40</f>
+        <v>730</v>
       </c>
       <c r="B19">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2243,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2255,25 +2358,25 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20">
         <f>A21-40</f>
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2288,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2318,7 +2421,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21">
         <f>A22-40</f>
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2333,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2363,7 +2466,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22">
         <f>A23-40</f>
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2378,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2407,11 +2510,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23">
-        <f>A24-40</f>
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2423,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2438,24 +2540,24 @@
         <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24">
-        <v>890</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2467,39 +2569,39 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2511,102 +2613,414 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A26">
+        <f>A25</f>
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <f>B25+46</f>
+        <v>106</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f>J25+1</f>
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" t="s">
+        <v>174</v>
+      </c>
+      <c r="N26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A27">
+        <f t="shared" ref="A27:A28" si="6">A26</f>
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B28" si="7">B26+46</f>
+        <v>152</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J37" si="8">J26+1</f>
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" t="s">
+        <v>175</v>
+      </c>
+      <c r="M27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="s">
+        <v>176</v>
+      </c>
+      <c r="N28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A29">
+        <f t="shared" ref="A29:A31" si="9">A28</f>
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B31" si="10">B28+46</f>
+        <v>244</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A30">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" t="s">
+        <v>178</v>
+      </c>
+      <c r="N30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A31">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>336</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M31" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
-        <v>7</v>
+      <c r="A32">
+        <v>260</v>
+      </c>
+      <c r="B32">
+        <f>B26 - 70</f>
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A152)</f>
-        <v>78</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" ref="B33:G33" si="6">B$1</f>
-        <v>PT.xy</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="6"/>
-        <v>enable</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="6"/>
-        <v>used</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="6"/>
-        <v>BG</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="6"/>
-        <v>IndexName</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="6"/>
-        <v>rotate</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" ref="H33:N33" si="7">H$1</f>
-        <v>rotateSpd</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="7"/>
-        <v>Button</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="7"/>
-        <v>Func</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="7"/>
-        <v>normal</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="7"/>
-        <v>over</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="7"/>
-        <v>select</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="7"/>
-        <v>disenable</v>
+        <v>260</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B37" si="11">B27 - 70</f>
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="B34">
-        <v>400</v>
+        <f t="shared" si="11"/>
+        <v>128</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2618,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2630,27 +3044,29 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="N34" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B35">
-        <v>436</v>
+        <f t="shared" si="11"/>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2659,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2671,33 +3087,35 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="L35" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="B36">
-        <v>410</v>
+        <f t="shared" si="11"/>
+        <v>220</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2706,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2715,35 +3133,35 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="L36" t="s">
+        <v>192</v>
+      </c>
+      <c r="M36" t="s">
+        <v>192</v>
+      </c>
+      <c r="N36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A37">
-        <f>A36+45</f>
-        <v>401</v>
+        <v>260</v>
       </c>
       <c r="B37">
-        <f>B36</f>
-        <v>410</v>
+        <f t="shared" si="11"/>
+        <v>266</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2752,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2761,219 +3179,97 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A38">
-        <f t="shared" ref="A38:A40" si="8">A37+45</f>
-        <v>446</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ref="B38:B45" si="9">B37</f>
-        <v>410</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>99</v>
-      </c>
-      <c r="K38" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A39">
-        <f t="shared" si="8"/>
-        <v>491</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>99</v>
-      </c>
-      <c r="K39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="L37" t="s">
+        <v>191</v>
+      </c>
+      <c r="M37" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A40">
-        <f t="shared" si="8"/>
-        <v>536</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>99</v>
-      </c>
-      <c r="K40" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+      <c r="A40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41">
-        <f>A36</f>
-        <v>356</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>101</v>
-      </c>
-      <c r="K41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41" t="s">
-        <v>94</v>
-      </c>
-      <c r="N41" t="s">
-        <v>55</v>
+        <f>COUNTA(A42:A160)</f>
+        <v>78</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:G41" si="12">B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="12"/>
+        <v>enable</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="12"/>
+        <v>used</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="12"/>
+        <v>BG</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="12"/>
+        <v>IndexName</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="12"/>
+        <v>rotate</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ref="H41:N41" si="13">H$1</f>
+        <v>rotateSpd</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="13"/>
+        <v>Button</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="13"/>
+        <v>Func</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="13"/>
+        <v>normal</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="13"/>
+        <v>over</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="13"/>
+        <v>select</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="13"/>
+        <v>disenable</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <f t="shared" ref="A42:A45" si="10">A37</f>
-        <v>401</v>
+        <v>700</v>
       </c>
       <c r="B42">
-        <f t="shared" si="9"/>
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2982,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2994,41 +3290,39 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L42" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="M42" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="N42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <f t="shared" si="10"/>
-        <v>446</v>
+        <v>300</v>
       </c>
       <c r="B43">
-        <f t="shared" si="9"/>
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3037,31 +3331,29 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L43" t="s">
-        <v>94</v>
-      </c>
-      <c r="M43" t="s">
-        <v>94</v>
-      </c>
-      <c r="N43" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <f t="shared" si="10"/>
-        <v>491</v>
+        <v>356</v>
       </c>
       <c r="B44">
-        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C44">
@@ -3074,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3083,31 +3375,31 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
-      </c>
-      <c r="L44" t="s">
-        <v>94</v>
-      </c>
-      <c r="M44" t="s">
-        <v>94</v>
-      </c>
-      <c r="N44" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f t="shared" si="10"/>
-        <v>536</v>
+        <f>A44+45</f>
+        <v>401</v>
       </c>
       <c r="B45">
-        <f t="shared" si="9"/>
+        <f>B44</f>
         <v>410</v>
       </c>
       <c r="C45">
@@ -3120,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3129,35 +3421,35 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" t="s">
-        <v>94</v>
-      </c>
-      <c r="M45" t="s">
-        <v>94</v>
-      </c>
-      <c r="N45" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
-        <f>A41</f>
-        <v>356</v>
+        <f t="shared" ref="A46:A48" si="14">A45+45</f>
+        <v>446</v>
       </c>
       <c r="B46">
-        <f>B41</f>
+        <f t="shared" ref="B46:B53" si="15">B45</f>
         <v>410</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3166,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3178,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3195,15 +3487,15 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A47">
-        <f t="shared" ref="A47:B50" si="11">A42</f>
-        <v>401</v>
+        <f t="shared" si="14"/>
+        <v>491</v>
       </c>
       <c r="B47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3212,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3224,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3241,15 +3533,15 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A48">
-        <f t="shared" si="11"/>
-        <v>446</v>
+        <f t="shared" si="14"/>
+        <v>536</v>
       </c>
       <c r="B48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3258,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3270,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -3287,15 +3579,15 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A49">
-        <f t="shared" si="11"/>
-        <v>491</v>
+        <f>A44</f>
+        <v>356</v>
       </c>
       <c r="B49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3304,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3313,35 +3605,35 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="L49" t="s">
+        <v>94</v>
+      </c>
+      <c r="M49" t="s">
+        <v>94</v>
+      </c>
+      <c r="N49" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A50">
-        <f t="shared" si="11"/>
-        <v>536</v>
+        <f t="shared" ref="A50:A53" si="16">A45</f>
+        <v>401</v>
       </c>
       <c r="B50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3350,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3359,32 +3651,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s">
-        <v>101</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="L50" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N50" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
-        <f>A46 + 10</f>
-        <v>366</v>
+        <f t="shared" si="16"/>
+        <v>446</v>
       </c>
       <c r="B51">
-        <f>B46 + 10</f>
-        <v>420</v>
+        <f t="shared" si="15"/>
+        <v>410</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3396,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3408,29 +3700,29 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="M51" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
-        <f t="shared" ref="A52:B52" si="12">A47 + 10</f>
-        <v>411</v>
+        <f t="shared" si="16"/>
+        <v>491</v>
       </c>
       <c r="B52">
-        <f t="shared" si="12"/>
-        <v>420</v>
+        <f t="shared" si="15"/>
+        <v>410</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3442,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3454,29 +3746,29 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="M52" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
-        <f t="shared" ref="A53:B53" si="13">A48 + 10</f>
-        <v>456</v>
+        <f t="shared" si="16"/>
+        <v>536</v>
       </c>
       <c r="B53">
-        <f t="shared" si="13"/>
-        <v>420</v>
+        <f t="shared" si="15"/>
+        <v>410</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3488,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3500,32 +3792,32 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L53" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="M53" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A54">
-        <f t="shared" ref="A54:B54" si="14">A49 + 10</f>
-        <v>501</v>
+        <f>A49</f>
+        <v>356</v>
       </c>
       <c r="B54">
-        <f t="shared" si="14"/>
-        <v>420</v>
+        <f>B49</f>
+        <v>410</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3534,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3543,35 +3835,35 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
-      </c>
-      <c r="L54" t="s">
-        <v>159</v>
-      </c>
-      <c r="M54" t="s">
-        <v>159</v>
-      </c>
-      <c r="N54" t="s">
-        <v>159</v>
+        <v>101</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A55">
-        <f t="shared" ref="A55:B55" si="15">A50 + 10</f>
-        <v>546</v>
+        <f t="shared" ref="A55:B58" si="17">A50</f>
+        <v>401</v>
       </c>
       <c r="B55">
-        <f t="shared" si="15"/>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3580,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3589,35 +3881,35 @@
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
-      </c>
-      <c r="L55" t="s">
-        <v>159</v>
-      </c>
-      <c r="M55" t="s">
-        <v>159</v>
-      </c>
-      <c r="N55" t="s">
-        <v>159</v>
+        <v>101</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A56">
-        <f>A51</f>
-        <v>366</v>
+        <f t="shared" si="17"/>
+        <v>446</v>
       </c>
       <c r="B56">
-        <f>B51</f>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3626,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3635,35 +3927,35 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
-      </c>
-      <c r="L56" t="s">
-        <v>160</v>
-      </c>
-      <c r="M56" t="s">
-        <v>160</v>
-      </c>
-      <c r="N56" t="s">
-        <v>160</v>
+        <v>101</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A57">
-        <f t="shared" ref="A57:B57" si="16">A52</f>
-        <v>411</v>
+        <f t="shared" si="17"/>
+        <v>491</v>
       </c>
       <c r="B57">
-        <f t="shared" si="16"/>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3672,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3681,35 +3973,35 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
-      </c>
-      <c r="L57" t="s">
-        <v>160</v>
-      </c>
-      <c r="M57" t="s">
-        <v>160</v>
-      </c>
-      <c r="N57" t="s">
-        <v>160</v>
+        <v>101</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A58">
-        <f t="shared" ref="A58:B58" si="17">A53</f>
-        <v>456</v>
+        <f t="shared" si="17"/>
+        <v>536</v>
       </c>
       <c r="B58">
         <f t="shared" si="17"/>
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3718,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3727,2011 +4019,2013 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
-      </c>
-      <c r="L58" t="s">
-        <v>160</v>
-      </c>
-      <c r="M58" t="s">
-        <v>160</v>
-      </c>
-      <c r="N58" t="s">
-        <v>160</v>
+        <v>101</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59">
-        <f t="shared" ref="A59:B59" si="18">A54</f>
-        <v>501</v>
+        <f>A54 + 10</f>
+        <v>366</v>
       </c>
       <c r="B59">
+        <f>B54 + 10</f>
+        <v>420</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>159</v>
+      </c>
+      <c r="L59" t="s">
+        <v>159</v>
+      </c>
+      <c r="M59" t="s">
+        <v>159</v>
+      </c>
+      <c r="N59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A60">
+        <f t="shared" ref="A60:B60" si="18">A55 + 10</f>
+        <v>411</v>
+      </c>
+      <c r="B60">
         <f t="shared" si="18"/>
         <v>420</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>160</v>
-      </c>
-      <c r="L59" t="s">
-        <v>160</v>
-      </c>
-      <c r="M59" t="s">
-        <v>160</v>
-      </c>
-      <c r="N59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A60">
-        <f t="shared" ref="A60:B60" si="19">A55</f>
-        <v>546</v>
-      </c>
-      <c r="B60">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" t="s">
+        <v>159</v>
+      </c>
+      <c r="M60" t="s">
+        <v>159</v>
+      </c>
+      <c r="N60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A61">
+        <f t="shared" ref="A61:B61" si="19">A56 + 10</f>
+        <v>456</v>
+      </c>
+      <c r="B61">
         <f t="shared" si="19"/>
         <v>420</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
-        <v>160</v>
-      </c>
-      <c r="L60" t="s">
-        <v>160</v>
-      </c>
-      <c r="M60" t="s">
-        <v>160</v>
-      </c>
-      <c r="N60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A61">
-        <f t="shared" ref="A61:B61" si="20">A56</f>
-        <v>366</v>
-      </c>
-      <c r="B61">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" t="s">
+        <v>159</v>
+      </c>
+      <c r="M61" t="s">
+        <v>159</v>
+      </c>
+      <c r="N61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A62">
+        <f t="shared" ref="A62:B62" si="20">A57 + 10</f>
+        <v>501</v>
+      </c>
+      <c r="B62">
         <f t="shared" si="20"/>
         <v>420</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>161</v>
-      </c>
-      <c r="L61" t="s">
-        <v>161</v>
-      </c>
-      <c r="M61" t="s">
-        <v>161</v>
-      </c>
-      <c r="N61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A62">
-        <f t="shared" ref="A62:B62" si="21">A57</f>
-        <v>411</v>
-      </c>
-      <c r="B62">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>159</v>
+      </c>
+      <c r="L62" t="s">
+        <v>159</v>
+      </c>
+      <c r="M62" t="s">
+        <v>159</v>
+      </c>
+      <c r="N62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A63">
+        <f t="shared" ref="A63:B63" si="21">A58 + 10</f>
+        <v>546</v>
+      </c>
+      <c r="B63">
         <f t="shared" si="21"/>
         <v>420</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>161</v>
-      </c>
-      <c r="L62" t="s">
-        <v>161</v>
-      </c>
-      <c r="M62" t="s">
-        <v>161</v>
-      </c>
-      <c r="N62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A63">
-        <f t="shared" ref="A63:B63" si="22">A58</f>
-        <v>456</v>
-      </c>
-      <c r="B63">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M63" t="s">
+        <v>159</v>
+      </c>
+      <c r="N63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A64">
+        <f>A59</f>
+        <v>366</v>
+      </c>
+      <c r="B64">
+        <f>B59</f>
+        <v>420</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" t="s">
+        <v>160</v>
+      </c>
+      <c r="M64" t="s">
+        <v>160</v>
+      </c>
+      <c r="N64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A65">
+        <f t="shared" ref="A65:B65" si="22">A60</f>
+        <v>411</v>
+      </c>
+      <c r="B65">
         <f t="shared" si="22"/>
         <v>420</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>116</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>161</v>
-      </c>
-      <c r="L63" t="s">
-        <v>161</v>
-      </c>
-      <c r="M63" t="s">
-        <v>161</v>
-      </c>
-      <c r="N63" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A64">
-        <f t="shared" ref="A64:B64" si="23">A59</f>
-        <v>501</v>
-      </c>
-      <c r="B64">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>160</v>
+      </c>
+      <c r="L65" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65" t="s">
+        <v>160</v>
+      </c>
+      <c r="N65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A66">
+        <f t="shared" ref="A66:B66" si="23">A61</f>
+        <v>456</v>
+      </c>
+      <c r="B66">
         <f t="shared" si="23"/>
         <v>420</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>117</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>161</v>
-      </c>
-      <c r="L64" t="s">
-        <v>161</v>
-      </c>
-      <c r="M64" t="s">
-        <v>161</v>
-      </c>
-      <c r="N64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A65">
-        <f t="shared" ref="A65:B65" si="24">A60</f>
-        <v>546</v>
-      </c>
-      <c r="B65">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>160</v>
+      </c>
+      <c r="L66" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" t="s">
+        <v>160</v>
+      </c>
+      <c r="N66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A67">
+        <f t="shared" ref="A67:B67" si="24">A62</f>
+        <v>501</v>
+      </c>
+      <c r="B67">
         <f t="shared" si="24"/>
         <v>420</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65" t="s">
-        <v>161</v>
-      </c>
-      <c r="L65" t="s">
-        <v>161</v>
-      </c>
-      <c r="M65" t="s">
-        <v>161</v>
-      </c>
-      <c r="N65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A66">
-        <f t="shared" ref="A66:B66" si="25">A61</f>
-        <v>366</v>
-      </c>
-      <c r="B66">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67" t="s">
+        <v>160</v>
+      </c>
+      <c r="M67" t="s">
+        <v>160</v>
+      </c>
+      <c r="N67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A68">
+        <f t="shared" ref="A68:B68" si="25">A63</f>
+        <v>546</v>
+      </c>
+      <c r="B68">
         <f t="shared" si="25"/>
         <v>420</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66" t="s">
-        <v>162</v>
-      </c>
-      <c r="L66" t="s">
-        <v>162</v>
-      </c>
-      <c r="M66" t="s">
-        <v>162</v>
-      </c>
-      <c r="N66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A67">
-        <f t="shared" ref="A67:B67" si="26">A62</f>
-        <v>411</v>
-      </c>
-      <c r="B67">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>160</v>
+      </c>
+      <c r="L68" t="s">
+        <v>160</v>
+      </c>
+      <c r="M68" t="s">
+        <v>160</v>
+      </c>
+      <c r="N68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A69">
+        <f t="shared" ref="A69:B69" si="26">A64</f>
+        <v>366</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="26"/>
         <v>420</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>121</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>162</v>
-      </c>
-      <c r="L67" t="s">
-        <v>162</v>
-      </c>
-      <c r="M67" t="s">
-        <v>162</v>
-      </c>
-      <c r="N67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A68">
-        <f t="shared" ref="A68:B68" si="27">A63</f>
-        <v>456</v>
-      </c>
-      <c r="B68">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>161</v>
+      </c>
+      <c r="L69" t="s">
+        <v>161</v>
+      </c>
+      <c r="M69" t="s">
+        <v>161</v>
+      </c>
+      <c r="N69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A70">
+        <f t="shared" ref="A70:B70" si="27">A65</f>
+        <v>411</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="27"/>
         <v>420</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>122</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>162</v>
-      </c>
-      <c r="L68" t="s">
-        <v>162</v>
-      </c>
-      <c r="M68" t="s">
-        <v>162</v>
-      </c>
-      <c r="N68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A69">
-        <f t="shared" ref="A69:B69" si="28">A64</f>
-        <v>501</v>
-      </c>
-      <c r="B69">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>161</v>
+      </c>
+      <c r="L70" t="s">
+        <v>161</v>
+      </c>
+      <c r="M70" t="s">
+        <v>161</v>
+      </c>
+      <c r="N70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A71">
+        <f t="shared" ref="A71:B71" si="28">A66</f>
+        <v>456</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="28"/>
         <v>420</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>123</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>162</v>
-      </c>
-      <c r="L69" t="s">
-        <v>162</v>
-      </c>
-      <c r="M69" t="s">
-        <v>162</v>
-      </c>
-      <c r="N69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A70">
-        <f t="shared" ref="A70:B70" si="29">A65</f>
-        <v>546</v>
-      </c>
-      <c r="B70">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>161</v>
+      </c>
+      <c r="L71" t="s">
+        <v>161</v>
+      </c>
+      <c r="M71" t="s">
+        <v>161</v>
+      </c>
+      <c r="N71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A72">
+        <f t="shared" ref="A72:B72" si="29">A67</f>
+        <v>501</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="29"/>
         <v>420</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>162</v>
-      </c>
-      <c r="L70" t="s">
-        <v>162</v>
-      </c>
-      <c r="M70" t="s">
-        <v>162</v>
-      </c>
-      <c r="N70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A71">
-        <f t="shared" ref="A71:B71" si="30">A66</f>
-        <v>366</v>
-      </c>
-      <c r="B71">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>161</v>
+      </c>
+      <c r="L72" t="s">
+        <v>161</v>
+      </c>
+      <c r="M72" t="s">
+        <v>161</v>
+      </c>
+      <c r="N72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A73">
+        <f t="shared" ref="A73:B73" si="30">A68</f>
+        <v>546</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="30"/>
         <v>420</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>124</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>163</v>
-      </c>
-      <c r="L71" t="s">
-        <v>163</v>
-      </c>
-      <c r="M71" t="s">
-        <v>163</v>
-      </c>
-      <c r="N71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A72">
-        <f t="shared" ref="A72:B72" si="31">A67</f>
-        <v>411</v>
-      </c>
-      <c r="B72">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>161</v>
+      </c>
+      <c r="L73" t="s">
+        <v>161</v>
+      </c>
+      <c r="M73" t="s">
+        <v>161</v>
+      </c>
+      <c r="N73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A74">
+        <f t="shared" ref="A74:B74" si="31">A69</f>
+        <v>366</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="31"/>
         <v>420</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>163</v>
-      </c>
-      <c r="L72" t="s">
-        <v>163</v>
-      </c>
-      <c r="M72" t="s">
-        <v>163</v>
-      </c>
-      <c r="N72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A73">
-        <f t="shared" ref="A73:B73" si="32">A68</f>
-        <v>456</v>
-      </c>
-      <c r="B73">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>162</v>
+      </c>
+      <c r="L74" t="s">
+        <v>162</v>
+      </c>
+      <c r="M74" t="s">
+        <v>162</v>
+      </c>
+      <c r="N74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A75">
+        <f t="shared" ref="A75:B75" si="32">A70</f>
+        <v>411</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="32"/>
         <v>420</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>163</v>
-      </c>
-      <c r="L73" t="s">
-        <v>163</v>
-      </c>
-      <c r="M73" t="s">
-        <v>163</v>
-      </c>
-      <c r="N73" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A74">
-        <f t="shared" ref="A74:B74" si="33">A69</f>
-        <v>501</v>
-      </c>
-      <c r="B74">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>162</v>
+      </c>
+      <c r="L75" t="s">
+        <v>162</v>
+      </c>
+      <c r="M75" t="s">
+        <v>162</v>
+      </c>
+      <c r="N75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A76">
+        <f t="shared" ref="A76:B76" si="33">A71</f>
+        <v>456</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="33"/>
         <v>420</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>163</v>
-      </c>
-      <c r="L74" t="s">
-        <v>163</v>
-      </c>
-      <c r="M74" t="s">
-        <v>163</v>
-      </c>
-      <c r="N74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A75">
-        <f t="shared" ref="A75:B75" si="34">A70</f>
-        <v>546</v>
-      </c>
-      <c r="B75">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>162</v>
+      </c>
+      <c r="L76" t="s">
+        <v>162</v>
+      </c>
+      <c r="M76" t="s">
+        <v>162</v>
+      </c>
+      <c r="N76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A77">
+        <f t="shared" ref="A77:B77" si="34">A72</f>
+        <v>501</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="34"/>
         <v>420</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>163</v>
-      </c>
-      <c r="L75" t="s">
-        <v>163</v>
-      </c>
-      <c r="M75" t="s">
-        <v>163</v>
-      </c>
-      <c r="N75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A76">
-        <f t="shared" ref="A76:B76" si="35">A71</f>
-        <v>366</v>
-      </c>
-      <c r="B76">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>162</v>
+      </c>
+      <c r="L77" t="s">
+        <v>162</v>
+      </c>
+      <c r="M77" t="s">
+        <v>162</v>
+      </c>
+      <c r="N77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A78">
+        <f t="shared" ref="A78:B78" si="35">A73</f>
+        <v>546</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="35"/>
         <v>420</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>164</v>
-      </c>
-      <c r="L76" t="s">
-        <v>164</v>
-      </c>
-      <c r="M76" t="s">
-        <v>164</v>
-      </c>
-      <c r="N76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A77">
-        <f t="shared" ref="A77:B77" si="36">A72</f>
-        <v>411</v>
-      </c>
-      <c r="B77">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>162</v>
+      </c>
+      <c r="L78" t="s">
+        <v>162</v>
+      </c>
+      <c r="M78" t="s">
+        <v>162</v>
+      </c>
+      <c r="N78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A79">
+        <f t="shared" ref="A79:B79" si="36">A74</f>
+        <v>366</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="36"/>
         <v>420</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>130</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>164</v>
-      </c>
-      <c r="L77" t="s">
-        <v>164</v>
-      </c>
-      <c r="M77" t="s">
-        <v>164</v>
-      </c>
-      <c r="N77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A78">
-        <f t="shared" ref="A78:B78" si="37">A73</f>
-        <v>456</v>
-      </c>
-      <c r="B78">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>163</v>
+      </c>
+      <c r="L79" t="s">
+        <v>163</v>
+      </c>
+      <c r="M79" t="s">
+        <v>163</v>
+      </c>
+      <c r="N79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A80">
+        <f t="shared" ref="A80:B80" si="37">A75</f>
+        <v>411</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="37"/>
         <v>420</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>131</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>164</v>
-      </c>
-      <c r="L78" t="s">
-        <v>164</v>
-      </c>
-      <c r="M78" t="s">
-        <v>164</v>
-      </c>
-      <c r="N78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A79">
-        <f t="shared" ref="A79:B79" si="38">A74</f>
-        <v>501</v>
-      </c>
-      <c r="B79">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>163</v>
+      </c>
+      <c r="L80" t="s">
+        <v>163</v>
+      </c>
+      <c r="M80" t="s">
+        <v>163</v>
+      </c>
+      <c r="N80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A81">
+        <f t="shared" ref="A81:B81" si="38">A76</f>
+        <v>456</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="38"/>
         <v>420</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>132</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>164</v>
-      </c>
-      <c r="L79" t="s">
-        <v>164</v>
-      </c>
-      <c r="M79" t="s">
-        <v>164</v>
-      </c>
-      <c r="N79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A80">
-        <f t="shared" ref="A80:B80" si="39">A75</f>
-        <v>546</v>
-      </c>
-      <c r="B80">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>163</v>
+      </c>
+      <c r="L81" t="s">
+        <v>163</v>
+      </c>
+      <c r="M81" t="s">
+        <v>163</v>
+      </c>
+      <c r="N81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A82">
+        <f t="shared" ref="A82:B82" si="39">A77</f>
+        <v>501</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="39"/>
         <v>420</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" s="1">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>164</v>
-      </c>
-      <c r="L80" t="s">
-        <v>164</v>
-      </c>
-      <c r="M80" t="s">
-        <v>164</v>
-      </c>
-      <c r="N80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A81">
-        <f t="shared" ref="A81:B81" si="40">A76</f>
-        <v>366</v>
-      </c>
-      <c r="B81">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>163</v>
+      </c>
+      <c r="L82" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" t="s">
+        <v>163</v>
+      </c>
+      <c r="N82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A83">
+        <f t="shared" ref="A83:B83" si="40">A78</f>
+        <v>546</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="40"/>
         <v>420</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>165</v>
-      </c>
-      <c r="L81" t="s">
-        <v>165</v>
-      </c>
-      <c r="M81" t="s">
-        <v>165</v>
-      </c>
-      <c r="N81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A82">
-        <f t="shared" ref="A82:B82" si="41">A77</f>
-        <v>411</v>
-      </c>
-      <c r="B82">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>163</v>
+      </c>
+      <c r="L83" t="s">
+        <v>163</v>
+      </c>
+      <c r="M83" t="s">
+        <v>163</v>
+      </c>
+      <c r="N83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A84">
+        <f t="shared" ref="A84:B84" si="41">A79</f>
+        <v>366</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="41"/>
         <v>420</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>135</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>165</v>
-      </c>
-      <c r="L82" t="s">
-        <v>165</v>
-      </c>
-      <c r="M82" t="s">
-        <v>165</v>
-      </c>
-      <c r="N82" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A83">
-        <f t="shared" ref="A83:B83" si="42">A78</f>
-        <v>456</v>
-      </c>
-      <c r="B83">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>164</v>
+      </c>
+      <c r="L84" t="s">
+        <v>164</v>
+      </c>
+      <c r="M84" t="s">
+        <v>164</v>
+      </c>
+      <c r="N84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A85">
+        <f t="shared" ref="A85:B85" si="42">A80</f>
+        <v>411</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="42"/>
         <v>420</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>165</v>
-      </c>
-      <c r="L83" t="s">
-        <v>165</v>
-      </c>
-      <c r="M83" t="s">
-        <v>165</v>
-      </c>
-      <c r="N83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A84">
-        <f t="shared" ref="A84:B84" si="43">A79</f>
-        <v>501</v>
-      </c>
-      <c r="B84">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>130</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>164</v>
+      </c>
+      <c r="L85" t="s">
+        <v>164</v>
+      </c>
+      <c r="M85" t="s">
+        <v>164</v>
+      </c>
+      <c r="N85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A86">
+        <f t="shared" ref="A86:B86" si="43">A81</f>
+        <v>456</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="43"/>
         <v>420</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="1">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>165</v>
-      </c>
-      <c r="L84" t="s">
-        <v>165</v>
-      </c>
-      <c r="M84" t="s">
-        <v>165</v>
-      </c>
-      <c r="N84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A85">
-        <f t="shared" ref="A85:B85" si="44">A80</f>
-        <v>546</v>
-      </c>
-      <c r="B85">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>164</v>
+      </c>
+      <c r="L86" t="s">
+        <v>164</v>
+      </c>
+      <c r="M86" t="s">
+        <v>164</v>
+      </c>
+      <c r="N86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A87">
+        <f t="shared" ref="A87:B87" si="44">A82</f>
+        <v>501</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="44"/>
         <v>420</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>165</v>
-      </c>
-      <c r="L85" t="s">
-        <v>165</v>
-      </c>
-      <c r="M85" t="s">
-        <v>165</v>
-      </c>
-      <c r="N85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A86">
-        <f t="shared" ref="A86:B86" si="45">A81</f>
-        <v>366</v>
-      </c>
-      <c r="B86">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>164</v>
+      </c>
+      <c r="L87" t="s">
+        <v>164</v>
+      </c>
+      <c r="M87" t="s">
+        <v>164</v>
+      </c>
+      <c r="N87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A88">
+        <f t="shared" ref="A88:B88" si="45">A83</f>
+        <v>546</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>166</v>
-      </c>
-      <c r="L86" t="s">
-        <v>166</v>
-      </c>
-      <c r="M86" t="s">
-        <v>166</v>
-      </c>
-      <c r="N86" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A87">
-        <f t="shared" ref="A87:B87" si="46">A82</f>
-        <v>411</v>
-      </c>
-      <c r="B87">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>164</v>
+      </c>
+      <c r="L88" t="s">
+        <v>164</v>
+      </c>
+      <c r="M88" t="s">
+        <v>164</v>
+      </c>
+      <c r="N88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A89">
+        <f t="shared" ref="A89:B89" si="46">A84</f>
+        <v>366</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="46"/>
         <v>420</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>140</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>166</v>
-      </c>
-      <c r="L87" t="s">
-        <v>166</v>
-      </c>
-      <c r="M87" t="s">
-        <v>166</v>
-      </c>
-      <c r="N87" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A88">
-        <f t="shared" ref="A88:B88" si="47">A83</f>
-        <v>456</v>
-      </c>
-      <c r="B88">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>165</v>
+      </c>
+      <c r="L89" t="s">
+        <v>165</v>
+      </c>
+      <c r="M89" t="s">
+        <v>165</v>
+      </c>
+      <c r="N89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A90">
+        <f t="shared" ref="A90:B90" si="47">A85</f>
+        <v>411</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="47"/>
         <v>420</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>141</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>166</v>
-      </c>
-      <c r="L88" t="s">
-        <v>166</v>
-      </c>
-      <c r="M88" t="s">
-        <v>166</v>
-      </c>
-      <c r="N88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A89">
-        <f t="shared" ref="A89:B89" si="48">A84</f>
-        <v>501</v>
-      </c>
-      <c r="B89">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>165</v>
+      </c>
+      <c r="L90" t="s">
+        <v>165</v>
+      </c>
+      <c r="M90" t="s">
+        <v>165</v>
+      </c>
+      <c r="N90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A91">
+        <f t="shared" ref="A91:B91" si="48">A86</f>
+        <v>456</v>
+      </c>
+      <c r="B91">
         <f t="shared" si="48"/>
         <v>420</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>166</v>
-      </c>
-      <c r="L89" t="s">
-        <v>166</v>
-      </c>
-      <c r="M89" t="s">
-        <v>166</v>
-      </c>
-      <c r="N89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A90">
-        <f t="shared" ref="A90:B90" si="49">A85</f>
-        <v>546</v>
-      </c>
-      <c r="B90">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>165</v>
+      </c>
+      <c r="L91" t="s">
+        <v>165</v>
+      </c>
+      <c r="M91" t="s">
+        <v>165</v>
+      </c>
+      <c r="N91" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A92">
+        <f t="shared" ref="A92:B92" si="49">A87</f>
+        <v>501</v>
+      </c>
+      <c r="B92">
         <f t="shared" si="49"/>
         <v>420</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>143</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>166</v>
-      </c>
-      <c r="L90" t="s">
-        <v>166</v>
-      </c>
-      <c r="M90" t="s">
-        <v>166</v>
-      </c>
-      <c r="N90" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A91">
-        <f t="shared" ref="A91:B91" si="50">A86</f>
-        <v>366</v>
-      </c>
-      <c r="B91">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>165</v>
+      </c>
+      <c r="L92" t="s">
+        <v>165</v>
+      </c>
+      <c r="M92" t="s">
+        <v>165</v>
+      </c>
+      <c r="N92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A93">
+        <f t="shared" ref="A93:B93" si="50">A88</f>
+        <v>546</v>
+      </c>
+      <c r="B93">
         <f t="shared" si="50"/>
         <v>420</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>144</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>167</v>
-      </c>
-      <c r="L91" t="s">
-        <v>167</v>
-      </c>
-      <c r="M91" t="s">
-        <v>167</v>
-      </c>
-      <c r="N91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A92">
-        <f t="shared" ref="A92:B92" si="51">A87</f>
-        <v>411</v>
-      </c>
-      <c r="B92">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>165</v>
+      </c>
+      <c r="L93" t="s">
+        <v>165</v>
+      </c>
+      <c r="M93" t="s">
+        <v>165</v>
+      </c>
+      <c r="N93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A94">
+        <f t="shared" ref="A94:B94" si="51">A89</f>
+        <v>366</v>
+      </c>
+      <c r="B94">
         <f t="shared" si="51"/>
         <v>420</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>145</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>167</v>
-      </c>
-      <c r="L92" t="s">
-        <v>167</v>
-      </c>
-      <c r="M92" t="s">
-        <v>167</v>
-      </c>
-      <c r="N92" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A93">
-        <f t="shared" ref="A93:B93" si="52">A88</f>
-        <v>456</v>
-      </c>
-      <c r="B93">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>166</v>
+      </c>
+      <c r="L94" t="s">
+        <v>166</v>
+      </c>
+      <c r="M94" t="s">
+        <v>166</v>
+      </c>
+      <c r="N94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A95">
+        <f t="shared" ref="A95:B95" si="52">A90</f>
+        <v>411</v>
+      </c>
+      <c r="B95">
         <f t="shared" si="52"/>
         <v>420</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>146</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>167</v>
-      </c>
-      <c r="L93" t="s">
-        <v>167</v>
-      </c>
-      <c r="M93" t="s">
-        <v>167</v>
-      </c>
-      <c r="N93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A94">
-        <f t="shared" ref="A94:B94" si="53">A89</f>
-        <v>501</v>
-      </c>
-      <c r="B94">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>166</v>
+      </c>
+      <c r="L95" t="s">
+        <v>166</v>
+      </c>
+      <c r="M95" t="s">
+        <v>166</v>
+      </c>
+      <c r="N95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A96">
+        <f t="shared" ref="A96:B96" si="53">A91</f>
+        <v>456</v>
+      </c>
+      <c r="B96">
         <f t="shared" si="53"/>
         <v>420</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>147</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>167</v>
-      </c>
-      <c r="L94" t="s">
-        <v>167</v>
-      </c>
-      <c r="M94" t="s">
-        <v>167</v>
-      </c>
-      <c r="N94" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A95">
-        <f t="shared" ref="A95:B95" si="54">A90</f>
-        <v>546</v>
-      </c>
-      <c r="B95">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>166</v>
+      </c>
+      <c r="L96" t="s">
+        <v>166</v>
+      </c>
+      <c r="M96" t="s">
+        <v>166</v>
+      </c>
+      <c r="N96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A97">
+        <f t="shared" ref="A97:B97" si="54">A92</f>
+        <v>501</v>
+      </c>
+      <c r="B97">
         <f t="shared" si="54"/>
         <v>420</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>148</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>167</v>
-      </c>
-      <c r="L95" t="s">
-        <v>167</v>
-      </c>
-      <c r="M95" t="s">
-        <v>167</v>
-      </c>
-      <c r="N95" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A96">
-        <f t="shared" ref="A96:B96" si="55">A91</f>
-        <v>366</v>
-      </c>
-      <c r="B96">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>142</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>166</v>
+      </c>
+      <c r="L97" t="s">
+        <v>166</v>
+      </c>
+      <c r="M97" t="s">
+        <v>166</v>
+      </c>
+      <c r="N97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A98">
+        <f t="shared" ref="A98:B98" si="55">A93</f>
+        <v>546</v>
+      </c>
+      <c r="B98">
         <f t="shared" si="55"/>
         <v>420</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="s">
-        <v>149</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>168</v>
-      </c>
-      <c r="L96" t="s">
-        <v>168</v>
-      </c>
-      <c r="M96" t="s">
-        <v>168</v>
-      </c>
-      <c r="N96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A97">
-        <f t="shared" ref="A97:B97" si="56">A92</f>
-        <v>411</v>
-      </c>
-      <c r="B97">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>166</v>
+      </c>
+      <c r="L98" t="s">
+        <v>166</v>
+      </c>
+      <c r="M98" t="s">
+        <v>166</v>
+      </c>
+      <c r="N98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A99">
+        <f t="shared" ref="A99:B99" si="56">A94</f>
+        <v>366</v>
+      </c>
+      <c r="B99">
         <f t="shared" si="56"/>
         <v>420</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>150</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97" t="s">
-        <v>168</v>
-      </c>
-      <c r="L97" t="s">
-        <v>168</v>
-      </c>
-      <c r="M97" t="s">
-        <v>168</v>
-      </c>
-      <c r="N97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A98">
-        <f t="shared" ref="A98:B98" si="57">A93</f>
-        <v>456</v>
-      </c>
-      <c r="B98">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>167</v>
+      </c>
+      <c r="L99" t="s">
+        <v>167</v>
+      </c>
+      <c r="M99" t="s">
+        <v>167</v>
+      </c>
+      <c r="N99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A100">
+        <f t="shared" ref="A100:B100" si="57">A95</f>
+        <v>411</v>
+      </c>
+      <c r="B100">
         <f t="shared" si="57"/>
         <v>420</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>151</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98" t="s">
-        <v>168</v>
-      </c>
-      <c r="L98" t="s">
-        <v>168</v>
-      </c>
-      <c r="M98" t="s">
-        <v>168</v>
-      </c>
-      <c r="N98" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A99">
-        <f t="shared" ref="A99:B99" si="58">A94</f>
-        <v>501</v>
-      </c>
-      <c r="B99">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>167</v>
+      </c>
+      <c r="L100" t="s">
+        <v>167</v>
+      </c>
+      <c r="M100" t="s">
+        <v>167</v>
+      </c>
+      <c r="N100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A101">
+        <f t="shared" ref="A101:B101" si="58">A96</f>
+        <v>456</v>
+      </c>
+      <c r="B101">
         <f t="shared" si="58"/>
         <v>420</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>152</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>168</v>
-      </c>
-      <c r="L99" t="s">
-        <v>168</v>
-      </c>
-      <c r="M99" t="s">
-        <v>168</v>
-      </c>
-      <c r="N99" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A100">
-        <f t="shared" ref="A100:B100" si="59">A95</f>
-        <v>546</v>
-      </c>
-      <c r="B100">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>167</v>
+      </c>
+      <c r="L101" t="s">
+        <v>167</v>
+      </c>
+      <c r="M101" t="s">
+        <v>167</v>
+      </c>
+      <c r="N101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A102">
+        <f t="shared" ref="A102:B102" si="59">A97</f>
+        <v>501</v>
+      </c>
+      <c r="B102">
         <f t="shared" si="59"/>
         <v>420</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>168</v>
-      </c>
-      <c r="L100" t="s">
-        <v>168</v>
-      </c>
-      <c r="M100" t="s">
-        <v>168</v>
-      </c>
-      <c r="N100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A101">
-        <v>-200</v>
-      </c>
-      <c r="B101">
-        <v>-200</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101">
-        <v>99</v>
-      </c>
-      <c r="K101" t="s">
-        <v>86</v>
-      </c>
-      <c r="L101" t="s">
-        <v>86</v>
-      </c>
-      <c r="M101" t="s">
-        <v>86</v>
-      </c>
-      <c r="N101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A102">
-        <f>A35+302</f>
-        <v>602</v>
-      </c>
-      <c r="B102">
-        <f>B35-1</f>
-        <v>435</v>
-      </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5740,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5752,32 +6046,32 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="L102" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="M102" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="N102" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A103">
-        <f>A102</f>
-        <v>602</v>
+        <f t="shared" ref="A103:B103" si="60">A98</f>
+        <v>546</v>
       </c>
       <c r="B103">
-        <f>B102</f>
-        <v>435</v>
+        <f t="shared" si="60"/>
+        <v>420</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5786,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5795,42 +6089,44 @@
         <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>91</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="L103" t="s">
+        <v>167</v>
+      </c>
+      <c r="M103" t="s">
+        <v>167</v>
+      </c>
+      <c r="N103" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A104">
-        <v>5</v>
+        <f t="shared" ref="A104:B104" si="61">A99</f>
+        <v>366</v>
       </c>
       <c r="B104">
-        <v>370</v>
+        <f t="shared" si="61"/>
+        <v>420</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5842,30 +6138,32 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="L104" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="M104" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="N104" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A105">
-        <v>5</v>
+        <f t="shared" ref="A105:B105" si="62">A100</f>
+        <v>411</v>
       </c>
       <c r="B105">
-        <v>370</v>
+        <f t="shared" si="62"/>
+        <v>420</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5874,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5883,35 +6181,35 @@
         <v>0</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>73</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="L105" t="s">
+        <v>168</v>
+      </c>
+      <c r="M105" t="s">
+        <v>168</v>
+      </c>
+      <c r="N105" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A106">
-        <f>A105+85</f>
-        <v>90</v>
+        <f t="shared" ref="A106:B106" si="63">A101</f>
+        <v>456</v>
       </c>
       <c r="B106">
-        <f>B105+50</f>
+        <f t="shared" si="63"/>
         <v>420</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5920,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5929,35 +6227,35 @@
         <v>0</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>95</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="L106" t="s">
+        <v>168</v>
+      </c>
+      <c r="M106" t="s">
+        <v>168</v>
+      </c>
+      <c r="N106" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A107">
-        <f>A105+111</f>
-        <v>116</v>
+        <f t="shared" ref="A107:B107" si="64">A102</f>
+        <v>501</v>
       </c>
       <c r="B107">
-        <f>B106+3</f>
-        <v>423</v>
+        <f t="shared" si="64"/>
+        <v>420</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5966,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5975,44 +6273,44 @@
         <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>81</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="L107" t="s">
+        <v>168</v>
+      </c>
+      <c r="M107" t="s">
+        <v>168</v>
+      </c>
+      <c r="N107" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A108">
-        <f>A107</f>
-        <v>116</v>
+        <f t="shared" ref="A108:B108" si="65">A103</f>
+        <v>546</v>
       </c>
       <c r="B108">
-        <f>B107</f>
-        <v>423</v>
+        <f t="shared" si="65"/>
+        <v>420</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6021,32 +6319,30 @@
         <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>82</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="L108" t="s">
+        <v>168</v>
+      </c>
+      <c r="M108" t="s">
+        <v>168</v>
+      </c>
+      <c r="N108" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A109">
-        <f>A108-6</f>
-        <v>110</v>
+        <v>-200</v>
       </c>
       <c r="B109">
-        <f>B108+12</f>
-        <v>435</v>
+        <v>-200</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6058,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6067,31 +6363,31 @@
         <v>0</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K109" t="s">
-        <v>75</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="L109" t="s">
+        <v>86</v>
+      </c>
+      <c r="M109" t="s">
+        <v>86</v>
+      </c>
+      <c r="N109" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A110">
-        <f t="shared" ref="A110" si="60">A109</f>
-        <v>110</v>
+        <f>A43+302</f>
+        <v>602</v>
       </c>
       <c r="B110">
-        <f>B109</f>
+        <f>B43-1</f>
         <v>435</v>
       </c>
       <c r="C110">
@@ -6101,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -6113,32 +6409,32 @@
         <v>0</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s">
-        <v>79</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="L110" t="s">
+        <v>93</v>
+      </c>
+      <c r="M110" t="s">
+        <v>93</v>
+      </c>
+      <c r="N110" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A111">
-        <f>A106+3</f>
-        <v>93</v>
+        <f>A110</f>
+        <v>602</v>
       </c>
       <c r="B111">
-        <f>B106+33</f>
-        <v>453</v>
+        <f>B110</f>
+        <v>435</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6147,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6159,21 +6455,385 @@
         <v>0</v>
       </c>
       <c r="I111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>99</v>
       </c>
       <c r="K111" t="s">
+        <v>91</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>370</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>99</v>
+      </c>
+      <c r="K112" t="s">
+        <v>71</v>
+      </c>
+      <c r="L112" t="s">
+        <v>72</v>
+      </c>
+      <c r="M112" t="s">
+        <v>72</v>
+      </c>
+      <c r="N112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>370</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>73</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A114">
+        <f>A113+85</f>
+        <v>90</v>
+      </c>
+      <c r="B114">
+        <f>B113+50</f>
+        <v>420</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>99</v>
+      </c>
+      <c r="K114" t="s">
+        <v>95</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A115">
+        <f>A113+111</f>
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <f>B114+3</f>
+        <v>423</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>81</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A116">
+        <f>A115</f>
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <f>B115</f>
+        <v>423</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>77</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>82</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A117">
+        <f>A116-6</f>
+        <v>110</v>
+      </c>
+      <c r="B117">
+        <f>B116+12</f>
+        <v>435</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>80</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>75</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A118">
+        <f t="shared" ref="A118" si="66">A117</f>
+        <v>110</v>
+      </c>
+      <c r="B118">
+        <f>B117</f>
+        <v>435</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>78</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>79</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A119">
+        <f>A114+3</f>
+        <v>93</v>
+      </c>
+      <c r="B119">
+        <f>B114+33</f>
+        <v>453</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>98</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>99</v>
+      </c>
+      <c r="K119" t="s">
         <v>86</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L119" t="s">
         <v>99</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M119" t="s">
         <v>100</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N119" t="s">
         <v>97</v>
       </c>
     </row>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="214">
   <si>
     <t>PT.xy</t>
   </si>
@@ -766,6 +766,65 @@
   </si>
   <si>
     <t>heroabil_6_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choosebg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockskill1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockskill2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockskill3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_bg.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_0.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_1.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_2.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_3.png</t>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_1_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_3_1.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1687,11 +1746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2604,7 +2663,7 @@
         <v>60</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2650,7 +2709,7 @@
         <v>106</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2697,7 +2756,7 @@
         <v>152</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2744,7 +2803,7 @@
         <v>198</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2791,7 +2850,7 @@
         <v>244</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2838,7 +2897,7 @@
         <v>290</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2885,7 +2944,7 @@
         <v>336</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2931,7 +2990,7 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2977,7 +3036,7 @@
         <v>82</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3023,7 +3082,7 @@
         <v>128</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3069,7 +3128,7 @@
         <v>174</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3115,7 +3174,7 @@
         <v>220</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3161,7 +3220,7 @@
         <v>266</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3206,7 +3265,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41">
         <f>COUNTA(A42:A160)</f>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" ref="B41:G41" si="12">B$1</f>
@@ -6502,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K112" t="s">
         <v>71</v>
@@ -6835,6 +6894,374 @@
       </c>
       <c r="N119" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A120">
+        <f>A112-25</f>
+        <v>-20</v>
+      </c>
+      <c r="B120">
+        <f>B112-180</f>
+        <v>190</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>198</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A121">
+        <f>A120</f>
+        <v>-20</v>
+      </c>
+      <c r="B121">
+        <f>B120</f>
+        <v>190</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A122">
+        <f t="shared" ref="A122:A124" si="67">A121</f>
+        <v>-20</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ref="B122:B124" si="68">B121+30</f>
+        <v>220</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>199</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>208</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A123">
+        <f t="shared" si="67"/>
+        <v>-20</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="68"/>
+        <v>250</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>201</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>209</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A124">
+        <f t="shared" si="67"/>
+        <v>-20</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="68"/>
+        <v>280</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>210</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A125">
+        <f>A113</f>
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <f>B113 - 200</f>
+        <v>170</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>203</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>120</v>
+      </c>
+      <c r="K125" t="s">
+        <v>174</v>
+      </c>
+      <c r="L125" t="s">
+        <v>211</v>
+      </c>
+      <c r="M125" t="s">
+        <v>211</v>
+      </c>
+      <c r="N125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A126">
+        <f>A125</f>
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <f>B125+30</f>
+        <v>200</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>204</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>121</v>
+      </c>
+      <c r="K126" t="s">
+        <v>175</v>
+      </c>
+      <c r="L126" t="s">
+        <v>212</v>
+      </c>
+      <c r="M126" t="s">
+        <v>212</v>
+      </c>
+      <c r="N126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A127">
+        <f>A126</f>
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <f>B126+30</f>
+        <v>230</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>205</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>122</v>
+      </c>
+      <c r="K127" t="s">
+        <v>176</v>
+      </c>
+      <c r="L127" t="s">
+        <v>213</v>
+      </c>
+      <c r="M127" t="s">
+        <v>213</v>
+      </c>
+      <c r="N127" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="213">
   <si>
     <t>PT.xy</t>
   </si>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>l1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1746,11 +1742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1766,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1778,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1897,16 +1893,16 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.6">
@@ -1926,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1941,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1955,7 +1951,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.6">
@@ -2033,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2048,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2155,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2184,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2199,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2228,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2243,16 +2239,16 @@
         <v>50</v>
       </c>
       <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" t="s">
         <v>56</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>57</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>58</v>
-      </c>
-      <c r="N15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.6">
@@ -2272,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2287,16 +2283,16 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" t="s">
         <v>35</v>
-      </c>
-      <c r="M16" t="s">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
@@ -2316,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2331,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
         <v>37</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>169</v>
+      </c>
+      <c r="N17" t="s">
         <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
@@ -2360,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2375,16 +2371,16 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
         <v>40</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" t="s">
         <v>41</v>
-      </c>
-      <c r="M18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
@@ -2405,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2420,16 +2416,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
@@ -2450,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2465,16 +2461,16 @@
         <v>99</v>
       </c>
       <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" t="s">
         <v>43</v>
       </c>
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
@@ -2495,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2510,16 +2506,16 @@
         <v>99</v>
       </c>
       <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
@@ -2540,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2555,16 +2551,16 @@
         <v>99</v>
       </c>
       <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
         <v>43</v>
       </c>
-      <c r="L22" t="s">
-        <v>44</v>
-      </c>
       <c r="M22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
@@ -2584,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2599,16 +2595,16 @@
         <v>99</v>
       </c>
       <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
         <v>45</v>
       </c>
-      <c r="L23" t="s">
-        <v>46</v>
-      </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
@@ -2628,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2643,7 +2639,7 @@
         <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2672,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2687,16 +2683,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
@@ -2718,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2734,16 +2730,16 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
@@ -2765,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2781,16 +2777,16 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
@@ -2812,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2828,16 +2824,16 @@
         <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
@@ -2859,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2875,16 +2871,16 @@
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
@@ -2906,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2922,16 +2918,16 @@
         <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
@@ -2953,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2969,16 +2965,16 @@
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
@@ -2999,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3015,16 +3011,16 @@
         <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
@@ -3045,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3061,16 +3057,16 @@
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.6">
@@ -3091,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3107,16 +3103,16 @@
         <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.6">
@@ -3137,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3153,16 +3149,16 @@
         <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.6">
@@ -3183,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3199,16 +3195,16 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.6">
@@ -3229,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3245,16 +3241,16 @@
         <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.6">
@@ -3264,8 +3260,8 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41">
-        <f>COUNTA(A42:A160)</f>
-        <v>86</v>
+        <f>COUNTA(A42:A159)</f>
+        <v>85</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" ref="B41:G41" si="12">B$1</f>
@@ -3322,10 +3318,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="B42">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3334,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3346,42 +3342,42 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" t="s">
-        <v>57</v>
-      </c>
-      <c r="M42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="B43">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3396,7 +3392,7 @@
         <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3410,9 +3406,11 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <v>356</v>
+        <f>A43+45</f>
+        <v>401</v>
       </c>
       <c r="B44">
+        <f>B43</f>
         <v>410</v>
       </c>
       <c r="C44">
@@ -3440,7 +3438,7 @@
         <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3454,11 +3452,11 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f>A44+45</f>
-        <v>401</v>
+        <f t="shared" ref="A45:A47" si="14">A44+45</f>
+        <v>446</v>
       </c>
       <c r="B45">
-        <f>B44</f>
+        <f t="shared" ref="B45:B52" si="15">B44</f>
         <v>410</v>
       </c>
       <c r="C45">
@@ -3500,11 +3498,11 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
-        <f t="shared" ref="A46:A48" si="14">A45+45</f>
-        <v>446</v>
+        <f t="shared" si="14"/>
+        <v>491</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B53" si="15">B45</f>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C46">
@@ -3547,7 +3545,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A47">
         <f t="shared" si="14"/>
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="B47">
         <f t="shared" si="15"/>
@@ -3592,8 +3590,8 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A48">
-        <f t="shared" si="14"/>
-        <v>536</v>
+        <f>A43</f>
+        <v>356</v>
       </c>
       <c r="B48">
         <f t="shared" si="15"/>
@@ -3609,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3618,28 +3616,28 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s">
-        <v>70</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="L48" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" t="s">
+        <v>93</v>
+      </c>
+      <c r="N48" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A49">
-        <f>A44</f>
-        <v>356</v>
+        <f t="shared" ref="A49:A52" si="16">A44</f>
+        <v>401</v>
       </c>
       <c r="B49">
         <f t="shared" si="15"/>
@@ -3667,25 +3665,25 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A50">
-        <f t="shared" ref="A50:A53" si="16">A45</f>
-        <v>401</v>
+        <f t="shared" si="16"/>
+        <v>446</v>
       </c>
       <c r="B50">
         <f t="shared" si="15"/>
@@ -3713,25 +3711,25 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
         <f t="shared" si="16"/>
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="B51">
         <f t="shared" si="15"/>
@@ -3759,25 +3757,25 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
         <f t="shared" si="16"/>
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="B52">
         <f t="shared" si="15"/>
@@ -3793,44 +3791,44 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>105</v>
+      </c>
+      <c r="K52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M52" t="s">
+        <v>93</v>
+      </c>
+      <c r="N52" t="s">
         <v>54</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>104</v>
-      </c>
-      <c r="K52" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" t="s">
-        <v>94</v>
-      </c>
-      <c r="M52" t="s">
-        <v>94</v>
-      </c>
-      <c r="N52" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
-        <f t="shared" si="16"/>
-        <v>536</v>
+        <f>A48</f>
+        <v>356</v>
       </c>
       <c r="B53">
-        <f t="shared" si="15"/>
+        <f>B48</f>
         <v>410</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3839,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3848,31 +3846,31 @@
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" t="s">
-        <v>94</v>
-      </c>
-      <c r="M53" t="s">
-        <v>94</v>
-      </c>
-      <c r="N53" t="s">
-        <v>55</v>
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A54">
-        <f>A49</f>
-        <v>356</v>
+        <f t="shared" ref="A54:B57" si="17">A49</f>
+        <v>401</v>
       </c>
       <c r="B54">
-        <f>B49</f>
+        <f t="shared" si="17"/>
         <v>410</v>
       </c>
       <c r="C54">
@@ -3900,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3914,8 +3912,8 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A55">
-        <f t="shared" ref="A55:B58" si="17">A50</f>
-        <v>401</v>
+        <f t="shared" si="17"/>
+        <v>446</v>
       </c>
       <c r="B55">
         <f t="shared" si="17"/>
@@ -3946,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3961,7 +3959,7 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A56">
         <f t="shared" si="17"/>
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="B56">
         <f t="shared" si="17"/>
@@ -3992,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4007,7 +4005,7 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A57">
         <f t="shared" si="17"/>
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="B57">
         <f t="shared" si="17"/>
@@ -4038,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4052,15 +4050,15 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A58">
-        <f t="shared" si="17"/>
-        <v>536</v>
+        <f>A53 + 10</f>
+        <v>366</v>
       </c>
       <c r="B58">
-        <f t="shared" si="17"/>
-        <v>410</v>
+        <f>B53 + 10</f>
+        <v>420</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4069,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4078,31 +4076,31 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>101</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="L58" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s">
+        <v>158</v>
+      </c>
+      <c r="N58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59">
-        <f>A54 + 10</f>
-        <v>366</v>
+        <f t="shared" ref="A59:B59" si="18">A54 + 10</f>
+        <v>411</v>
       </c>
       <c r="B59">
-        <f>B54 + 10</f>
+        <f t="shared" si="18"/>
         <v>420</v>
       </c>
       <c r="C59">
@@ -4130,25 +4128,25 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A60">
-        <f t="shared" ref="A60:B60" si="18">A55 + 10</f>
-        <v>411</v>
+        <f t="shared" ref="A60:B60" si="19">A55 + 10</f>
+        <v>456</v>
       </c>
       <c r="B60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>420</v>
       </c>
       <c r="C60">
@@ -4176,25 +4174,25 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A61">
-        <f t="shared" ref="A61:B61" si="19">A56 + 10</f>
-        <v>456</v>
+        <f t="shared" ref="A61:B61" si="20">A56 + 10</f>
+        <v>501</v>
       </c>
       <c r="B61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>420</v>
       </c>
       <c r="C61">
@@ -4222,25 +4220,25 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A62">
-        <f t="shared" ref="A62:B62" si="20">A57 + 10</f>
-        <v>501</v>
+        <f t="shared" ref="A62:B62" si="21">A57 + 10</f>
+        <v>546</v>
       </c>
       <c r="B62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>420</v>
       </c>
       <c r="C62">
@@ -4268,25 +4266,25 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A63">
-        <f t="shared" ref="A63:B63" si="21">A58 + 10</f>
-        <v>546</v>
+        <f>A58</f>
+        <v>366</v>
       </c>
       <c r="B63">
-        <f t="shared" si="21"/>
+        <f>B58</f>
         <v>420</v>
       </c>
       <c r="C63">
@@ -4299,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4328,11 +4326,11 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A64">
-        <f>A59</f>
-        <v>366</v>
+        <f t="shared" ref="A64:B64" si="22">A59</f>
+        <v>411</v>
       </c>
       <c r="B64">
-        <f>B59</f>
+        <f t="shared" si="22"/>
         <v>420</v>
       </c>
       <c r="C64">
@@ -4360,25 +4358,25 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A65">
-        <f t="shared" ref="A65:B65" si="22">A60</f>
-        <v>411</v>
+        <f t="shared" ref="A65:B65" si="23">A60</f>
+        <v>456</v>
       </c>
       <c r="B65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>420</v>
       </c>
       <c r="C65">
@@ -4406,25 +4404,25 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A66">
-        <f t="shared" ref="A66:B66" si="23">A61</f>
-        <v>456</v>
+        <f t="shared" ref="A66:B66" si="24">A61</f>
+        <v>501</v>
       </c>
       <c r="B66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>420</v>
       </c>
       <c r="C66">
@@ -4452,25 +4450,25 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A67">
-        <f t="shared" ref="A67:B67" si="24">A62</f>
-        <v>501</v>
+        <f t="shared" ref="A67:B67" si="25">A62</f>
+        <v>546</v>
       </c>
       <c r="B67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>420</v>
       </c>
       <c r="C67">
@@ -4498,25 +4496,25 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A68">
-        <f t="shared" ref="A68:B68" si="25">A63</f>
-        <v>546</v>
+        <f t="shared" ref="A68:B68" si="26">A63</f>
+        <v>366</v>
       </c>
       <c r="B68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>420</v>
       </c>
       <c r="C68">
@@ -4558,11 +4556,11 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A69">
-        <f t="shared" ref="A69:B69" si="26">A64</f>
-        <v>366</v>
+        <f t="shared" ref="A69:B69" si="27">A64</f>
+        <v>411</v>
       </c>
       <c r="B69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>420</v>
       </c>
       <c r="C69">
@@ -4590,25 +4588,25 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A70">
-        <f t="shared" ref="A70:B70" si="27">A65</f>
-        <v>411</v>
+        <f t="shared" ref="A70:B70" si="28">A65</f>
+        <v>456</v>
       </c>
       <c r="B70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>420</v>
       </c>
       <c r="C70">
@@ -4636,25 +4634,25 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A71">
-        <f t="shared" ref="A71:B71" si="28">A66</f>
-        <v>456</v>
+        <f t="shared" ref="A71:B71" si="29">A66</f>
+        <v>501</v>
       </c>
       <c r="B71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>420</v>
       </c>
       <c r="C71">
@@ -4682,25 +4680,25 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A72">
-        <f t="shared" ref="A72:B72" si="29">A67</f>
-        <v>501</v>
+        <f t="shared" ref="A72:B72" si="30">A67</f>
+        <v>546</v>
       </c>
       <c r="B72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>420</v>
       </c>
       <c r="C72">
@@ -4713,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4728,25 +4726,25 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A73">
-        <f t="shared" ref="A73:B73" si="30">A68</f>
-        <v>546</v>
+        <f t="shared" ref="A73:B73" si="31">A68</f>
+        <v>366</v>
       </c>
       <c r="B73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>420</v>
       </c>
       <c r="C73">
@@ -4788,11 +4786,11 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A74">
-        <f t="shared" ref="A74:B74" si="31">A69</f>
-        <v>366</v>
+        <f t="shared" ref="A74:B74" si="32">A69</f>
+        <v>411</v>
       </c>
       <c r="B74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>420</v>
       </c>
       <c r="C74">
@@ -4820,25 +4818,25 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A75">
-        <f t="shared" ref="A75:B75" si="32">A70</f>
-        <v>411</v>
+        <f t="shared" ref="A75:B75" si="33">A70</f>
+        <v>456</v>
       </c>
       <c r="B75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>420</v>
       </c>
       <c r="C75">
@@ -4866,25 +4864,25 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A76">
-        <f t="shared" ref="A76:B76" si="33">A71</f>
-        <v>456</v>
+        <f t="shared" ref="A76:B76" si="34">A71</f>
+        <v>501</v>
       </c>
       <c r="B76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>420</v>
       </c>
       <c r="C76">
@@ -4912,25 +4910,25 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A77">
-        <f t="shared" ref="A77:B77" si="34">A72</f>
-        <v>501</v>
+        <f t="shared" ref="A77:B77" si="35">A72</f>
+        <v>546</v>
       </c>
       <c r="B77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>420</v>
       </c>
       <c r="C77">
@@ -4943,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4958,25 +4956,25 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A78">
-        <f t="shared" ref="A78:B78" si="35">A73</f>
-        <v>546</v>
+        <f t="shared" ref="A78:B78" si="36">A73</f>
+        <v>366</v>
       </c>
       <c r="B78">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>420</v>
       </c>
       <c r="C78">
@@ -4989,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5018,11 +5016,11 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A79">
-        <f t="shared" ref="A79:B79" si="36">A74</f>
-        <v>366</v>
+        <f t="shared" ref="A79:B79" si="37">A74</f>
+        <v>411</v>
       </c>
       <c r="B79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>420</v>
       </c>
       <c r="C79">
@@ -5050,25 +5048,25 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A80">
-        <f t="shared" ref="A80:B80" si="37">A75</f>
-        <v>411</v>
+        <f t="shared" ref="A80:B80" si="38">A75</f>
+        <v>456</v>
       </c>
       <c r="B80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>420</v>
       </c>
       <c r="C80">
@@ -5096,25 +5094,25 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A81">
-        <f t="shared" ref="A81:B81" si="38">A76</f>
-        <v>456</v>
+        <f t="shared" ref="A81:B81" si="39">A76</f>
+        <v>501</v>
       </c>
       <c r="B81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>420</v>
       </c>
       <c r="C81">
@@ -5142,25 +5140,25 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A82">
-        <f t="shared" ref="A82:B82" si="39">A77</f>
-        <v>501</v>
+        <f t="shared" ref="A82:B82" si="40">A77</f>
+        <v>546</v>
       </c>
       <c r="B82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>420</v>
       </c>
       <c r="C82">
@@ -5188,25 +5186,25 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A83">
-        <f t="shared" ref="A83:B83" si="40">A78</f>
-        <v>546</v>
+        <f t="shared" ref="A83:B83" si="41">A78</f>
+        <v>366</v>
       </c>
       <c r="B83">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>420</v>
       </c>
       <c r="C83">
@@ -5248,11 +5246,11 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A84">
-        <f t="shared" ref="A84:B84" si="41">A79</f>
-        <v>366</v>
+        <f t="shared" ref="A84:B84" si="42">A79</f>
+        <v>411</v>
       </c>
       <c r="B84">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>420</v>
       </c>
       <c r="C84">
@@ -5280,25 +5278,25 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A85">
-        <f t="shared" ref="A85:B85" si="42">A80</f>
-        <v>411</v>
+        <f t="shared" ref="A85:B85" si="43">A80</f>
+        <v>456</v>
       </c>
       <c r="B85">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>420</v>
       </c>
       <c r="C85">
@@ -5326,25 +5324,25 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A86">
-        <f t="shared" ref="A86:B86" si="43">A81</f>
-        <v>456</v>
+        <f t="shared" ref="A86:B86" si="44">A81</f>
+        <v>501</v>
       </c>
       <c r="B86">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>420</v>
       </c>
       <c r="C86">
@@ -5372,25 +5370,25 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A87">
-        <f t="shared" ref="A87:B87" si="44">A82</f>
-        <v>501</v>
+        <f t="shared" ref="A87:B87" si="45">A82</f>
+        <v>546</v>
       </c>
       <c r="B87">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>420</v>
       </c>
       <c r="C87">
@@ -5418,25 +5416,25 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A88">
-        <f t="shared" ref="A88:B88" si="45">A83</f>
-        <v>546</v>
+        <f t="shared" ref="A88:B88" si="46">A83</f>
+        <v>366</v>
       </c>
       <c r="B88">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>420</v>
       </c>
       <c r="C88">
@@ -5478,11 +5476,11 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A89">
-        <f t="shared" ref="A89:B89" si="46">A84</f>
-        <v>366</v>
+        <f t="shared" ref="A89:B89" si="47">A84</f>
+        <v>411</v>
       </c>
       <c r="B89">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>420</v>
       </c>
       <c r="C89">
@@ -5510,25 +5508,25 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A90">
-        <f t="shared" ref="A90:B90" si="47">A85</f>
-        <v>411</v>
+        <f t="shared" ref="A90:B90" si="48">A85</f>
+        <v>456</v>
       </c>
       <c r="B90">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>420</v>
       </c>
       <c r="C90">
@@ -5556,25 +5554,25 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A91">
-        <f t="shared" ref="A91:B91" si="48">A86</f>
-        <v>456</v>
+        <f t="shared" ref="A91:B91" si="49">A86</f>
+        <v>501</v>
       </c>
       <c r="B91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>420</v>
       </c>
       <c r="C91">
@@ -5602,25 +5600,25 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A92">
-        <f t="shared" ref="A92:B92" si="49">A87</f>
-        <v>501</v>
+        <f t="shared" ref="A92:B92" si="50">A87</f>
+        <v>546</v>
       </c>
       <c r="B92">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>420</v>
       </c>
       <c r="C92">
@@ -5648,25 +5646,25 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A93">
-        <f t="shared" ref="A93:B93" si="50">A88</f>
-        <v>546</v>
+        <f t="shared" ref="A93:B93" si="51">A88</f>
+        <v>366</v>
       </c>
       <c r="B93">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>420</v>
       </c>
       <c r="C93">
@@ -5708,11 +5706,11 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A94">
-        <f t="shared" ref="A94:B94" si="51">A89</f>
-        <v>366</v>
+        <f t="shared" ref="A94:B94" si="52">A89</f>
+        <v>411</v>
       </c>
       <c r="B94">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>420</v>
       </c>
       <c r="C94">
@@ -5740,25 +5738,25 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A95">
-        <f t="shared" ref="A95:B95" si="52">A90</f>
-        <v>411</v>
+        <f t="shared" ref="A95:B95" si="53">A90</f>
+        <v>456</v>
       </c>
       <c r="B95">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>420</v>
       </c>
       <c r="C95">
@@ -5786,25 +5784,25 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A96">
-        <f t="shared" ref="A96:B96" si="53">A91</f>
-        <v>456</v>
+        <f t="shared" ref="A96:B96" si="54">A91</f>
+        <v>501</v>
       </c>
       <c r="B96">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>420</v>
       </c>
       <c r="C96">
@@ -5832,25 +5830,25 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A97">
-        <f t="shared" ref="A97:B97" si="54">A92</f>
-        <v>501</v>
+        <f t="shared" ref="A97:B97" si="55">A92</f>
+        <v>546</v>
       </c>
       <c r="B97">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>420</v>
       </c>
       <c r="C97">
@@ -5878,25 +5876,25 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A98">
-        <f t="shared" ref="A98:B98" si="55">A93</f>
-        <v>546</v>
+        <f t="shared" ref="A98:B98" si="56">A93</f>
+        <v>366</v>
       </c>
       <c r="B98">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>420</v>
       </c>
       <c r="C98">
@@ -5938,11 +5936,11 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A99">
-        <f t="shared" ref="A99:B99" si="56">A94</f>
-        <v>366</v>
+        <f t="shared" ref="A99:B99" si="57">A94</f>
+        <v>411</v>
       </c>
       <c r="B99">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>420</v>
       </c>
       <c r="C99">
@@ -5970,25 +5968,25 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A100">
-        <f t="shared" ref="A100:B100" si="57">A95</f>
-        <v>411</v>
+        <f t="shared" ref="A100:B100" si="58">A95</f>
+        <v>456</v>
       </c>
       <c r="B100">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>420</v>
       </c>
       <c r="C100">
@@ -6016,25 +6014,25 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A101">
-        <f t="shared" ref="A101:B101" si="58">A96</f>
-        <v>456</v>
+        <f t="shared" ref="A101:B101" si="59">A96</f>
+        <v>501</v>
       </c>
       <c r="B101">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>420</v>
       </c>
       <c r="C101">
@@ -6062,25 +6060,25 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A102">
-        <f t="shared" ref="A102:B102" si="59">A97</f>
-        <v>501</v>
+        <f t="shared" ref="A102:B102" si="60">A97</f>
+        <v>546</v>
       </c>
       <c r="B102">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>420</v>
       </c>
       <c r="C102">
@@ -6108,25 +6106,25 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A103">
-        <f t="shared" ref="A103:B103" si="60">A98</f>
-        <v>546</v>
+        <f t="shared" ref="A103:B103" si="61">A98</f>
+        <v>366</v>
       </c>
       <c r="B103">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>420</v>
       </c>
       <c r="C103">
@@ -6168,11 +6166,11 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A104">
-        <f t="shared" ref="A104:B104" si="61">A99</f>
-        <v>366</v>
+        <f t="shared" ref="A104:B104" si="62">A99</f>
+        <v>411</v>
       </c>
       <c r="B104">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>420</v>
       </c>
       <c r="C104">
@@ -6200,25 +6198,25 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A105">
-        <f t="shared" ref="A105:B105" si="62">A100</f>
-        <v>411</v>
+        <f t="shared" ref="A105:B105" si="63">A100</f>
+        <v>456</v>
       </c>
       <c r="B105">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>420</v>
       </c>
       <c r="C105">
@@ -6246,25 +6244,25 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A106">
-        <f t="shared" ref="A106:B106" si="63">A101</f>
-        <v>456</v>
+        <f t="shared" ref="A106:B106" si="64">A101</f>
+        <v>501</v>
       </c>
       <c r="B106">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>420</v>
       </c>
       <c r="C106">
@@ -6292,25 +6290,25 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A107">
-        <f t="shared" ref="A107:B107" si="64">A102</f>
-        <v>501</v>
+        <f t="shared" ref="A107:B107" si="65">A102</f>
+        <v>546</v>
       </c>
       <c r="B107">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>420</v>
       </c>
       <c r="C107">
@@ -6338,29 +6336,27 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A108">
-        <f t="shared" ref="A108:B108" si="65">A103</f>
-        <v>546</v>
+        <v>-200</v>
       </c>
       <c r="B108">
-        <f t="shared" si="65"/>
-        <v>420</v>
+        <v>-200</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -6369,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6381,27 +6377,29 @@
         <v>1</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="L108" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="M108" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="N108" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A109">
-        <v>-200</v>
+        <f>A42+302</f>
+        <v>602</v>
       </c>
       <c r="B109">
-        <v>-200</v>
+        <f>B42-1</f>
+        <v>435</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6431,22 +6429,22 @@
         <v>86</v>
       </c>
       <c r="L109" t="s">
+        <v>92</v>
+      </c>
+      <c r="M109" t="s">
+        <v>92</v>
+      </c>
+      <c r="N109" t="s">
         <v>86</v>
-      </c>
-      <c r="M109" t="s">
-        <v>86</v>
-      </c>
-      <c r="N109" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A110">
-        <f>A43+302</f>
+        <f>A109</f>
         <v>602</v>
       </c>
       <c r="B110">
-        <f>B43-1</f>
+        <f>B109</f>
         <v>435</v>
       </c>
       <c r="C110">
@@ -6459,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -6468,32 +6466,30 @@
         <v>0</v>
       </c>
       <c r="I110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>99</v>
       </c>
       <c r="K110" t="s">
-        <v>87</v>
-      </c>
-      <c r="L110" t="s">
-        <v>93</v>
-      </c>
-      <c r="M110" t="s">
-        <v>93</v>
-      </c>
-      <c r="N110" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A111">
-        <f>A110</f>
-        <v>602</v>
+        <v>5</v>
       </c>
       <c r="B111">
-        <f>B110</f>
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6502,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6514,22 +6510,22 @@
         <v>0</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>91</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="L111" t="s">
+        <v>71</v>
+      </c>
+      <c r="M111" t="s">
+        <v>71</v>
+      </c>
+      <c r="N111" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.6">
@@ -6546,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6558,30 +6554,32 @@
         <v>0</v>
       </c>
       <c r="I112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>71</v>
-      </c>
-      <c r="L112" t="s">
         <v>72</v>
       </c>
-      <c r="M112" t="s">
-        <v>72</v>
-      </c>
-      <c r="N112" t="s">
-        <v>71</v>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A113">
-        <v>5</v>
+        <f>A112+85</f>
+        <v>90</v>
       </c>
       <c r="B113">
-        <v>370</v>
+        <f>B112+50</f>
+        <v>420</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6593,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -6605,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K113" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -6622,12 +6620,12 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A114">
-        <f>A113+85</f>
-        <v>90</v>
+        <f>A112+111</f>
+        <v>116</v>
       </c>
       <c r="B114">
-        <f>B113+50</f>
-        <v>420</v>
+        <f>B113+3</f>
+        <v>423</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6639,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6651,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -6668,11 +6666,11 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A115">
-        <f>A113+111</f>
+        <f>A114</f>
         <v>116</v>
       </c>
       <c r="B115">
-        <f>B114+3</f>
+        <f>B114</f>
         <v>423</v>
       </c>
       <c r="C115">
@@ -6682,10 +6680,10 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6714,12 +6712,12 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A116">
-        <f>A115</f>
-        <v>116</v>
+        <f>A115-6</f>
+        <v>110</v>
       </c>
       <c r="B116">
-        <f>B115</f>
-        <v>423</v>
+        <f>B115+12</f>
+        <v>435</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6728,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6746,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -6760,11 +6758,11 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A117">
-        <f>A116-6</f>
+        <f t="shared" ref="A117" si="66">A116</f>
         <v>110</v>
       </c>
       <c r="B117">
-        <f>B116+12</f>
+        <f>B116</f>
         <v>435</v>
       </c>
       <c r="C117">
@@ -6774,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6792,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -6806,12 +6804,12 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A118">
-        <f t="shared" ref="A118" si="66">A117</f>
-        <v>110</v>
+        <f>A113+3</f>
+        <v>93</v>
       </c>
       <c r="B118">
-        <f>B117</f>
-        <v>435</v>
+        <f>B113+33</f>
+        <v>453</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6823,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6832,44 +6830,44 @@
         <v>0</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s">
-        <v>79</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="L118" t="s">
+        <v>98</v>
+      </c>
+      <c r="M118" t="s">
+        <v>99</v>
+      </c>
+      <c r="N118" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A119">
-        <f>A114+3</f>
-        <v>93</v>
+        <f>A111-25</f>
+        <v>-20</v>
       </c>
       <c r="B119">
-        <f>B114+33</f>
-        <v>453</v>
+        <f>B111-180</f>
+        <v>190</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6878,31 +6876,31 @@
         <v>0</v>
       </c>
       <c r="I119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>86</v>
-      </c>
-      <c r="L119" t="s">
-        <v>99</v>
-      </c>
-      <c r="M119" t="s">
-        <v>100</v>
-      </c>
-      <c r="N119" t="s">
-        <v>97</v>
+        <v>205</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A120">
-        <f>A112-25</f>
+        <f>A119</f>
         <v>-20</v>
       </c>
       <c r="B120">
-        <f>B112-180</f>
+        <f>B119</f>
         <v>190</v>
       </c>
       <c r="C120">
@@ -6915,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6944,12 +6942,12 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A121">
-        <f>A120</f>
+        <f t="shared" ref="A121:A123" si="67">A120</f>
         <v>-20</v>
       </c>
       <c r="B121">
-        <f>B120</f>
-        <v>190</v>
+        <f t="shared" ref="B121:B123" si="68">B120+30</f>
+        <v>220</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6961,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6990,12 +6988,12 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A122">
-        <f t="shared" ref="A122:A124" si="67">A121</f>
+        <f t="shared" si="67"/>
         <v>-20</v>
       </c>
       <c r="B122">
-        <f t="shared" ref="B122:B124" si="68">B121+30</f>
-        <v>220</v>
+        <f t="shared" si="68"/>
+        <v>250</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7007,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -7041,7 +7039,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="68"/>
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7082,12 +7080,12 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A124">
-        <f t="shared" si="67"/>
-        <v>-20</v>
+        <f>A112</f>
+        <v>5</v>
       </c>
       <c r="B124">
-        <f t="shared" si="68"/>
-        <v>280</v>
+        <f>B112 - 200</f>
+        <v>170</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7108,32 +7106,32 @@
         <v>0</v>
       </c>
       <c r="I124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K124" t="s">
+        <v>173</v>
+      </c>
+      <c r="L124" t="s">
         <v>210</v>
       </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
+      <c r="M124" t="s">
+        <v>210</v>
+      </c>
+      <c r="N124" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A125">
-        <f>A113</f>
+        <f>A124</f>
         <v>5</v>
       </c>
       <c r="B125">
-        <f>B113 - 200</f>
-        <v>170</v>
+        <f>B124+30</f>
+        <v>200</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7157,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="J125">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K125" t="s">
         <v>174</v>
@@ -7179,7 +7177,7 @@
       </c>
       <c r="B126">
         <f>B125+30</f>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7203,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K126" t="s">
         <v>175</v>
@@ -7216,52 +7214,6 @@
       </c>
       <c r="N126" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A127">
-        <f>A126</f>
-        <v>5</v>
-      </c>
-      <c r="B127">
-        <f>B126+30</f>
-        <v>230</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127" t="s">
-        <v>205</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127" s="1">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>122</v>
-      </c>
-      <c r="K127" t="s">
-        <v>176</v>
-      </c>
-      <c r="L127" t="s">
-        <v>213</v>
-      </c>
-      <c r="M127" t="s">
-        <v>213</v>
-      </c>
-      <c r="N127" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="213">
   <si>
     <t>PT.xy</t>
   </si>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>l1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cUILoadingInGame</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -152,9 +148,6 @@
     <t>mainmenu_btn_heroinfo_ability_1.png</t>
   </si>
   <si>
-    <t>mainmenu_btn_heroinfo_ability_2.png</t>
-  </si>
-  <si>
     <t>mainmenu_btn_heroinfo_ability_3.png</t>
   </si>
   <si>
@@ -164,9 +157,6 @@
     <t>mainmenu_btn_heroinfo_equip_1.png</t>
   </si>
   <si>
-    <t>mainmenu_btn_heroinfo_equip_2.png</t>
-  </si>
-  <si>
     <t>mainmenu_btn_heroinfo_equip_3.png</t>
   </si>
   <si>
@@ -176,9 +166,6 @@
     <t>mainmenu_btn_heroinfo_talents_1.png</t>
   </si>
   <si>
-    <t>mainmenu_btn_heroinfo_talents_2.png</t>
-  </si>
-  <si>
     <t>mainmenu_btn_heroinfo_talents_3.png</t>
   </si>
   <si>
@@ -662,6 +649,179 @@
   </si>
   <si>
     <t>ingame_img_count_9.png</t>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_ability_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_equip_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_btn_heroinfo_talents_2.dds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_0.png</t>
+  </si>
+  <si>
+    <t>heroabil_0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_3.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_4.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_5.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_6.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_1_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_1_popup.png</t>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_3_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_4_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_6_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_5_popup.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_2_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_3_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_4_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_5_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroabil_6_popup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choosebg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockskill1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockskill2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockskill3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_bg.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_0.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_1.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_2.png</t>
+  </si>
+  <si>
+    <t>ingame_img_choosetalent_3.png</t>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_1_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_3_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1582,11 +1742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1602,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1614,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1733,16 +1893,16 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.6">
@@ -1762,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1777,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1791,13 +1951,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A8">
-        <f>COUNTA(A9:A11)</f>
-        <v>2</v>
+        <f>COUNTA(A9:A10)</f>
+        <v>1</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:G8" si="2">B$1</f>
@@ -1854,10 +2014,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A9">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1866,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1878,137 +2038,137 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="A12">
+        <f>COUNTA(A13:A39)</f>
+        <v>25</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:G12" si="4">B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="4"/>
+        <v>enable</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="4"/>
+        <v>used</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>BG</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>IndexName</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>rotate</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12:N12" si="5">H$1</f>
+        <v>rotateSpd</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="5"/>
+        <v>Button</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>Func</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>normal</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>over</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>select</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>disenable</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A13">
-        <f>COUNTA(A14:A31)</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" ref="B13:G13" si="4">B$1</f>
-        <v>PT.xy</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="4"/>
-        <v>enable</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="4"/>
-        <v>used</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="4"/>
-        <v>BG</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="4"/>
-        <v>IndexName</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="4"/>
-        <v>rotate</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ref="H13:N13" si="5">H$1</f>
-        <v>rotateSpd</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="5"/>
-        <v>Button</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v>Func</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="5"/>
-        <v>normal</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="5"/>
-        <v>over</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="5"/>
-        <v>select</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="5"/>
-        <v>disenable</v>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A14">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2020,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2049,10 +2209,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A15">
-        <v>-62</v>
+        <v>385</v>
       </c>
       <c r="B15">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2061,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2073,30 +2233,30 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A16">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2108,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2120,24 +2280,24 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>380</v>
@@ -2164,24 +2324,24 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A18">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B18">
         <v>380</v>
@@ -2208,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
@@ -2225,10 +2385,11 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A19">
-        <v>160</v>
+        <f>A20-40</f>
+        <v>730</v>
       </c>
       <c r="B19">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2240,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2252,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
         <v>42</v>
@@ -2261,16 +2422,16 @@
         <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A20">
         <f>A21-40</f>
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2300,22 +2461,22 @@
         <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A21">
         <f>A22-40</f>
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2345,22 +2506,22 @@
         <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A22">
         <f>A23-40</f>
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2390,25 +2551,24 @@
         <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A23">
-        <f>A24-40</f>
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2435,24 +2595,24 @@
         <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A24">
-        <v>890</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2464,42 +2624,42 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A25">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2508,105 +2668,417 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A26">
+        <f>A25</f>
         <v>50</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+      <c r="B26">
+        <f>B25+46</f>
+        <v>106</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f>J25+1</f>
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A27">
+        <f t="shared" ref="A27:A28" si="6">A26</f>
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B28" si="7">B26+46</f>
+        <v>152</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J37" si="8">J26+1</f>
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>175</v>
+      </c>
+      <c r="L28" t="s">
+        <v>175</v>
+      </c>
+      <c r="M28" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A29">
+        <f t="shared" ref="A29:A31" si="9">A28</f>
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B31" si="10">B28+46</f>
+        <v>244</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A30">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A31">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>336</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" t="s">
+        <v>178</v>
+      </c>
+      <c r="M31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
-        <v>7</v>
+      <c r="A32">
+        <v>260</v>
+      </c>
+      <c r="B32">
+        <f>B26 - 70</f>
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A33">
-        <f>COUNTA(A34:A152)</f>
-        <v>78</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" ref="B33:G33" si="6">B$1</f>
-        <v>PT.xy</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="6"/>
-        <v>enable</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="6"/>
-        <v>used</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="6"/>
-        <v>BG</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="6"/>
-        <v>IndexName</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="6"/>
-        <v>rotate</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" ref="H33:N33" si="7">H$1</f>
-        <v>rotateSpd</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="7"/>
-        <v>Button</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="7"/>
-        <v>Func</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="7"/>
-        <v>normal</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="7"/>
-        <v>over</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="7"/>
-        <v>select</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="7"/>
-        <v>disenable</v>
+        <v>260</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B37" si="11">B27 - 70</f>
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="B34">
-        <v>400</v>
+        <f t="shared" si="11"/>
+        <v>128</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2615,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2627,39 +3099,41 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B35">
-        <v>436</v>
+        <f t="shared" si="11"/>
+        <v>174</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2668,30 +3142,32 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="L35" t="s">
+        <v>189</v>
+      </c>
+      <c r="M35" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="B36">
-        <v>410</v>
+        <f t="shared" si="11"/>
+        <v>220</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2703,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2712,32 +3188,32 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="L36" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s">
+        <v>191</v>
+      </c>
+      <c r="N36" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A37">
-        <f>A36+45</f>
-        <v>401</v>
+        <v>260</v>
       </c>
       <c r="B37">
-        <f>B36</f>
-        <v>410</v>
+        <f t="shared" si="11"/>
+        <v>266</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2749,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2758,228 +3234,106 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A38">
-        <f t="shared" ref="A38:A40" si="8">A37+45</f>
-        <v>446</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ref="B38:B45" si="9">B37</f>
-        <v>410</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>99</v>
-      </c>
-      <c r="K38" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A39">
-        <f t="shared" si="8"/>
-        <v>491</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>99</v>
-      </c>
-      <c r="K39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="L37" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A40">
-        <f t="shared" si="8"/>
-        <v>536</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>99</v>
-      </c>
-      <c r="K40" t="s">
-        <v>73</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+      <c r="A40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A41">
-        <f>A36</f>
-        <v>356</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>101</v>
-      </c>
-      <c r="K41" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" t="s">
-        <v>97</v>
-      </c>
-      <c r="N41" t="s">
-        <v>58</v>
+        <f>COUNTA(A42:A159)</f>
+        <v>85</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:G41" si="12">B$1</f>
+        <v>PT.xy</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="12"/>
+        <v>enable</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="12"/>
+        <v>used</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="12"/>
+        <v>BG</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="12"/>
+        <v>IndexName</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="12"/>
+        <v>rotate</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ref="H41:N41" si="13">H$1</f>
+        <v>rotateSpd</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="13"/>
+        <v>Button</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="13"/>
+        <v>Func</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="13"/>
+        <v>normal</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="13"/>
+        <v>over</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="13"/>
+        <v>select</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="13"/>
+        <v>disenable</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <f t="shared" ref="A42:A45" si="10">A37</f>
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="B42">
-        <f t="shared" si="9"/>
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2988,31 +3342,29 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" t="s">
-        <v>97</v>
-      </c>
-      <c r="M42" t="s">
-        <v>97</v>
-      </c>
-      <c r="N42" t="s">
-        <v>58</v>
+        <v>83</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <f t="shared" si="10"/>
-        <v>446</v>
+        <v>356</v>
       </c>
       <c r="B43">
-        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="C43">
@@ -3025,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3034,31 +3386,31 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" t="s">
-        <v>97</v>
-      </c>
-      <c r="M43" t="s">
-        <v>97</v>
-      </c>
-      <c r="N43" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <f t="shared" si="10"/>
-        <v>491</v>
+        <f>A43+45</f>
+        <v>401</v>
       </c>
       <c r="B44">
-        <f t="shared" si="9"/>
+        <f>B43</f>
         <v>410</v>
       </c>
       <c r="C44">
@@ -3071,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3080,31 +3432,31 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N44" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f t="shared" si="10"/>
-        <v>536</v>
+        <f t="shared" ref="A45:A47" si="14">A44+45</f>
+        <v>446</v>
       </c>
       <c r="B45">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B45:B52" si="15">B44</f>
         <v>410</v>
       </c>
       <c r="C45">
@@ -3126,35 +3478,35 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" t="s">
-        <v>97</v>
-      </c>
-      <c r="M45" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
-        <f>A41</f>
-        <v>356</v>
+        <f t="shared" si="14"/>
+        <v>491</v>
       </c>
       <c r="B46">
-        <f>B41</f>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3163,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3175,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3192,15 +3544,15 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A47">
-        <f t="shared" ref="A47:B50" si="11">A42</f>
-        <v>401</v>
+        <f t="shared" si="14"/>
+        <v>536</v>
       </c>
       <c r="B47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3209,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3221,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3238,15 +3590,15 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A48">
-        <f t="shared" si="11"/>
-        <v>446</v>
+        <f>A43</f>
+        <v>356</v>
       </c>
       <c r="B48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3255,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3264,35 +3616,35 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s">
-        <v>104</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="L48" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" t="s">
+        <v>93</v>
+      </c>
+      <c r="N48" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A49">
-        <f t="shared" si="11"/>
-        <v>491</v>
+        <f t="shared" ref="A49:A52" si="16">A44</f>
+        <v>401</v>
       </c>
       <c r="B49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3301,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3310,35 +3662,35 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
-        <v>104</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M49" t="s">
+        <v>93</v>
+      </c>
+      <c r="N49" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A50">
-        <f t="shared" si="11"/>
-        <v>536</v>
+        <f t="shared" si="16"/>
+        <v>446</v>
       </c>
       <c r="B50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3347,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3356,32 +3708,32 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s">
-        <v>104</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
+        <v>93</v>
+      </c>
+      <c r="M50" t="s">
+        <v>93</v>
+      </c>
+      <c r="N50" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
-        <f>A46 + 10</f>
-        <v>366</v>
+        <f t="shared" si="16"/>
+        <v>491</v>
       </c>
       <c r="B51">
-        <f>B46 + 10</f>
-        <v>420</v>
+        <f t="shared" si="15"/>
+        <v>410</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3393,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3405,29 +3757,29 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="L51" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="M51" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="N51" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
-        <f t="shared" ref="A52:B52" si="12">A47 + 10</f>
-        <v>411</v>
+        <f t="shared" si="16"/>
+        <v>536</v>
       </c>
       <c r="B52">
-        <f t="shared" si="12"/>
-        <v>420</v>
+        <f t="shared" si="15"/>
+        <v>410</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3439,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3451,32 +3803,32 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="L52" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="M52" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="N52" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
-        <f t="shared" ref="A53:B53" si="13">A48 + 10</f>
-        <v>456</v>
+        <f>A48</f>
+        <v>356</v>
       </c>
       <c r="B53">
-        <f t="shared" si="13"/>
-        <v>420</v>
+        <f>B48</f>
+        <v>410</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3485,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3494,35 +3846,35 @@
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>162</v>
-      </c>
-      <c r="L53" t="s">
-        <v>162</v>
-      </c>
-      <c r="M53" t="s">
-        <v>162</v>
-      </c>
-      <c r="N53" t="s">
-        <v>162</v>
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A54">
-        <f t="shared" ref="A54:B54" si="14">A49 + 10</f>
-        <v>501</v>
+        <f t="shared" ref="A54:B57" si="17">A49</f>
+        <v>401</v>
       </c>
       <c r="B54">
-        <f t="shared" si="14"/>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3531,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3540,35 +3892,35 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
-      </c>
-      <c r="L54" t="s">
-        <v>162</v>
-      </c>
-      <c r="M54" t="s">
-        <v>162</v>
-      </c>
-      <c r="N54" t="s">
-        <v>162</v>
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A55">
-        <f t="shared" ref="A55:B55" si="15">A50 + 10</f>
-        <v>546</v>
+        <f t="shared" si="17"/>
+        <v>446</v>
       </c>
       <c r="B55">
-        <f t="shared" si="15"/>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3577,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3586,35 +3938,35 @@
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
-      </c>
-      <c r="L55" t="s">
-        <v>162</v>
-      </c>
-      <c r="M55" t="s">
-        <v>162</v>
-      </c>
-      <c r="N55" t="s">
-        <v>162</v>
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A56">
-        <f>A51</f>
-        <v>366</v>
+        <f t="shared" si="17"/>
+        <v>491</v>
       </c>
       <c r="B56">
-        <f>B51</f>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3623,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3632,35 +3984,35 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
-      </c>
-      <c r="L56" t="s">
-        <v>163</v>
-      </c>
-      <c r="M56" t="s">
-        <v>163</v>
-      </c>
-      <c r="N56" t="s">
-        <v>163</v>
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A57">
-        <f t="shared" ref="A57:B57" si="16">A52</f>
-        <v>411</v>
+        <f t="shared" si="17"/>
+        <v>536</v>
       </c>
       <c r="B57">
-        <f t="shared" si="16"/>
-        <v>420</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3669,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3678,31 +4030,31 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
-      </c>
-      <c r="L57" t="s">
-        <v>163</v>
-      </c>
-      <c r="M57" t="s">
-        <v>163</v>
-      </c>
-      <c r="N57" t="s">
-        <v>163</v>
+        <v>100</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A58">
-        <f t="shared" ref="A58:B58" si="17">A53</f>
-        <v>456</v>
+        <f>A53 + 10</f>
+        <v>366</v>
       </c>
       <c r="B58">
-        <f t="shared" si="17"/>
+        <f>B53 + 10</f>
         <v>420</v>
       </c>
       <c r="C58">
@@ -3715,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3730,22 +4082,22 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59">
-        <f t="shared" ref="A59:B59" si="18">A54</f>
-        <v>501</v>
+        <f t="shared" ref="A59:B59" si="18">A54 + 10</f>
+        <v>411</v>
       </c>
       <c r="B59">
         <f t="shared" si="18"/>
@@ -3761,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3776,22 +4128,22 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A60">
-        <f t="shared" ref="A60:B60" si="19">A55</f>
-        <v>546</v>
+        <f t="shared" ref="A60:B60" si="19">A55 + 10</f>
+        <v>456</v>
       </c>
       <c r="B60">
         <f t="shared" si="19"/>
@@ -3807,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3822,22 +4174,22 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L60" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M60" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N60" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A61">
-        <f t="shared" ref="A61:B61" si="20">A56</f>
-        <v>366</v>
+        <f t="shared" ref="A61:B61" si="20">A56 + 10</f>
+        <v>501</v>
       </c>
       <c r="B61">
         <f t="shared" si="20"/>
@@ -3853,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3868,22 +4220,22 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A62">
-        <f t="shared" ref="A62:B62" si="21">A57</f>
-        <v>411</v>
+        <f t="shared" ref="A62:B62" si="21">A57 + 10</f>
+        <v>546</v>
       </c>
       <c r="B62">
         <f t="shared" si="21"/>
@@ -3899,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3914,1775 +4266,1777 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L62" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M62" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N62" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A63">
-        <f t="shared" ref="A63:B63" si="22">A58</f>
-        <v>456</v>
+        <f>A58</f>
+        <v>366</v>
       </c>
       <c r="B63">
+        <f>B58</f>
+        <v>420</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M63" t="s">
+        <v>159</v>
+      </c>
+      <c r="N63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A64">
+        <f t="shared" ref="A64:B64" si="22">A59</f>
+        <v>411</v>
+      </c>
+      <c r="B64">
         <f t="shared" si="22"/>
         <v>420</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>164</v>
-      </c>
-      <c r="L63" t="s">
-        <v>164</v>
-      </c>
-      <c r="M63" t="s">
-        <v>164</v>
-      </c>
-      <c r="N63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A64">
-        <f t="shared" ref="A64:B64" si="23">A59</f>
-        <v>501</v>
-      </c>
-      <c r="B64">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>159</v>
+      </c>
+      <c r="L64" t="s">
+        <v>159</v>
+      </c>
+      <c r="M64" t="s">
+        <v>159</v>
+      </c>
+      <c r="N64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A65">
+        <f t="shared" ref="A65:B65" si="23">A60</f>
+        <v>456</v>
+      </c>
+      <c r="B65">
         <f t="shared" si="23"/>
         <v>420</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>164</v>
-      </c>
-      <c r="L64" t="s">
-        <v>164</v>
-      </c>
-      <c r="M64" t="s">
-        <v>164</v>
-      </c>
-      <c r="N64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A65">
-        <f t="shared" ref="A65:B65" si="24">A60</f>
-        <v>546</v>
-      </c>
-      <c r="B65">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" t="s">
+        <v>159</v>
+      </c>
+      <c r="M65" t="s">
+        <v>159</v>
+      </c>
+      <c r="N65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A66">
+        <f t="shared" ref="A66:B66" si="24">A61</f>
+        <v>501</v>
+      </c>
+      <c r="B66">
         <f t="shared" si="24"/>
         <v>420</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65" t="s">
-        <v>164</v>
-      </c>
-      <c r="L65" t="s">
-        <v>164</v>
-      </c>
-      <c r="M65" t="s">
-        <v>164</v>
-      </c>
-      <c r="N65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A66">
-        <f t="shared" ref="A66:B66" si="25">A61</f>
-        <v>366</v>
-      </c>
-      <c r="B66">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" t="s">
+        <v>159</v>
+      </c>
+      <c r="M66" t="s">
+        <v>159</v>
+      </c>
+      <c r="N66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A67">
+        <f t="shared" ref="A67:B67" si="25">A62</f>
+        <v>546</v>
+      </c>
+      <c r="B67">
         <f t="shared" si="25"/>
         <v>420</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66" t="s">
-        <v>165</v>
-      </c>
-      <c r="L66" t="s">
-        <v>165</v>
-      </c>
-      <c r="M66" t="s">
-        <v>165</v>
-      </c>
-      <c r="N66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A67">
-        <f t="shared" ref="A67:B67" si="26">A62</f>
-        <v>411</v>
-      </c>
-      <c r="B67">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" t="s">
+        <v>159</v>
+      </c>
+      <c r="M67" t="s">
+        <v>159</v>
+      </c>
+      <c r="N67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A68">
+        <f t="shared" ref="A68:B68" si="26">A63</f>
+        <v>366</v>
+      </c>
+      <c r="B68">
         <f t="shared" si="26"/>
         <v>420</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>165</v>
-      </c>
-      <c r="L67" t="s">
-        <v>165</v>
-      </c>
-      <c r="M67" t="s">
-        <v>165</v>
-      </c>
-      <c r="N67" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A68">
-        <f t="shared" ref="A68:B68" si="27">A63</f>
-        <v>456</v>
-      </c>
-      <c r="B68">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>160</v>
+      </c>
+      <c r="L68" t="s">
+        <v>160</v>
+      </c>
+      <c r="M68" t="s">
+        <v>160</v>
+      </c>
+      <c r="N68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A69">
+        <f t="shared" ref="A69:B69" si="27">A64</f>
+        <v>411</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="27"/>
         <v>420</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>125</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>165</v>
-      </c>
-      <c r="L68" t="s">
-        <v>165</v>
-      </c>
-      <c r="M68" t="s">
-        <v>165</v>
-      </c>
-      <c r="N68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A69">
-        <f t="shared" ref="A69:B69" si="28">A64</f>
-        <v>501</v>
-      </c>
-      <c r="B69">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" t="s">
+        <v>160</v>
+      </c>
+      <c r="M69" t="s">
+        <v>160</v>
+      </c>
+      <c r="N69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A70">
+        <f t="shared" ref="A70:B70" si="28">A65</f>
+        <v>456</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="28"/>
         <v>420</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>126</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>165</v>
-      </c>
-      <c r="L69" t="s">
-        <v>165</v>
-      </c>
-      <c r="M69" t="s">
-        <v>165</v>
-      </c>
-      <c r="N69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A70">
-        <f t="shared" ref="A70:B70" si="29">A65</f>
-        <v>546</v>
-      </c>
-      <c r="B70">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>160</v>
+      </c>
+      <c r="L70" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" t="s">
+        <v>160</v>
+      </c>
+      <c r="N70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A71">
+        <f t="shared" ref="A71:B71" si="29">A66</f>
+        <v>501</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="29"/>
         <v>420</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>165</v>
-      </c>
-      <c r="L70" t="s">
-        <v>165</v>
-      </c>
-      <c r="M70" t="s">
-        <v>165</v>
-      </c>
-      <c r="N70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A71">
-        <f t="shared" ref="A71:B71" si="30">A66</f>
-        <v>366</v>
-      </c>
-      <c r="B71">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>160</v>
+      </c>
+      <c r="L71" t="s">
+        <v>160</v>
+      </c>
+      <c r="M71" t="s">
+        <v>160</v>
+      </c>
+      <c r="N71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A72">
+        <f t="shared" ref="A72:B72" si="30">A67</f>
+        <v>546</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="30"/>
         <v>420</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>166</v>
-      </c>
-      <c r="L71" t="s">
-        <v>166</v>
-      </c>
-      <c r="M71" t="s">
-        <v>166</v>
-      </c>
-      <c r="N71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A72">
-        <f t="shared" ref="A72:B72" si="31">A67</f>
-        <v>411</v>
-      </c>
-      <c r="B72">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>160</v>
+      </c>
+      <c r="L72" t="s">
+        <v>160</v>
+      </c>
+      <c r="M72" t="s">
+        <v>160</v>
+      </c>
+      <c r="N72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A73">
+        <f t="shared" ref="A73:B73" si="31">A68</f>
+        <v>366</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="31"/>
         <v>420</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>128</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>166</v>
-      </c>
-      <c r="L72" t="s">
-        <v>166</v>
-      </c>
-      <c r="M72" t="s">
-        <v>166</v>
-      </c>
-      <c r="N72" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A73">
-        <f t="shared" ref="A73:B73" si="32">A68</f>
-        <v>456</v>
-      </c>
-      <c r="B73">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>161</v>
+      </c>
+      <c r="L73" t="s">
+        <v>161</v>
+      </c>
+      <c r="M73" t="s">
+        <v>161</v>
+      </c>
+      <c r="N73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A74">
+        <f t="shared" ref="A74:B74" si="32">A69</f>
+        <v>411</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="32"/>
         <v>420</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>129</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>166</v>
-      </c>
-      <c r="L73" t="s">
-        <v>166</v>
-      </c>
-      <c r="M73" t="s">
-        <v>166</v>
-      </c>
-      <c r="N73" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A74">
-        <f t="shared" ref="A74:B74" si="33">A69</f>
-        <v>501</v>
-      </c>
-      <c r="B74">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>161</v>
+      </c>
+      <c r="L74" t="s">
+        <v>161</v>
+      </c>
+      <c r="M74" t="s">
+        <v>161</v>
+      </c>
+      <c r="N74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A75">
+        <f t="shared" ref="A75:B75" si="33">A70</f>
+        <v>456</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="33"/>
         <v>420</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>130</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>166</v>
-      </c>
-      <c r="L74" t="s">
-        <v>166</v>
-      </c>
-      <c r="M74" t="s">
-        <v>166</v>
-      </c>
-      <c r="N74" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A75">
-        <f t="shared" ref="A75:B75" si="34">A70</f>
-        <v>546</v>
-      </c>
-      <c r="B75">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>161</v>
+      </c>
+      <c r="L75" t="s">
+        <v>161</v>
+      </c>
+      <c r="M75" t="s">
+        <v>161</v>
+      </c>
+      <c r="N75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A76">
+        <f t="shared" ref="A76:B76" si="34">A71</f>
+        <v>501</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="34"/>
         <v>420</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>166</v>
-      </c>
-      <c r="L75" t="s">
-        <v>166</v>
-      </c>
-      <c r="M75" t="s">
-        <v>166</v>
-      </c>
-      <c r="N75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A76">
-        <f t="shared" ref="A76:B76" si="35">A71</f>
-        <v>366</v>
-      </c>
-      <c r="B76">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>161</v>
+      </c>
+      <c r="L76" t="s">
+        <v>161</v>
+      </c>
+      <c r="M76" t="s">
+        <v>161</v>
+      </c>
+      <c r="N76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A77">
+        <f t="shared" ref="A77:B77" si="35">A72</f>
+        <v>546</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="35"/>
         <v>420</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>167</v>
-      </c>
-      <c r="L76" t="s">
-        <v>167</v>
-      </c>
-      <c r="M76" t="s">
-        <v>167</v>
-      </c>
-      <c r="N76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A77">
-        <f t="shared" ref="A77:B77" si="36">A72</f>
-        <v>411</v>
-      </c>
-      <c r="B77">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>117</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L77" t="s">
+        <v>161</v>
+      </c>
+      <c r="M77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A78">
+        <f t="shared" ref="A78:B78" si="36">A73</f>
+        <v>366</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="36"/>
         <v>420</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>167</v>
-      </c>
-      <c r="L77" t="s">
-        <v>167</v>
-      </c>
-      <c r="M77" t="s">
-        <v>167</v>
-      </c>
-      <c r="N77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A78">
-        <f t="shared" ref="A78:B78" si="37">A73</f>
-        <v>456</v>
-      </c>
-      <c r="B78">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>162</v>
+      </c>
+      <c r="L78" t="s">
+        <v>162</v>
+      </c>
+      <c r="M78" t="s">
+        <v>162</v>
+      </c>
+      <c r="N78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A79">
+        <f t="shared" ref="A79:B79" si="37">A74</f>
+        <v>411</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="37"/>
         <v>420</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>134</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>167</v>
-      </c>
-      <c r="L78" t="s">
-        <v>167</v>
-      </c>
-      <c r="M78" t="s">
-        <v>167</v>
-      </c>
-      <c r="N78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A79">
-        <f t="shared" ref="A79:B79" si="38">A74</f>
-        <v>501</v>
-      </c>
-      <c r="B79">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>162</v>
+      </c>
+      <c r="L79" t="s">
+        <v>162</v>
+      </c>
+      <c r="M79" t="s">
+        <v>162</v>
+      </c>
+      <c r="N79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A80">
+        <f t="shared" ref="A80:B80" si="38">A75</f>
+        <v>456</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="38"/>
         <v>420</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>135</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>167</v>
-      </c>
-      <c r="L79" t="s">
-        <v>167</v>
-      </c>
-      <c r="M79" t="s">
-        <v>167</v>
-      </c>
-      <c r="N79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A80">
-        <f t="shared" ref="A80:B80" si="39">A75</f>
-        <v>546</v>
-      </c>
-      <c r="B80">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>162</v>
+      </c>
+      <c r="L80" t="s">
+        <v>162</v>
+      </c>
+      <c r="M80" t="s">
+        <v>162</v>
+      </c>
+      <c r="N80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A81">
+        <f t="shared" ref="A81:B81" si="39">A76</f>
+        <v>501</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="39"/>
         <v>420</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" s="1">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>167</v>
-      </c>
-      <c r="L80" t="s">
-        <v>167</v>
-      </c>
-      <c r="M80" t="s">
-        <v>167</v>
-      </c>
-      <c r="N80" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A81">
-        <f t="shared" ref="A81:B81" si="40">A76</f>
-        <v>366</v>
-      </c>
-      <c r="B81">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>162</v>
+      </c>
+      <c r="L81" t="s">
+        <v>162</v>
+      </c>
+      <c r="M81" t="s">
+        <v>162</v>
+      </c>
+      <c r="N81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A82">
+        <f t="shared" ref="A82:B82" si="40">A77</f>
+        <v>546</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="40"/>
         <v>420</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>168</v>
-      </c>
-      <c r="L81" t="s">
-        <v>168</v>
-      </c>
-      <c r="M81" t="s">
-        <v>168</v>
-      </c>
-      <c r="N81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A82">
-        <f t="shared" ref="A82:B82" si="41">A77</f>
-        <v>411</v>
-      </c>
-      <c r="B82">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>162</v>
+      </c>
+      <c r="L82" t="s">
+        <v>162</v>
+      </c>
+      <c r="M82" t="s">
+        <v>162</v>
+      </c>
+      <c r="N82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A83">
+        <f t="shared" ref="A83:B83" si="41">A78</f>
+        <v>366</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="41"/>
         <v>420</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>138</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>168</v>
-      </c>
-      <c r="L82" t="s">
-        <v>168</v>
-      </c>
-      <c r="M82" t="s">
-        <v>168</v>
-      </c>
-      <c r="N82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A83">
-        <f t="shared" ref="A83:B83" si="42">A78</f>
-        <v>456</v>
-      </c>
-      <c r="B83">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>163</v>
+      </c>
+      <c r="L83" t="s">
+        <v>163</v>
+      </c>
+      <c r="M83" t="s">
+        <v>163</v>
+      </c>
+      <c r="N83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A84">
+        <f t="shared" ref="A84:B84" si="42">A79</f>
+        <v>411</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="42"/>
         <v>420</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
-        <v>139</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>168</v>
-      </c>
-      <c r="L83" t="s">
-        <v>168</v>
-      </c>
-      <c r="M83" t="s">
-        <v>168</v>
-      </c>
-      <c r="N83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A84">
-        <f t="shared" ref="A84:B84" si="43">A79</f>
-        <v>501</v>
-      </c>
-      <c r="B84">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>163</v>
+      </c>
+      <c r="L84" t="s">
+        <v>163</v>
+      </c>
+      <c r="M84" t="s">
+        <v>163</v>
+      </c>
+      <c r="N84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A85">
+        <f t="shared" ref="A85:B85" si="43">A80</f>
+        <v>456</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="43"/>
         <v>420</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>140</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="1">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>168</v>
-      </c>
-      <c r="L84" t="s">
-        <v>168</v>
-      </c>
-      <c r="M84" t="s">
-        <v>168</v>
-      </c>
-      <c r="N84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A85">
-        <f t="shared" ref="A85:B85" si="44">A80</f>
-        <v>546</v>
-      </c>
-      <c r="B85">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>130</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L85" t="s">
+        <v>163</v>
+      </c>
+      <c r="M85" t="s">
+        <v>163</v>
+      </c>
+      <c r="N85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A86">
+        <f t="shared" ref="A86:B86" si="44">A81</f>
+        <v>501</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="44"/>
         <v>420</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>168</v>
-      </c>
-      <c r="L85" t="s">
-        <v>168</v>
-      </c>
-      <c r="M85" t="s">
-        <v>168</v>
-      </c>
-      <c r="N85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A86">
-        <f t="shared" ref="A86:B86" si="45">A81</f>
-        <v>366</v>
-      </c>
-      <c r="B86">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>163</v>
+      </c>
+      <c r="L86" t="s">
+        <v>163</v>
+      </c>
+      <c r="M86" t="s">
+        <v>163</v>
+      </c>
+      <c r="N86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A87">
+        <f t="shared" ref="A87:B87" si="45">A82</f>
+        <v>546</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>142</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>169</v>
-      </c>
-      <c r="L86" t="s">
-        <v>169</v>
-      </c>
-      <c r="M86" t="s">
-        <v>169</v>
-      </c>
-      <c r="N86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A87">
-        <f t="shared" ref="A87:B87" si="46">A82</f>
-        <v>411</v>
-      </c>
-      <c r="B87">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>163</v>
+      </c>
+      <c r="L87" t="s">
+        <v>163</v>
+      </c>
+      <c r="M87" t="s">
+        <v>163</v>
+      </c>
+      <c r="N87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A88">
+        <f t="shared" ref="A88:B88" si="46">A83</f>
+        <v>366</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="46"/>
         <v>420</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>143</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>169</v>
-      </c>
-      <c r="L87" t="s">
-        <v>169</v>
-      </c>
-      <c r="M87" t="s">
-        <v>169</v>
-      </c>
-      <c r="N87" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A88">
-        <f t="shared" ref="A88:B88" si="47">A83</f>
-        <v>456</v>
-      </c>
-      <c r="B88">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>164</v>
+      </c>
+      <c r="L88" t="s">
+        <v>164</v>
+      </c>
+      <c r="M88" t="s">
+        <v>164</v>
+      </c>
+      <c r="N88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A89">
+        <f t="shared" ref="A89:B89" si="47">A84</f>
+        <v>411</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="47"/>
         <v>420</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>144</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>169</v>
-      </c>
-      <c r="L88" t="s">
-        <v>169</v>
-      </c>
-      <c r="M88" t="s">
-        <v>169</v>
-      </c>
-      <c r="N88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A89">
-        <f t="shared" ref="A89:B89" si="48">A84</f>
-        <v>501</v>
-      </c>
-      <c r="B89">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>164</v>
+      </c>
+      <c r="L89" t="s">
+        <v>164</v>
+      </c>
+      <c r="M89" t="s">
+        <v>164</v>
+      </c>
+      <c r="N89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A90">
+        <f t="shared" ref="A90:B90" si="48">A85</f>
+        <v>456</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="48"/>
         <v>420</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>145</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>169</v>
-      </c>
-      <c r="L89" t="s">
-        <v>169</v>
-      </c>
-      <c r="M89" t="s">
-        <v>169</v>
-      </c>
-      <c r="N89" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A90">
-        <f t="shared" ref="A90:B90" si="49">A85</f>
-        <v>546</v>
-      </c>
-      <c r="B90">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>164</v>
+      </c>
+      <c r="L90" t="s">
+        <v>164</v>
+      </c>
+      <c r="M90" t="s">
+        <v>164</v>
+      </c>
+      <c r="N90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A91">
+        <f t="shared" ref="A91:B91" si="49">A86</f>
+        <v>501</v>
+      </c>
+      <c r="B91">
         <f t="shared" si="49"/>
         <v>420</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>146</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>169</v>
-      </c>
-      <c r="L90" t="s">
-        <v>169</v>
-      </c>
-      <c r="M90" t="s">
-        <v>169</v>
-      </c>
-      <c r="N90" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A91">
-        <f t="shared" ref="A91:B91" si="50">A86</f>
-        <v>366</v>
-      </c>
-      <c r="B91">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>164</v>
+      </c>
+      <c r="L91" t="s">
+        <v>164</v>
+      </c>
+      <c r="M91" t="s">
+        <v>164</v>
+      </c>
+      <c r="N91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A92">
+        <f t="shared" ref="A92:B92" si="50">A87</f>
+        <v>546</v>
+      </c>
+      <c r="B92">
         <f t="shared" si="50"/>
         <v>420</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>147</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>170</v>
-      </c>
-      <c r="L91" t="s">
-        <v>170</v>
-      </c>
-      <c r="M91" t="s">
-        <v>170</v>
-      </c>
-      <c r="N91" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A92">
-        <f t="shared" ref="A92:B92" si="51">A87</f>
-        <v>411</v>
-      </c>
-      <c r="B92">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>164</v>
+      </c>
+      <c r="L92" t="s">
+        <v>164</v>
+      </c>
+      <c r="M92" t="s">
+        <v>164</v>
+      </c>
+      <c r="N92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A93">
+        <f t="shared" ref="A93:B93" si="51">A88</f>
+        <v>366</v>
+      </c>
+      <c r="B93">
         <f t="shared" si="51"/>
         <v>420</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>148</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>170</v>
-      </c>
-      <c r="L92" t="s">
-        <v>170</v>
-      </c>
-      <c r="M92" t="s">
-        <v>170</v>
-      </c>
-      <c r="N92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A93">
-        <f t="shared" ref="A93:B93" si="52">A88</f>
-        <v>456</v>
-      </c>
-      <c r="B93">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>165</v>
+      </c>
+      <c r="L93" t="s">
+        <v>165</v>
+      </c>
+      <c r="M93" t="s">
+        <v>165</v>
+      </c>
+      <c r="N93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A94">
+        <f t="shared" ref="A94:B94" si="52">A89</f>
+        <v>411</v>
+      </c>
+      <c r="B94">
         <f t="shared" si="52"/>
         <v>420</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>170</v>
-      </c>
-      <c r="L93" t="s">
-        <v>170</v>
-      </c>
-      <c r="M93" t="s">
-        <v>170</v>
-      </c>
-      <c r="N93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A94">
-        <f t="shared" ref="A94:B94" si="53">A89</f>
-        <v>501</v>
-      </c>
-      <c r="B94">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>165</v>
+      </c>
+      <c r="L94" t="s">
+        <v>165</v>
+      </c>
+      <c r="M94" t="s">
+        <v>165</v>
+      </c>
+      <c r="N94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A95">
+        <f t="shared" ref="A95:B95" si="53">A90</f>
+        <v>456</v>
+      </c>
+      <c r="B95">
         <f t="shared" si="53"/>
         <v>420</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>170</v>
-      </c>
-      <c r="L94" t="s">
-        <v>170</v>
-      </c>
-      <c r="M94" t="s">
-        <v>170</v>
-      </c>
-      <c r="N94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A95">
-        <f t="shared" ref="A95:B95" si="54">A90</f>
-        <v>546</v>
-      </c>
-      <c r="B95">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>165</v>
+      </c>
+      <c r="L95" t="s">
+        <v>165</v>
+      </c>
+      <c r="M95" t="s">
+        <v>165</v>
+      </c>
+      <c r="N95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A96">
+        <f t="shared" ref="A96:B96" si="54">A91</f>
+        <v>501</v>
+      </c>
+      <c r="B96">
         <f t="shared" si="54"/>
         <v>420</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>170</v>
-      </c>
-      <c r="L95" t="s">
-        <v>170</v>
-      </c>
-      <c r="M95" t="s">
-        <v>170</v>
-      </c>
-      <c r="N95" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A96">
-        <f t="shared" ref="A96:B96" si="55">A91</f>
-        <v>366</v>
-      </c>
-      <c r="B96">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>165</v>
+      </c>
+      <c r="L96" t="s">
+        <v>165</v>
+      </c>
+      <c r="M96" t="s">
+        <v>165</v>
+      </c>
+      <c r="N96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A97">
+        <f t="shared" ref="A97:B97" si="55">A92</f>
+        <v>546</v>
+      </c>
+      <c r="B97">
         <f t="shared" si="55"/>
         <v>420</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="s">
-        <v>152</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>171</v>
-      </c>
-      <c r="L96" t="s">
-        <v>171</v>
-      </c>
-      <c r="M96" t="s">
-        <v>171</v>
-      </c>
-      <c r="N96" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A97">
-        <f t="shared" ref="A97:B97" si="56">A92</f>
-        <v>411</v>
-      </c>
-      <c r="B97">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>142</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>165</v>
+      </c>
+      <c r="L97" t="s">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s">
+        <v>165</v>
+      </c>
+      <c r="N97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A98">
+        <f t="shared" ref="A98:B98" si="56">A93</f>
+        <v>366</v>
+      </c>
+      <c r="B98">
         <f t="shared" si="56"/>
         <v>420</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>153</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97" t="s">
-        <v>171</v>
-      </c>
-      <c r="L97" t="s">
-        <v>171</v>
-      </c>
-      <c r="M97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N97" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A98">
-        <f t="shared" ref="A98:B98" si="57">A93</f>
-        <v>456</v>
-      </c>
-      <c r="B98">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>166</v>
+      </c>
+      <c r="L98" t="s">
+        <v>166</v>
+      </c>
+      <c r="M98" t="s">
+        <v>166</v>
+      </c>
+      <c r="N98" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A99">
+        <f t="shared" ref="A99:B99" si="57">A94</f>
+        <v>411</v>
+      </c>
+      <c r="B99">
         <f t="shared" si="57"/>
         <v>420</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>154</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98" t="s">
-        <v>171</v>
-      </c>
-      <c r="L98" t="s">
-        <v>171</v>
-      </c>
-      <c r="M98" t="s">
-        <v>171</v>
-      </c>
-      <c r="N98" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A99">
-        <f t="shared" ref="A99:B99" si="58">A94</f>
-        <v>501</v>
-      </c>
-      <c r="B99">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>166</v>
+      </c>
+      <c r="L99" t="s">
+        <v>166</v>
+      </c>
+      <c r="M99" t="s">
+        <v>166</v>
+      </c>
+      <c r="N99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A100">
+        <f t="shared" ref="A100:B100" si="58">A95</f>
+        <v>456</v>
+      </c>
+      <c r="B100">
         <f t="shared" si="58"/>
         <v>420</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>171</v>
-      </c>
-      <c r="L99" t="s">
-        <v>171</v>
-      </c>
-      <c r="M99" t="s">
-        <v>171</v>
-      </c>
-      <c r="N99" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A100">
-        <f t="shared" ref="A100:B100" si="59">A95</f>
-        <v>546</v>
-      </c>
-      <c r="B100">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>166</v>
+      </c>
+      <c r="L100" t="s">
+        <v>166</v>
+      </c>
+      <c r="M100" t="s">
+        <v>166</v>
+      </c>
+      <c r="N100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A101">
+        <f t="shared" ref="A101:B101" si="59">A96</f>
+        <v>501</v>
+      </c>
+      <c r="B101">
         <f t="shared" si="59"/>
         <v>420</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>156</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>171</v>
-      </c>
-      <c r="L100" t="s">
-        <v>171</v>
-      </c>
-      <c r="M100" t="s">
-        <v>171</v>
-      </c>
-      <c r="N100" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A101">
-        <v>-200</v>
-      </c>
-      <c r="B101">
-        <v>-200</v>
-      </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5691,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5703,32 +6057,32 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="M101" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="N101" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A102">
-        <f>A35+302</f>
-        <v>602</v>
+        <f t="shared" ref="A102:B102" si="60">A97</f>
+        <v>546</v>
       </c>
       <c r="B102">
-        <f>B35-1</f>
-        <v>435</v>
+        <f t="shared" si="60"/>
+        <v>420</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5737,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5749,32 +6103,32 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="L102" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="M102" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="N102" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A103">
-        <f>A102</f>
-        <v>602</v>
+        <f t="shared" ref="A103:B103" si="61">A98</f>
+        <v>366</v>
       </c>
       <c r="B103">
-        <f>B102</f>
-        <v>435</v>
+        <f t="shared" si="61"/>
+        <v>420</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5783,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5792,42 +6146,44 @@
         <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>94</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="L103" t="s">
+        <v>167</v>
+      </c>
+      <c r="M103" t="s">
+        <v>167</v>
+      </c>
+      <c r="N103" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A104">
-        <v>5</v>
+        <f t="shared" ref="A104:B104" si="62">A99</f>
+        <v>411</v>
       </c>
       <c r="B104">
-        <v>370</v>
+        <f t="shared" si="62"/>
+        <v>420</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -5839,30 +6195,32 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="L104" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="M104" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="N104" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A105">
-        <v>5</v>
+        <f t="shared" ref="A105:B105" si="63">A100</f>
+        <v>456</v>
       </c>
       <c r="B105">
-        <v>370</v>
+        <f t="shared" si="63"/>
+        <v>420</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5871,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5880,35 +6238,35 @@
         <v>0</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>76</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="L105" t="s">
+        <v>167</v>
+      </c>
+      <c r="M105" t="s">
+        <v>167</v>
+      </c>
+      <c r="N105" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A106">
-        <f>A105+85</f>
-        <v>90</v>
+        <f t="shared" ref="A106:B106" si="64">A101</f>
+        <v>501</v>
       </c>
       <c r="B106">
-        <f>B105+50</f>
+        <f t="shared" si="64"/>
         <v>420</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5917,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5926,35 +6284,35 @@
         <v>0</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>98</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="L106" t="s">
+        <v>167</v>
+      </c>
+      <c r="M106" t="s">
+        <v>167</v>
+      </c>
+      <c r="N106" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A107">
-        <f>A105+111</f>
-        <v>116</v>
+        <f t="shared" ref="A107:B107" si="65">A102</f>
+        <v>546</v>
       </c>
       <c r="B107">
-        <f>B106+3</f>
-        <v>423</v>
+        <f t="shared" si="65"/>
+        <v>420</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5963,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5972,32 +6330,30 @@
         <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>84</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="L107" t="s">
+        <v>167</v>
+      </c>
+      <c r="M107" t="s">
+        <v>167</v>
+      </c>
+      <c r="N107" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A108">
-        <f>A107</f>
-        <v>116</v>
+        <v>-200</v>
       </c>
       <c r="B108">
-        <f>B107</f>
-        <v>423</v>
+        <v>-200</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6006,10 +6362,10 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -6018,31 +6374,31 @@
         <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s">
         <v>85</v>
       </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
+      <c r="L108" t="s">
+        <v>85</v>
+      </c>
+      <c r="M108" t="s">
+        <v>85</v>
+      </c>
+      <c r="N108" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A109">
-        <f>A108-6</f>
-        <v>110</v>
+        <f>A42+302</f>
+        <v>602</v>
       </c>
       <c r="B109">
-        <f>B108+12</f>
+        <f>B42-1</f>
         <v>435</v>
       </c>
       <c r="C109">
@@ -6055,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6064,28 +6420,28 @@
         <v>0</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K109" t="s">
-        <v>78</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="L109" t="s">
+        <v>92</v>
+      </c>
+      <c r="M109" t="s">
+        <v>92</v>
+      </c>
+      <c r="N109" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A110">
-        <f t="shared" ref="A110" si="60">A109</f>
-        <v>110</v>
+        <f>A109</f>
+        <v>602</v>
       </c>
       <c r="B110">
         <f>B109</f>
@@ -6098,10 +6454,10 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -6113,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -6130,48 +6486,734 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A111">
-        <f>A106+3</f>
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>370</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>73</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>106</v>
+      </c>
+      <c r="K111" t="s">
+        <v>70</v>
+      </c>
+      <c r="L111" t="s">
+        <v>71</v>
+      </c>
+      <c r="M111" t="s">
+        <v>71</v>
+      </c>
+      <c r="N111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>370</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>72</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A113">
+        <f>A112+85</f>
+        <v>90</v>
+      </c>
+      <c r="B113">
+        <f>B112+50</f>
+        <v>420</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>99</v>
+      </c>
+      <c r="K113" t="s">
+        <v>94</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A114">
+        <f>A112+111</f>
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <f>B113+3</f>
+        <v>423</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>82</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>80</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A115">
+        <f>A114</f>
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <f>B114</f>
+        <v>423</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>81</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A116">
+        <f>A115-6</f>
+        <v>110</v>
+      </c>
+      <c r="B116">
+        <f>B115+12</f>
+        <v>435</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>74</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A117">
+        <f t="shared" ref="A117" si="66">A116</f>
+        <v>110</v>
+      </c>
+      <c r="B117">
+        <f>B116</f>
+        <v>435</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>77</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>78</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A118">
+        <f>A113+3</f>
         <v>93</v>
       </c>
-      <c r="B111">
-        <f>B106+33</f>
+      <c r="B118">
+        <f>B113+33</f>
         <v>453</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>101</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1">
-        <v>1</v>
-      </c>
-      <c r="J111">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118">
         <v>99</v>
       </c>
-      <c r="K111" t="s">
-        <v>89</v>
-      </c>
-      <c r="L111" t="s">
-        <v>102</v>
-      </c>
-      <c r="M111" t="s">
-        <v>103</v>
-      </c>
-      <c r="N111" t="s">
-        <v>100</v>
+      <c r="K118" t="s">
+        <v>85</v>
+      </c>
+      <c r="L118" t="s">
+        <v>98</v>
+      </c>
+      <c r="M118" t="s">
+        <v>99</v>
+      </c>
+      <c r="N118" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A119">
+        <f>A111-25</f>
+        <v>-20</v>
+      </c>
+      <c r="B119">
+        <f>B111-180</f>
+        <v>190</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A120">
+        <f>A119</f>
+        <v>-20</v>
+      </c>
+      <c r="B120">
+        <f>B119</f>
+        <v>190</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>199</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A121">
+        <f t="shared" ref="A121:A123" si="67">A120</f>
+        <v>-20</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ref="B121:B123" si="68">B120+30</f>
+        <v>220</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>198</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A122">
+        <f t="shared" si="67"/>
+        <v>-20</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="68"/>
+        <v>250</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>200</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>208</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A123">
+        <f t="shared" si="67"/>
+        <v>-20</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="68"/>
+        <v>280</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>201</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>209</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A124">
+        <f>A112</f>
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <f>B112 - 200</f>
+        <v>170</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>120</v>
+      </c>
+      <c r="K124" t="s">
+        <v>173</v>
+      </c>
+      <c r="L124" t="s">
+        <v>210</v>
+      </c>
+      <c r="M124" t="s">
+        <v>210</v>
+      </c>
+      <c r="N124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A125">
+        <f>A124</f>
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <f>B124+30</f>
+        <v>200</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>203</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>121</v>
+      </c>
+      <c r="K125" t="s">
+        <v>174</v>
+      </c>
+      <c r="L125" t="s">
+        <v>211</v>
+      </c>
+      <c r="M125" t="s">
+        <v>211</v>
+      </c>
+      <c r="N125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A126">
+        <f>A125</f>
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <f>B125+30</f>
+        <v>230</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>204</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>122</v>
+      </c>
+      <c r="K126" t="s">
+        <v>175</v>
+      </c>
+      <c r="L126" t="s">
+        <v>212</v>
+      </c>
+      <c r="M126" t="s">
+        <v>212</v>
+      </c>
+      <c r="N126" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="UI_mainmenu" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1414,11 +1415,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,8 +1749,8 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1802,6 +1806,15 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3">
@@ -1862,11 +1875,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A4">
-        <v>385</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
+      <c r="A4" s="2">
+        <v>585</v>
+      </c>
+      <c r="B4" s="2">
+        <v>580</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2120,10 +2133,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13">
@@ -2164,11 +2177,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A14">
-        <v>-62</v>
-      </c>
-      <c r="B14">
-        <v>320</v>
+      <c r="A14" s="2">
+        <v>-110</v>
+      </c>
+      <c r="B14" s="2">
+        <v>579.20000000000005</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2208,11 +2221,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A15">
-        <v>385</v>
-      </c>
-      <c r="B15">
-        <v>400</v>
+      <c r="A15" s="2">
+        <v>585</v>
+      </c>
+      <c r="B15" s="2">
+        <v>580</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2252,11 +2265,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>380</v>
+      <c r="A16" s="2">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>620</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2296,11 +2309,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>380</v>
+      <c r="A17" s="2">
+        <f>A16+90</f>
+        <v>140</v>
+      </c>
+      <c r="B17" s="2">
+        <v>620</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2340,11 +2354,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A18">
-        <v>160</v>
-      </c>
-      <c r="B18">
-        <v>380</v>
+      <c r="A18" s="2">
+        <f>A17+90</f>
+        <v>230</v>
+      </c>
+      <c r="B18" s="2">
+        <v>620</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2384,12 +2399,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A19">
-        <f>A20-40</f>
-        <v>730</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="A19" s="2">
+        <f>A20-65</f>
+        <v>1145</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2429,12 +2444,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A20">
-        <f>A21-40</f>
-        <v>770</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="A20" s="2">
+        <f>A21-65</f>
+        <v>1210</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2474,12 +2489,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A21">
-        <f>A22-40</f>
-        <v>810</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="A21" s="2">
+        <f>A22-65</f>
+        <v>1275</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2519,12 +2534,12 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A22">
-        <f>A23-40</f>
-        <v>850</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="A22" s="2">
+        <f>A23-60</f>
+        <v>1340</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2564,11 +2579,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A23">
-        <v>890</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="A23" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2608,11 +2623,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A24">
-        <v>67</v>
-      </c>
-      <c r="B24">
-        <v>67</v>
+      <c r="A24" s="2">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>120</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2652,11 +2667,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>60</v>
+      <c r="A25" s="2">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2">
+        <v>120</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2696,13 +2711,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A26">
+      <c r="A26" s="2">
         <f>A25</f>
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <f>B25+46</f>
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25+70</f>
+        <v>190</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2743,13 +2758,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A27">
+      <c r="A27" s="2">
         <f t="shared" ref="A27:A28" si="6">A26</f>
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27:B28" si="7">B26+46</f>
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:B31" si="7">B26+70</f>
+        <v>260</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2790,13 +2805,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A28">
+      <c r="A28" s="2">
         <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2837,13 +2852,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A29">
+      <c r="A29" s="2">
         <f t="shared" ref="A29:A31" si="9">A28</f>
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29:B31" si="10">B28+46</f>
-        <v>244</v>
+        <v>70</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="7"/>
+        <v>400</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2884,13 +2899,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A30">
+      <c r="A30" s="2">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="10"/>
-        <v>290</v>
+        <v>70</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="7"/>
+        <v>470</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2931,13 +2946,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A31">
+      <c r="A31" s="2">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="10"/>
-        <v>336</v>
+        <v>70</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="7"/>
+        <v>540</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2978,12 +2993,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A32">
-        <v>260</v>
-      </c>
-      <c r="B32">
-        <f>B26 - 70</f>
-        <v>36</v>
+      <c r="A32" s="2">
+        <v>400</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B26 - 40</f>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3024,12 +3039,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A33">
-        <v>260</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33:B37" si="11">B27 - 70</f>
-        <v>82</v>
+      <c r="A33" s="2">
+        <f>A32</f>
+        <v>400</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:B37" si="10">B27 - 40</f>
+        <v>220</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3070,12 +3086,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A34">
-        <v>260</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="11"/>
-        <v>128</v>
+      <c r="A34" s="2">
+        <f t="shared" ref="A34:A37" si="11">A33</f>
+        <v>400</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="10"/>
+        <v>290</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3116,12 +3133,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A35">
-        <v>260</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="2">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>400</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="10"/>
+        <v>360</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3162,12 +3180,13 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A36">
-        <v>260</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="2">
         <f t="shared" si="11"/>
-        <v>220</v>
+        <v>400</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="10"/>
+        <v>430</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3208,12 +3227,13 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A37">
-        <v>260</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="2">
         <f t="shared" si="11"/>
-        <v>266</v>
+        <v>400</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="10"/>
+        <v>500</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3318,10 +3338,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B42">
-        <v>436</v>
+        <v>780</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3362,10 +3382,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="B43">
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3406,12 +3426,12 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <f>A43+45</f>
-        <v>401</v>
+        <f>A43+75</f>
+        <v>660</v>
       </c>
       <c r="B44">
         <f>B43</f>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3452,12 +3472,12 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f t="shared" ref="A45:A47" si="14">A44+45</f>
-        <v>446</v>
+        <f t="shared" ref="A45:A47" si="14">A44+75</f>
+        <v>735</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45:B52" si="15">B44</f>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3499,11 +3519,11 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
         <f t="shared" si="14"/>
-        <v>491</v>
+        <v>810</v>
       </c>
       <c r="B46">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3545,11 +3565,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A47">
         <f t="shared" si="14"/>
-        <v>536</v>
+        <v>885</v>
       </c>
       <c r="B47">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3591,11 +3611,11 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A48">
         <f>A43</f>
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="B48">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3637,11 +3657,11 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A49">
         <f t="shared" ref="A49:A52" si="16">A44</f>
-        <v>401</v>
+        <v>660</v>
       </c>
       <c r="B49">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3683,11 +3703,11 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A50">
         <f t="shared" si="16"/>
-        <v>446</v>
+        <v>735</v>
       </c>
       <c r="B50">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3729,11 +3749,11 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
         <f t="shared" si="16"/>
-        <v>491</v>
+        <v>810</v>
       </c>
       <c r="B51">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3775,11 +3795,11 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
         <f t="shared" si="16"/>
-        <v>536</v>
+        <v>885</v>
       </c>
       <c r="B52">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3821,11 +3841,11 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
         <f>A48</f>
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="B53">
         <f>B48</f>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3867,11 +3887,11 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A54">
         <f t="shared" ref="A54:B57" si="17">A49</f>
-        <v>401</v>
+        <v>660</v>
       </c>
       <c r="B54">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3913,11 +3933,11 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A55">
         <f t="shared" si="17"/>
-        <v>446</v>
+        <v>735</v>
       </c>
       <c r="B55">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3959,11 +3979,11 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A56">
         <f t="shared" si="17"/>
-        <v>491</v>
+        <v>810</v>
       </c>
       <c r="B56">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4005,11 +4025,11 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A57">
         <f t="shared" si="17"/>
-        <v>536</v>
+        <v>885</v>
       </c>
       <c r="B57">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4050,12 +4070,12 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A58">
-        <f>A53 + 10</f>
-        <v>366</v>
+        <f>A53 + 15</f>
+        <v>600</v>
       </c>
       <c r="B58">
-        <f>B53 + 10</f>
-        <v>420</v>
+        <f>B53 + 20</f>
+        <v>760</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4096,12 +4116,12 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59">
-        <f t="shared" ref="A59:B59" si="18">A54 + 10</f>
-        <v>411</v>
+        <f t="shared" ref="A59:A62" si="18">A54 + 15</f>
+        <v>675</v>
       </c>
       <c r="B59">
-        <f t="shared" si="18"/>
-        <v>420</v>
+        <f t="shared" ref="B59:B62" si="19">B54 + 20</f>
+        <v>760</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4142,12 +4162,12 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A60">
-        <f t="shared" ref="A60:B60" si="19">A55 + 10</f>
-        <v>456</v>
+        <f t="shared" si="18"/>
+        <v>750</v>
       </c>
       <c r="B60">
         <f t="shared" si="19"/>
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4188,12 +4208,12 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A61">
-        <f t="shared" ref="A61:B61" si="20">A56 + 10</f>
-        <v>501</v>
+        <f t="shared" si="18"/>
+        <v>825</v>
       </c>
       <c r="B61">
-        <f t="shared" si="20"/>
-        <v>420</v>
+        <f t="shared" si="19"/>
+        <v>760</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4234,12 +4254,12 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A62">
-        <f t="shared" ref="A62:B62" si="21">A57 + 10</f>
-        <v>546</v>
+        <f t="shared" si="18"/>
+        <v>900</v>
       </c>
       <c r="B62">
-        <f t="shared" si="21"/>
-        <v>420</v>
+        <f t="shared" si="19"/>
+        <v>760</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4281,11 +4301,11 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A63">
         <f>A58</f>
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="B63">
         <f>B58</f>
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4326,12 +4346,12 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A64">
-        <f t="shared" ref="A64:B64" si="22">A59</f>
-        <v>411</v>
+        <f t="shared" ref="A64:B64" si="20">A59</f>
+        <v>675</v>
       </c>
       <c r="B64">
-        <f t="shared" si="22"/>
-        <v>420</v>
+        <f t="shared" si="20"/>
+        <v>760</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4372,12 +4392,12 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A65">
-        <f t="shared" ref="A65:B65" si="23">A60</f>
-        <v>456</v>
+        <f t="shared" ref="A65:B65" si="21">A60</f>
+        <v>750</v>
       </c>
       <c r="B65">
-        <f t="shared" si="23"/>
-        <v>420</v>
+        <f t="shared" si="21"/>
+        <v>760</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4418,12 +4438,12 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A66">
-        <f t="shared" ref="A66:B66" si="24">A61</f>
-        <v>501</v>
+        <f t="shared" ref="A66:B66" si="22">A61</f>
+        <v>825</v>
       </c>
       <c r="B66">
-        <f t="shared" si="24"/>
-        <v>420</v>
+        <f t="shared" si="22"/>
+        <v>760</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4464,12 +4484,12 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A67">
-        <f t="shared" ref="A67:B67" si="25">A62</f>
-        <v>546</v>
+        <f t="shared" ref="A67:B67" si="23">A62</f>
+        <v>900</v>
       </c>
       <c r="B67">
-        <f t="shared" si="25"/>
-        <v>420</v>
+        <f t="shared" si="23"/>
+        <v>760</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4510,12 +4530,12 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A68">
-        <f t="shared" ref="A68:B68" si="26">A63</f>
-        <v>366</v>
+        <f t="shared" ref="A68:B68" si="24">A63</f>
+        <v>600</v>
       </c>
       <c r="B68">
-        <f t="shared" si="26"/>
-        <v>420</v>
+        <f t="shared" si="24"/>
+        <v>760</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4556,12 +4576,12 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A69">
-        <f t="shared" ref="A69:B69" si="27">A64</f>
-        <v>411</v>
+        <f t="shared" ref="A69:B69" si="25">A64</f>
+        <v>675</v>
       </c>
       <c r="B69">
-        <f t="shared" si="27"/>
-        <v>420</v>
+        <f t="shared" si="25"/>
+        <v>760</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4602,12 +4622,12 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A70">
-        <f t="shared" ref="A70:B70" si="28">A65</f>
-        <v>456</v>
+        <f t="shared" ref="A70:B70" si="26">A65</f>
+        <v>750</v>
       </c>
       <c r="B70">
-        <f t="shared" si="28"/>
-        <v>420</v>
+        <f t="shared" si="26"/>
+        <v>760</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4648,12 +4668,12 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A71">
-        <f t="shared" ref="A71:B71" si="29">A66</f>
-        <v>501</v>
+        <f t="shared" ref="A71:B71" si="27">A66</f>
+        <v>825</v>
       </c>
       <c r="B71">
-        <f t="shared" si="29"/>
-        <v>420</v>
+        <f t="shared" si="27"/>
+        <v>760</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4694,12 +4714,12 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A72">
-        <f t="shared" ref="A72:B72" si="30">A67</f>
-        <v>546</v>
+        <f t="shared" ref="A72:B72" si="28">A67</f>
+        <v>900</v>
       </c>
       <c r="B72">
-        <f t="shared" si="30"/>
-        <v>420</v>
+        <f t="shared" si="28"/>
+        <v>760</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4740,12 +4760,12 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A73">
-        <f t="shared" ref="A73:B73" si="31">A68</f>
-        <v>366</v>
+        <f t="shared" ref="A73:B73" si="29">A68</f>
+        <v>600</v>
       </c>
       <c r="B73">
-        <f t="shared" si="31"/>
-        <v>420</v>
+        <f t="shared" si="29"/>
+        <v>760</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4786,12 +4806,12 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A74">
-        <f t="shared" ref="A74:B74" si="32">A69</f>
-        <v>411</v>
+        <f t="shared" ref="A74:B74" si="30">A69</f>
+        <v>675</v>
       </c>
       <c r="B74">
-        <f t="shared" si="32"/>
-        <v>420</v>
+        <f t="shared" si="30"/>
+        <v>760</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4832,12 +4852,12 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A75">
-        <f t="shared" ref="A75:B75" si="33">A70</f>
-        <v>456</v>
+        <f t="shared" ref="A75:B75" si="31">A70</f>
+        <v>750</v>
       </c>
       <c r="B75">
-        <f t="shared" si="33"/>
-        <v>420</v>
+        <f t="shared" si="31"/>
+        <v>760</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4878,12 +4898,12 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A76">
-        <f t="shared" ref="A76:B76" si="34">A71</f>
-        <v>501</v>
+        <f t="shared" ref="A76:B76" si="32">A71</f>
+        <v>825</v>
       </c>
       <c r="B76">
-        <f t="shared" si="34"/>
-        <v>420</v>
+        <f t="shared" si="32"/>
+        <v>760</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4924,12 +4944,12 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A77">
-        <f t="shared" ref="A77:B77" si="35">A72</f>
-        <v>546</v>
+        <f t="shared" ref="A77:B77" si="33">A72</f>
+        <v>900</v>
       </c>
       <c r="B77">
-        <f t="shared" si="35"/>
-        <v>420</v>
+        <f t="shared" si="33"/>
+        <v>760</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4970,12 +4990,12 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A78">
-        <f t="shared" ref="A78:B78" si="36">A73</f>
-        <v>366</v>
+        <f t="shared" ref="A78:B78" si="34">A73</f>
+        <v>600</v>
       </c>
       <c r="B78">
-        <f t="shared" si="36"/>
-        <v>420</v>
+        <f t="shared" si="34"/>
+        <v>760</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -5016,12 +5036,12 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A79">
-        <f t="shared" ref="A79:B79" si="37">A74</f>
-        <v>411</v>
+        <f t="shared" ref="A79:B79" si="35">A74</f>
+        <v>675</v>
       </c>
       <c r="B79">
-        <f t="shared" si="37"/>
-        <v>420</v>
+        <f t="shared" si="35"/>
+        <v>760</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5062,12 +5082,12 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A80">
-        <f t="shared" ref="A80:B80" si="38">A75</f>
-        <v>456</v>
+        <f t="shared" ref="A80:B80" si="36">A75</f>
+        <v>750</v>
       </c>
       <c r="B80">
-        <f t="shared" si="38"/>
-        <v>420</v>
+        <f t="shared" si="36"/>
+        <v>760</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5108,12 +5128,12 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A81">
-        <f t="shared" ref="A81:B81" si="39">A76</f>
-        <v>501</v>
+        <f t="shared" ref="A81:B81" si="37">A76</f>
+        <v>825</v>
       </c>
       <c r="B81">
-        <f t="shared" si="39"/>
-        <v>420</v>
+        <f t="shared" si="37"/>
+        <v>760</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5154,12 +5174,12 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A82">
-        <f t="shared" ref="A82:B82" si="40">A77</f>
-        <v>546</v>
+        <f t="shared" ref="A82:B82" si="38">A77</f>
+        <v>900</v>
       </c>
       <c r="B82">
-        <f t="shared" si="40"/>
-        <v>420</v>
+        <f t="shared" si="38"/>
+        <v>760</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -5200,12 +5220,12 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A83">
-        <f t="shared" ref="A83:B83" si="41">A78</f>
-        <v>366</v>
+        <f t="shared" ref="A83:B83" si="39">A78</f>
+        <v>600</v>
       </c>
       <c r="B83">
-        <f t="shared" si="41"/>
-        <v>420</v>
+        <f t="shared" si="39"/>
+        <v>760</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5246,12 +5266,12 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A84">
-        <f t="shared" ref="A84:B84" si="42">A79</f>
-        <v>411</v>
+        <f t="shared" ref="A84:B84" si="40">A79</f>
+        <v>675</v>
       </c>
       <c r="B84">
-        <f t="shared" si="42"/>
-        <v>420</v>
+        <f t="shared" si="40"/>
+        <v>760</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5292,12 +5312,12 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A85">
-        <f t="shared" ref="A85:B85" si="43">A80</f>
-        <v>456</v>
+        <f t="shared" ref="A85:B85" si="41">A80</f>
+        <v>750</v>
       </c>
       <c r="B85">
-        <f t="shared" si="43"/>
-        <v>420</v>
+        <f t="shared" si="41"/>
+        <v>760</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5338,12 +5358,12 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A86">
-        <f t="shared" ref="A86:B86" si="44">A81</f>
-        <v>501</v>
+        <f t="shared" ref="A86:B86" si="42">A81</f>
+        <v>825</v>
       </c>
       <c r="B86">
-        <f t="shared" si="44"/>
-        <v>420</v>
+        <f t="shared" si="42"/>
+        <v>760</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5384,12 +5404,12 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A87">
-        <f t="shared" ref="A87:B87" si="45">A82</f>
-        <v>546</v>
+        <f t="shared" ref="A87:B87" si="43">A82</f>
+        <v>900</v>
       </c>
       <c r="B87">
-        <f t="shared" si="45"/>
-        <v>420</v>
+        <f t="shared" si="43"/>
+        <v>760</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5430,12 +5450,12 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A88">
-        <f t="shared" ref="A88:B88" si="46">A83</f>
-        <v>366</v>
+        <f t="shared" ref="A88:B88" si="44">A83</f>
+        <v>600</v>
       </c>
       <c r="B88">
-        <f t="shared" si="46"/>
-        <v>420</v>
+        <f t="shared" si="44"/>
+        <v>760</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5476,12 +5496,12 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A89">
-        <f t="shared" ref="A89:B89" si="47">A84</f>
-        <v>411</v>
+        <f t="shared" ref="A89:B89" si="45">A84</f>
+        <v>675</v>
       </c>
       <c r="B89">
-        <f t="shared" si="47"/>
-        <v>420</v>
+        <f t="shared" si="45"/>
+        <v>760</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5522,12 +5542,12 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A90">
-        <f t="shared" ref="A90:B90" si="48">A85</f>
-        <v>456</v>
+        <f t="shared" ref="A90:B90" si="46">A85</f>
+        <v>750</v>
       </c>
       <c r="B90">
-        <f t="shared" si="48"/>
-        <v>420</v>
+        <f t="shared" si="46"/>
+        <v>760</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5568,12 +5588,12 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A91">
-        <f t="shared" ref="A91:B91" si="49">A86</f>
-        <v>501</v>
+        <f t="shared" ref="A91:B91" si="47">A86</f>
+        <v>825</v>
       </c>
       <c r="B91">
-        <f t="shared" si="49"/>
-        <v>420</v>
+        <f t="shared" si="47"/>
+        <v>760</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5614,12 +5634,12 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A92">
-        <f t="shared" ref="A92:B92" si="50">A87</f>
-        <v>546</v>
+        <f t="shared" ref="A92:B92" si="48">A87</f>
+        <v>900</v>
       </c>
       <c r="B92">
-        <f t="shared" si="50"/>
-        <v>420</v>
+        <f t="shared" si="48"/>
+        <v>760</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5660,12 +5680,12 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A93">
-        <f t="shared" ref="A93:B93" si="51">A88</f>
-        <v>366</v>
+        <f t="shared" ref="A93:B93" si="49">A88</f>
+        <v>600</v>
       </c>
       <c r="B93">
-        <f t="shared" si="51"/>
-        <v>420</v>
+        <f t="shared" si="49"/>
+        <v>760</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -5706,12 +5726,12 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A94">
-        <f t="shared" ref="A94:B94" si="52">A89</f>
-        <v>411</v>
+        <f t="shared" ref="A94:B94" si="50">A89</f>
+        <v>675</v>
       </c>
       <c r="B94">
-        <f t="shared" si="52"/>
-        <v>420</v>
+        <f t="shared" si="50"/>
+        <v>760</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5752,12 +5772,12 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A95">
-        <f t="shared" ref="A95:B95" si="53">A90</f>
-        <v>456</v>
+        <f t="shared" ref="A95:B95" si="51">A90</f>
+        <v>750</v>
       </c>
       <c r="B95">
-        <f t="shared" si="53"/>
-        <v>420</v>
+        <f t="shared" si="51"/>
+        <v>760</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -5798,12 +5818,12 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A96">
-        <f t="shared" ref="A96:B96" si="54">A91</f>
-        <v>501</v>
+        <f t="shared" ref="A96:B96" si="52">A91</f>
+        <v>825</v>
       </c>
       <c r="B96">
-        <f t="shared" si="54"/>
-        <v>420</v>
+        <f t="shared" si="52"/>
+        <v>760</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5844,12 +5864,12 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A97">
-        <f t="shared" ref="A97:B97" si="55">A92</f>
-        <v>546</v>
+        <f t="shared" ref="A97:B97" si="53">A92</f>
+        <v>900</v>
       </c>
       <c r="B97">
-        <f t="shared" si="55"/>
-        <v>420</v>
+        <f t="shared" si="53"/>
+        <v>760</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5890,12 +5910,12 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A98">
-        <f t="shared" ref="A98:B98" si="56">A93</f>
-        <v>366</v>
+        <f t="shared" ref="A98:B98" si="54">A93</f>
+        <v>600</v>
       </c>
       <c r="B98">
-        <f t="shared" si="56"/>
-        <v>420</v>
+        <f t="shared" si="54"/>
+        <v>760</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5936,12 +5956,12 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A99">
-        <f t="shared" ref="A99:B99" si="57">A94</f>
-        <v>411</v>
+        <f t="shared" ref="A99:B99" si="55">A94</f>
+        <v>675</v>
       </c>
       <c r="B99">
-        <f t="shared" si="57"/>
-        <v>420</v>
+        <f t="shared" si="55"/>
+        <v>760</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5982,12 +6002,12 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A100">
-        <f t="shared" ref="A100:B100" si="58">A95</f>
-        <v>456</v>
+        <f t="shared" ref="A100:B100" si="56">A95</f>
+        <v>750</v>
       </c>
       <c r="B100">
-        <f t="shared" si="58"/>
-        <v>420</v>
+        <f t="shared" si="56"/>
+        <v>760</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6028,12 +6048,12 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A101">
-        <f t="shared" ref="A101:B101" si="59">A96</f>
-        <v>501</v>
+        <f t="shared" ref="A101:B101" si="57">A96</f>
+        <v>825</v>
       </c>
       <c r="B101">
-        <f t="shared" si="59"/>
-        <v>420</v>
+        <f t="shared" si="57"/>
+        <v>760</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6074,12 +6094,12 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A102">
-        <f t="shared" ref="A102:B102" si="60">A97</f>
-        <v>546</v>
+        <f t="shared" ref="A102:B102" si="58">A97</f>
+        <v>900</v>
       </c>
       <c r="B102">
-        <f t="shared" si="60"/>
-        <v>420</v>
+        <f t="shared" si="58"/>
+        <v>760</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6120,12 +6140,12 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A103">
-        <f t="shared" ref="A103:B103" si="61">A98</f>
-        <v>366</v>
+        <f t="shared" ref="A103:B103" si="59">A98</f>
+        <v>600</v>
       </c>
       <c r="B103">
-        <f t="shared" si="61"/>
-        <v>420</v>
+        <f t="shared" si="59"/>
+        <v>760</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -6166,12 +6186,12 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A104">
-        <f t="shared" ref="A104:B104" si="62">A99</f>
-        <v>411</v>
+        <f t="shared" ref="A104:B104" si="60">A99</f>
+        <v>675</v>
       </c>
       <c r="B104">
-        <f t="shared" si="62"/>
-        <v>420</v>
+        <f t="shared" si="60"/>
+        <v>760</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6212,12 +6232,12 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A105">
-        <f t="shared" ref="A105:B105" si="63">A100</f>
-        <v>456</v>
+        <f t="shared" ref="A105:B105" si="61">A100</f>
+        <v>750</v>
       </c>
       <c r="B105">
-        <f t="shared" si="63"/>
-        <v>420</v>
+        <f t="shared" si="61"/>
+        <v>760</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6258,12 +6278,12 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A106">
-        <f t="shared" ref="A106:B106" si="64">A101</f>
-        <v>501</v>
+        <f t="shared" ref="A106:B106" si="62">A101</f>
+        <v>825</v>
       </c>
       <c r="B106">
-        <f t="shared" si="64"/>
-        <v>420</v>
+        <f t="shared" si="62"/>
+        <v>760</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6304,12 +6324,12 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A107">
-        <f t="shared" ref="A107:B107" si="65">A102</f>
-        <v>546</v>
+        <f t="shared" ref="A107:B107" si="63">A102</f>
+        <v>900</v>
       </c>
       <c r="B107">
-        <f t="shared" si="65"/>
-        <v>420</v>
+        <f t="shared" si="63"/>
+        <v>760</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6394,12 +6414,11 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A109">
-        <f>A42+302</f>
-        <v>602</v>
+        <v>985</v>
       </c>
       <c r="B109">
         <f>B42-1</f>
-        <v>435</v>
+        <v>779</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6441,11 +6460,11 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A110">
         <f>A109</f>
-        <v>602</v>
+        <v>985</v>
       </c>
       <c r="B110">
         <f>B109</f>
-        <v>435</v>
+        <v>779</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6486,10 +6505,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A111">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6530,10 +6549,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A112">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B112">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6574,12 +6593,12 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A113">
-        <f>A112+85</f>
-        <v>90</v>
+        <f>A112+150</f>
+        <v>170</v>
       </c>
       <c r="B113">
         <f>B112+50</f>
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6620,12 +6639,12 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A114">
-        <f>A112+111</f>
-        <v>116</v>
+        <f>A112+190</f>
+        <v>210</v>
       </c>
       <c r="B114">
-        <f>B113+3</f>
-        <v>423</v>
+        <f>B113+10</f>
+        <v>710</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6667,11 +6686,11 @@
     <row r="115" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A115">
         <f>A114</f>
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="B115">
         <f>B114</f>
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6713,11 +6732,11 @@
     <row r="116" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A116">
         <f>A115-6</f>
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B116">
         <f>B115+12</f>
-        <v>435</v>
+        <v>722</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6758,12 +6777,12 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A117">
-        <f t="shared" ref="A117" si="66">A116</f>
-        <v>110</v>
+        <f t="shared" ref="A117" si="64">A116</f>
+        <v>204</v>
       </c>
       <c r="B117">
         <f>B116</f>
-        <v>435</v>
+        <v>722</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6804,12 +6823,12 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A118">
-        <f>A113+3</f>
-        <v>93</v>
+        <f>A113+4</f>
+        <v>174</v>
       </c>
       <c r="B118">
-        <f>B113+33</f>
-        <v>453</v>
+        <f>B113+53</f>
+        <v>753</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6850,12 +6869,12 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A119">
-        <f>A111-25</f>
+        <f>A111-40</f>
         <v>-20</v>
       </c>
       <c r="B119">
         <f>B111-180</f>
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6900,8 +6919,7 @@
         <v>-20</v>
       </c>
       <c r="B120">
-        <f>B119</f>
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6942,12 +6960,12 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A121">
-        <f t="shared" ref="A121:A123" si="67">A120</f>
+        <f t="shared" ref="A121:A123" si="65">A120</f>
         <v>-20</v>
       </c>
       <c r="B121">
-        <f t="shared" ref="B121:B123" si="68">B120+30</f>
-        <v>220</v>
+        <f>B120+40</f>
+        <v>440</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6988,12 +7006,12 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A122">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-20</v>
       </c>
       <c r="B122">
-        <f t="shared" si="68"/>
-        <v>250</v>
+        <f t="shared" ref="B122:B123" si="66">B121+40</f>
+        <v>480</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7034,12 +7052,12 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A123">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-20</v>
       </c>
       <c r="B123">
-        <f t="shared" si="68"/>
-        <v>280</v>
+        <f t="shared" si="66"/>
+        <v>520</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7081,11 +7099,11 @@
     <row r="124" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A124">
         <f>A112</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B124">
         <f>B112 - 200</f>
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7127,11 +7145,11 @@
     <row r="125" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A125">
         <f>A124</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B125">
         <f>B124+30</f>
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7173,11 +7191,11 @@
     <row r="126" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A126">
         <f>A125</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B126">
         <f>B125+30</f>
-        <v>230</v>
+        <v>510</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7221,4 +7239,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A13">
+        <v>1920</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A14">
+        <v>2132</v>
+      </c>
+      <c r="B14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A15">
+        <v>380</v>
+      </c>
+      <c r="B15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A17">
+        <v>156</v>
+      </c>
+      <c r="B17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A18">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A22">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A24">
+        <v>270</v>
+      </c>
+      <c r="B24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A25">
+        <v>408</v>
+      </c>
+      <c r="B25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A26">
+        <v>408</v>
+      </c>
+      <c r="B26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A27">
+        <v>408</v>
+      </c>
+      <c r="B27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A28">
+        <v>408</v>
+      </c>
+      <c r="B28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A29">
+        <v>408</v>
+      </c>
+      <c r="B29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A30">
+        <v>408</v>
+      </c>
+      <c r="B30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A31">
+        <v>408</v>
+      </c>
+      <c r="B31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A32">
+        <v>558</v>
+      </c>
+      <c r="B32">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A33">
+        <v>558</v>
+      </c>
+      <c r="B33">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A34">
+        <v>558</v>
+      </c>
+      <c r="B34">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A35">
+        <v>558</v>
+      </c>
+      <c r="B35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A36">
+        <v>558</v>
+      </c>
+      <c r="B36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37">
+        <v>558</v>
+      </c>
+      <c r="B37">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -1749,8 +1749,8 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1879,7 +1879,7 @@
         <v>585</v>
       </c>
       <c r="B4" s="2">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>585</v>
       </c>
       <c r="B15" s="2">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="C15">
         <v>1</v>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -1749,8 +1749,8 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6593,12 +6593,12 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A113">
-        <f>A112+150</f>
-        <v>170</v>
+        <f>A112+140</f>
+        <v>160</v>
       </c>
       <c r="B113">
-        <f>B112+50</f>
-        <v>700</v>
+        <f>B112+80</f>
+        <v>730</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="B114">
         <f>B113+10</f>
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="B115">
         <f>B114</f>
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="B116">
         <f>B115+12</f>
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B117">
         <f>B116</f>
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6824,11 +6824,11 @@
     <row r="118" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A118">
         <f>A113+4</f>
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B118">
         <f>B113+53</f>
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="C118">
         <v>1</v>

--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="UI_mainmenu" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1414,11 +1415,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,8 +1749,8 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1802,6 +1806,15 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3">
@@ -1862,11 +1875,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A4">
-        <v>385</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
+      <c r="A4" s="2">
+        <v>585</v>
+      </c>
+      <c r="B4" s="2">
+        <v>450</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2120,10 +2133,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13">
@@ -2164,11 +2177,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A14">
-        <v>-62</v>
-      </c>
-      <c r="B14">
-        <v>320</v>
+      <c r="A14" s="2">
+        <v>-110</v>
+      </c>
+      <c r="B14" s="2">
+        <v>579.20000000000005</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2208,11 +2221,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A15">
-        <v>385</v>
-      </c>
-      <c r="B15">
-        <v>400</v>
+      <c r="A15" s="2">
+        <v>585</v>
+      </c>
+      <c r="B15" s="2">
+        <v>630</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2252,11 +2265,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>380</v>
+      <c r="A16" s="2">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>620</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2296,11 +2309,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>380</v>
+      <c r="A17" s="2">
+        <f>A16+90</f>
+        <v>140</v>
+      </c>
+      <c r="B17" s="2">
+        <v>620</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2340,11 +2354,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A18">
-        <v>160</v>
-      </c>
-      <c r="B18">
-        <v>380</v>
+      <c r="A18" s="2">
+        <f>A17+90</f>
+        <v>230</v>
+      </c>
+      <c r="B18" s="2">
+        <v>620</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2384,12 +2399,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A19">
-        <f>A20-40</f>
-        <v>730</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="A19" s="2">
+        <f>A20-65</f>
+        <v>1145</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2429,12 +2444,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A20">
-        <f>A21-40</f>
-        <v>770</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="A20" s="2">
+        <f>A21-65</f>
+        <v>1210</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2474,12 +2489,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A21">
-        <f>A22-40</f>
-        <v>810</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="A21" s="2">
+        <f>A22-65</f>
+        <v>1275</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2519,12 +2534,12 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A22">
-        <f>A23-40</f>
-        <v>850</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="A22" s="2">
+        <f>A23-60</f>
+        <v>1340</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2564,11 +2579,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A23">
-        <v>890</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="A23" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2608,11 +2623,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A24">
-        <v>67</v>
-      </c>
-      <c r="B24">
-        <v>67</v>
+      <c r="A24" s="2">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>120</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2652,11 +2667,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>60</v>
+      <c r="A25" s="2">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2">
+        <v>120</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2696,13 +2711,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A26">
+      <c r="A26" s="2">
         <f>A25</f>
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <f>B25+46</f>
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25+70</f>
+        <v>190</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2743,13 +2758,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A27">
+      <c r="A27" s="2">
         <f t="shared" ref="A27:A28" si="6">A26</f>
-        <v>50</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27:B28" si="7">B26+46</f>
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:B31" si="7">B26+70</f>
+        <v>260</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2790,13 +2805,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A28">
+      <c r="A28" s="2">
         <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2">
         <f t="shared" si="7"/>
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2837,13 +2852,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A29">
+      <c r="A29" s="2">
         <f t="shared" ref="A29:A31" si="9">A28</f>
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29:B31" si="10">B28+46</f>
-        <v>244</v>
+        <v>70</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="7"/>
+        <v>400</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2884,13 +2899,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A30">
+      <c r="A30" s="2">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="10"/>
-        <v>290</v>
+        <v>70</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="7"/>
+        <v>470</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2931,13 +2946,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A31">
+      <c r="A31" s="2">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="10"/>
-        <v>336</v>
+        <v>70</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="7"/>
+        <v>540</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2978,12 +2993,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A32">
-        <v>260</v>
-      </c>
-      <c r="B32">
-        <f>B26 - 70</f>
-        <v>36</v>
+      <c r="A32" s="2">
+        <v>400</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B26 - 40</f>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3024,12 +3039,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A33">
-        <v>260</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33:B37" si="11">B27 - 70</f>
-        <v>82</v>
+      <c r="A33" s="2">
+        <f>A32</f>
+        <v>400</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:B37" si="10">B27 - 40</f>
+        <v>220</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3070,12 +3086,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A34">
-        <v>260</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="11"/>
-        <v>128</v>
+      <c r="A34" s="2">
+        <f t="shared" ref="A34:A37" si="11">A33</f>
+        <v>400</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="10"/>
+        <v>290</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3116,12 +3133,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A35">
-        <v>260</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="2">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>400</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="10"/>
+        <v>360</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3162,12 +3180,13 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A36">
-        <v>260</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="2">
         <f t="shared" si="11"/>
-        <v>220</v>
+        <v>400</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="10"/>
+        <v>430</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3208,12 +3227,13 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A37">
-        <v>260</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="2">
         <f t="shared" si="11"/>
-        <v>266</v>
+        <v>400</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="10"/>
+        <v>500</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3318,10 +3338,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A42">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B42">
-        <v>436</v>
+        <v>780</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3362,10 +3382,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A43">
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="B43">
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3406,12 +3426,12 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A44">
-        <f>A43+45</f>
-        <v>401</v>
+        <f>A43+75</f>
+        <v>660</v>
       </c>
       <c r="B44">
         <f>B43</f>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3452,12 +3472,12 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A45">
-        <f t="shared" ref="A45:A47" si="14">A44+45</f>
-        <v>446</v>
+        <f t="shared" ref="A45:A47" si="14">A44+75</f>
+        <v>735</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45:B52" si="15">B44</f>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3499,11 +3519,11 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A46">
         <f t="shared" si="14"/>
-        <v>491</v>
+        <v>810</v>
       </c>
       <c r="B46">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3545,11 +3565,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A47">
         <f t="shared" si="14"/>
-        <v>536</v>
+        <v>885</v>
       </c>
       <c r="B47">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3591,11 +3611,11 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A48">
         <f>A43</f>
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="B48">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3637,11 +3657,11 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A49">
         <f t="shared" ref="A49:A52" si="16">A44</f>
-        <v>401</v>
+        <v>660</v>
       </c>
       <c r="B49">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3683,11 +3703,11 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A50">
         <f t="shared" si="16"/>
-        <v>446</v>
+        <v>735</v>
       </c>
       <c r="B50">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3729,11 +3749,11 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A51">
         <f t="shared" si="16"/>
-        <v>491</v>
+        <v>810</v>
       </c>
       <c r="B51">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3775,11 +3795,11 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A52">
         <f t="shared" si="16"/>
-        <v>536</v>
+        <v>885</v>
       </c>
       <c r="B52">
         <f t="shared" si="15"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3821,11 +3841,11 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A53">
         <f>A48</f>
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="B53">
         <f>B48</f>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3867,11 +3887,11 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A54">
         <f t="shared" ref="A54:B57" si="17">A49</f>
-        <v>401</v>
+        <v>660</v>
       </c>
       <c r="B54">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3913,11 +3933,11 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A55">
         <f t="shared" si="17"/>
-        <v>446</v>
+        <v>735</v>
       </c>
       <c r="B55">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3959,11 +3979,11 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A56">
         <f t="shared" si="17"/>
-        <v>491</v>
+        <v>810</v>
       </c>
       <c r="B56">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4005,11 +4025,11 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A57">
         <f t="shared" si="17"/>
-        <v>536</v>
+        <v>885</v>
       </c>
       <c r="B57">
         <f t="shared" si="17"/>
-        <v>410</v>
+        <v>740</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4050,12 +4070,12 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A58">
-        <f>A53 + 10</f>
-        <v>366</v>
+        <f>A53 + 15</f>
+        <v>600</v>
       </c>
       <c r="B58">
-        <f>B53 + 10</f>
-        <v>420</v>
+        <f>B53 + 20</f>
+        <v>760</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4096,12 +4116,12 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A59">
-        <f t="shared" ref="A59:B59" si="18">A54 + 10</f>
-        <v>411</v>
+        <f t="shared" ref="A59:A62" si="18">A54 + 15</f>
+        <v>675</v>
       </c>
       <c r="B59">
-        <f t="shared" si="18"/>
-        <v>420</v>
+        <f t="shared" ref="B59:B62" si="19">B54 + 20</f>
+        <v>760</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4142,12 +4162,12 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A60">
-        <f t="shared" ref="A60:B60" si="19">A55 + 10</f>
-        <v>456</v>
+        <f t="shared" si="18"/>
+        <v>750</v>
       </c>
       <c r="B60">
         <f t="shared" si="19"/>
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4188,12 +4208,12 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A61">
-        <f t="shared" ref="A61:B61" si="20">A56 + 10</f>
-        <v>501</v>
+        <f t="shared" si="18"/>
+        <v>825</v>
       </c>
       <c r="B61">
-        <f t="shared" si="20"/>
-        <v>420</v>
+        <f t="shared" si="19"/>
+        <v>760</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4234,12 +4254,12 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A62">
-        <f t="shared" ref="A62:B62" si="21">A57 + 10</f>
-        <v>546</v>
+        <f t="shared" si="18"/>
+        <v>900</v>
       </c>
       <c r="B62">
-        <f t="shared" si="21"/>
-        <v>420</v>
+        <f t="shared" si="19"/>
+        <v>760</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4281,11 +4301,11 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A63">
         <f>A58</f>
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="B63">
         <f>B58</f>
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -4326,12 +4346,12 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A64">
-        <f t="shared" ref="A64:B64" si="22">A59</f>
-        <v>411</v>
+        <f t="shared" ref="A64:B64" si="20">A59</f>
+        <v>675</v>
       </c>
       <c r="B64">
-        <f t="shared" si="22"/>
-        <v>420</v>
+        <f t="shared" si="20"/>
+        <v>760</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4372,12 +4392,12 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A65">
-        <f t="shared" ref="A65:B65" si="23">A60</f>
-        <v>456</v>
+        <f t="shared" ref="A65:B65" si="21">A60</f>
+        <v>750</v>
       </c>
       <c r="B65">
-        <f t="shared" si="23"/>
-        <v>420</v>
+        <f t="shared" si="21"/>
+        <v>760</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4418,12 +4438,12 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A66">
-        <f t="shared" ref="A66:B66" si="24">A61</f>
-        <v>501</v>
+        <f t="shared" ref="A66:B66" si="22">A61</f>
+        <v>825</v>
       </c>
       <c r="B66">
-        <f t="shared" si="24"/>
-        <v>420</v>
+        <f t="shared" si="22"/>
+        <v>760</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4464,12 +4484,12 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A67">
-        <f t="shared" ref="A67:B67" si="25">A62</f>
-        <v>546</v>
+        <f t="shared" ref="A67:B67" si="23">A62</f>
+        <v>900</v>
       </c>
       <c r="B67">
-        <f t="shared" si="25"/>
-        <v>420</v>
+        <f t="shared" si="23"/>
+        <v>760</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4510,12 +4530,12 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A68">
-        <f t="shared" ref="A68:B68" si="26">A63</f>
-        <v>366</v>
+        <f t="shared" ref="A68:B68" si="24">A63</f>
+        <v>600</v>
       </c>
       <c r="B68">
-        <f t="shared" si="26"/>
-        <v>420</v>
+        <f t="shared" si="24"/>
+        <v>760</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4556,12 +4576,12 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A69">
-        <f t="shared" ref="A69:B69" si="27">A64</f>
-        <v>411</v>
+        <f t="shared" ref="A69:B69" si="25">A64</f>
+        <v>675</v>
       </c>
       <c r="B69">
-        <f t="shared" si="27"/>
-        <v>420</v>
+        <f t="shared" si="25"/>
+        <v>760</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4602,12 +4622,12 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A70">
-        <f t="shared" ref="A70:B70" si="28">A65</f>
-        <v>456</v>
+        <f t="shared" ref="A70:B70" si="26">A65</f>
+        <v>750</v>
       </c>
       <c r="B70">
-        <f t="shared" si="28"/>
-        <v>420</v>
+        <f t="shared" si="26"/>
+        <v>760</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4648,12 +4668,12 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A71">
-        <f t="shared" ref="A71:B71" si="29">A66</f>
-        <v>501</v>
+        <f t="shared" ref="A71:B71" si="27">A66</f>
+        <v>825</v>
       </c>
       <c r="B71">
-        <f t="shared" si="29"/>
-        <v>420</v>
+        <f t="shared" si="27"/>
+        <v>760</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4694,12 +4714,12 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A72">
-        <f t="shared" ref="A72:B72" si="30">A67</f>
-        <v>546</v>
+        <f t="shared" ref="A72:B72" si="28">A67</f>
+        <v>900</v>
       </c>
       <c r="B72">
-        <f t="shared" si="30"/>
-        <v>420</v>
+        <f t="shared" si="28"/>
+        <v>760</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4740,12 +4760,12 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A73">
-        <f t="shared" ref="A73:B73" si="31">A68</f>
-        <v>366</v>
+        <f t="shared" ref="A73:B73" si="29">A68</f>
+        <v>600</v>
       </c>
       <c r="B73">
-        <f t="shared" si="31"/>
-        <v>420</v>
+        <f t="shared" si="29"/>
+        <v>760</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4786,12 +4806,12 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A74">
-        <f t="shared" ref="A74:B74" si="32">A69</f>
-        <v>411</v>
+        <f t="shared" ref="A74:B74" si="30">A69</f>
+        <v>675</v>
       </c>
       <c r="B74">
-        <f t="shared" si="32"/>
-        <v>420</v>
+        <f t="shared" si="30"/>
+        <v>760</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4832,12 +4852,12 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A75">
-        <f t="shared" ref="A75:B75" si="33">A70</f>
-        <v>456</v>
+        <f t="shared" ref="A75:B75" si="31">A70</f>
+        <v>750</v>
       </c>
       <c r="B75">
-        <f t="shared" si="33"/>
-        <v>420</v>
+        <f t="shared" si="31"/>
+        <v>760</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4878,12 +4898,12 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A76">
-        <f t="shared" ref="A76:B76" si="34">A71</f>
-        <v>501</v>
+        <f t="shared" ref="A76:B76" si="32">A71</f>
+        <v>825</v>
       </c>
       <c r="B76">
-        <f t="shared" si="34"/>
-        <v>420</v>
+        <f t="shared" si="32"/>
+        <v>760</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4924,12 +4944,12 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A77">
-        <f t="shared" ref="A77:B77" si="35">A72</f>
-        <v>546</v>
+        <f t="shared" ref="A77:B77" si="33">A72</f>
+        <v>900</v>
       </c>
       <c r="B77">
-        <f t="shared" si="35"/>
-        <v>420</v>
+        <f t="shared" si="33"/>
+        <v>760</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4970,12 +4990,12 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A78">
-        <f t="shared" ref="A78:B78" si="36">A73</f>
-        <v>366</v>
+        <f t="shared" ref="A78:B78" si="34">A73</f>
+        <v>600</v>
       </c>
       <c r="B78">
-        <f t="shared" si="36"/>
-        <v>420</v>
+        <f t="shared" si="34"/>
+        <v>760</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -5016,12 +5036,12 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A79">
-        <f t="shared" ref="A79:B79" si="37">A74</f>
-        <v>411</v>
+        <f t="shared" ref="A79:B79" si="35">A74</f>
+        <v>675</v>
       </c>
       <c r="B79">
-        <f t="shared" si="37"/>
-        <v>420</v>
+        <f t="shared" si="35"/>
+        <v>760</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5062,12 +5082,12 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A80">
-        <f t="shared" ref="A80:B80" si="38">A75</f>
-        <v>456</v>
+        <f t="shared" ref="A80:B80" si="36">A75</f>
+        <v>750</v>
       </c>
       <c r="B80">
-        <f t="shared" si="38"/>
-        <v>420</v>
+        <f t="shared" si="36"/>
+        <v>760</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5108,12 +5128,12 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A81">
-        <f t="shared" ref="A81:B81" si="39">A76</f>
-        <v>501</v>
+        <f t="shared" ref="A81:B81" si="37">A76</f>
+        <v>825</v>
       </c>
       <c r="B81">
-        <f t="shared" si="39"/>
-        <v>420</v>
+        <f t="shared" si="37"/>
+        <v>760</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5154,12 +5174,12 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A82">
-        <f t="shared" ref="A82:B82" si="40">A77</f>
-        <v>546</v>
+        <f t="shared" ref="A82:B82" si="38">A77</f>
+        <v>900</v>
       </c>
       <c r="B82">
-        <f t="shared" si="40"/>
-        <v>420</v>
+        <f t="shared" si="38"/>
+        <v>760</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -5200,12 +5220,12 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A83">
-        <f t="shared" ref="A83:B83" si="41">A78</f>
-        <v>366</v>
+        <f t="shared" ref="A83:B83" si="39">A78</f>
+        <v>600</v>
       </c>
       <c r="B83">
-        <f t="shared" si="41"/>
-        <v>420</v>
+        <f t="shared" si="39"/>
+        <v>760</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5246,12 +5266,12 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A84">
-        <f t="shared" ref="A84:B84" si="42">A79</f>
-        <v>411</v>
+        <f t="shared" ref="A84:B84" si="40">A79</f>
+        <v>675</v>
       </c>
       <c r="B84">
-        <f t="shared" si="42"/>
-        <v>420</v>
+        <f t="shared" si="40"/>
+        <v>760</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5292,12 +5312,12 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A85">
-        <f t="shared" ref="A85:B85" si="43">A80</f>
-        <v>456</v>
+        <f t="shared" ref="A85:B85" si="41">A80</f>
+        <v>750</v>
       </c>
       <c r="B85">
-        <f t="shared" si="43"/>
-        <v>420</v>
+        <f t="shared" si="41"/>
+        <v>760</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5338,12 +5358,12 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A86">
-        <f t="shared" ref="A86:B86" si="44">A81</f>
-        <v>501</v>
+        <f t="shared" ref="A86:B86" si="42">A81</f>
+        <v>825</v>
       </c>
       <c r="B86">
-        <f t="shared" si="44"/>
-        <v>420</v>
+        <f t="shared" si="42"/>
+        <v>760</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5384,12 +5404,12 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A87">
-        <f t="shared" ref="A87:B87" si="45">A82</f>
-        <v>546</v>
+        <f t="shared" ref="A87:B87" si="43">A82</f>
+        <v>900</v>
       </c>
       <c r="B87">
-        <f t="shared" si="45"/>
-        <v>420</v>
+        <f t="shared" si="43"/>
+        <v>760</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5430,12 +5450,12 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A88">
-        <f t="shared" ref="A88:B88" si="46">A83</f>
-        <v>366</v>
+        <f t="shared" ref="A88:B88" si="44">A83</f>
+        <v>600</v>
       </c>
       <c r="B88">
-        <f t="shared" si="46"/>
-        <v>420</v>
+        <f t="shared" si="44"/>
+        <v>760</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5476,12 +5496,12 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A89">
-        <f t="shared" ref="A89:B89" si="47">A84</f>
-        <v>411</v>
+        <f t="shared" ref="A89:B89" si="45">A84</f>
+        <v>675</v>
       </c>
       <c r="B89">
-        <f t="shared" si="47"/>
-        <v>420</v>
+        <f t="shared" si="45"/>
+        <v>760</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5522,12 +5542,12 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A90">
-        <f t="shared" ref="A90:B90" si="48">A85</f>
-        <v>456</v>
+        <f t="shared" ref="A90:B90" si="46">A85</f>
+        <v>750</v>
       </c>
       <c r="B90">
-        <f t="shared" si="48"/>
-        <v>420</v>
+        <f t="shared" si="46"/>
+        <v>760</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5568,12 +5588,12 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A91">
-        <f t="shared" ref="A91:B91" si="49">A86</f>
-        <v>501</v>
+        <f t="shared" ref="A91:B91" si="47">A86</f>
+        <v>825</v>
       </c>
       <c r="B91">
-        <f t="shared" si="49"/>
-        <v>420</v>
+        <f t="shared" si="47"/>
+        <v>760</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5614,12 +5634,12 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A92">
-        <f t="shared" ref="A92:B92" si="50">A87</f>
-        <v>546</v>
+        <f t="shared" ref="A92:B92" si="48">A87</f>
+        <v>900</v>
       </c>
       <c r="B92">
-        <f t="shared" si="50"/>
-        <v>420</v>
+        <f t="shared" si="48"/>
+        <v>760</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5660,12 +5680,12 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A93">
-        <f t="shared" ref="A93:B93" si="51">A88</f>
-        <v>366</v>
+        <f t="shared" ref="A93:B93" si="49">A88</f>
+        <v>600</v>
       </c>
       <c r="B93">
-        <f t="shared" si="51"/>
-        <v>420</v>
+        <f t="shared" si="49"/>
+        <v>760</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -5706,12 +5726,12 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A94">
-        <f t="shared" ref="A94:B94" si="52">A89</f>
-        <v>411</v>
+        <f t="shared" ref="A94:B94" si="50">A89</f>
+        <v>675</v>
       </c>
       <c r="B94">
-        <f t="shared" si="52"/>
-        <v>420</v>
+        <f t="shared" si="50"/>
+        <v>760</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5752,12 +5772,12 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A95">
-        <f t="shared" ref="A95:B95" si="53">A90</f>
-        <v>456</v>
+        <f t="shared" ref="A95:B95" si="51">A90</f>
+        <v>750</v>
       </c>
       <c r="B95">
-        <f t="shared" si="53"/>
-        <v>420</v>
+        <f t="shared" si="51"/>
+        <v>760</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -5798,12 +5818,12 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A96">
-        <f t="shared" ref="A96:B96" si="54">A91</f>
-        <v>501</v>
+        <f t="shared" ref="A96:B96" si="52">A91</f>
+        <v>825</v>
       </c>
       <c r="B96">
-        <f t="shared" si="54"/>
-        <v>420</v>
+        <f t="shared" si="52"/>
+        <v>760</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5844,12 +5864,12 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A97">
-        <f t="shared" ref="A97:B97" si="55">A92</f>
-        <v>546</v>
+        <f t="shared" ref="A97:B97" si="53">A92</f>
+        <v>900</v>
       </c>
       <c r="B97">
-        <f t="shared" si="55"/>
-        <v>420</v>
+        <f t="shared" si="53"/>
+        <v>760</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5890,12 +5910,12 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A98">
-        <f t="shared" ref="A98:B98" si="56">A93</f>
-        <v>366</v>
+        <f t="shared" ref="A98:B98" si="54">A93</f>
+        <v>600</v>
       </c>
       <c r="B98">
-        <f t="shared" si="56"/>
-        <v>420</v>
+        <f t="shared" si="54"/>
+        <v>760</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5936,12 +5956,12 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A99">
-        <f t="shared" ref="A99:B99" si="57">A94</f>
-        <v>411</v>
+        <f t="shared" ref="A99:B99" si="55">A94</f>
+        <v>675</v>
       </c>
       <c r="B99">
-        <f t="shared" si="57"/>
-        <v>420</v>
+        <f t="shared" si="55"/>
+        <v>760</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5982,12 +6002,12 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A100">
-        <f t="shared" ref="A100:B100" si="58">A95</f>
-        <v>456</v>
+        <f t="shared" ref="A100:B100" si="56">A95</f>
+        <v>750</v>
       </c>
       <c r="B100">
-        <f t="shared" si="58"/>
-        <v>420</v>
+        <f t="shared" si="56"/>
+        <v>760</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6028,12 +6048,12 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A101">
-        <f t="shared" ref="A101:B101" si="59">A96</f>
-        <v>501</v>
+        <f t="shared" ref="A101:B101" si="57">A96</f>
+        <v>825</v>
       </c>
       <c r="B101">
-        <f t="shared" si="59"/>
-        <v>420</v>
+        <f t="shared" si="57"/>
+        <v>760</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6074,12 +6094,12 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A102">
-        <f t="shared" ref="A102:B102" si="60">A97</f>
-        <v>546</v>
+        <f t="shared" ref="A102:B102" si="58">A97</f>
+        <v>900</v>
       </c>
       <c r="B102">
-        <f t="shared" si="60"/>
-        <v>420</v>
+        <f t="shared" si="58"/>
+        <v>760</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6120,12 +6140,12 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A103">
-        <f t="shared" ref="A103:B103" si="61">A98</f>
-        <v>366</v>
+        <f t="shared" ref="A103:B103" si="59">A98</f>
+        <v>600</v>
       </c>
       <c r="B103">
-        <f t="shared" si="61"/>
-        <v>420</v>
+        <f t="shared" si="59"/>
+        <v>760</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -6166,12 +6186,12 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A104">
-        <f t="shared" ref="A104:B104" si="62">A99</f>
-        <v>411</v>
+        <f t="shared" ref="A104:B104" si="60">A99</f>
+        <v>675</v>
       </c>
       <c r="B104">
-        <f t="shared" si="62"/>
-        <v>420</v>
+        <f t="shared" si="60"/>
+        <v>760</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6212,12 +6232,12 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A105">
-        <f t="shared" ref="A105:B105" si="63">A100</f>
-        <v>456</v>
+        <f t="shared" ref="A105:B105" si="61">A100</f>
+        <v>750</v>
       </c>
       <c r="B105">
-        <f t="shared" si="63"/>
-        <v>420</v>
+        <f t="shared" si="61"/>
+        <v>760</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6258,12 +6278,12 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A106">
-        <f t="shared" ref="A106:B106" si="64">A101</f>
-        <v>501</v>
+        <f t="shared" ref="A106:B106" si="62">A101</f>
+        <v>825</v>
       </c>
       <c r="B106">
-        <f t="shared" si="64"/>
-        <v>420</v>
+        <f t="shared" si="62"/>
+        <v>760</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6304,12 +6324,12 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A107">
-        <f t="shared" ref="A107:B107" si="65">A102</f>
-        <v>546</v>
+        <f t="shared" ref="A107:B107" si="63">A102</f>
+        <v>900</v>
       </c>
       <c r="B107">
-        <f t="shared" si="65"/>
-        <v>420</v>
+        <f t="shared" si="63"/>
+        <v>760</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6394,12 +6414,11 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A109">
-        <f>A42+302</f>
-        <v>602</v>
+        <v>985</v>
       </c>
       <c r="B109">
         <f>B42-1</f>
-        <v>435</v>
+        <v>779</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6441,11 +6460,11 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A110">
         <f>A109</f>
-        <v>602</v>
+        <v>985</v>
       </c>
       <c r="B110">
         <f>B109</f>
-        <v>435</v>
+        <v>779</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6486,10 +6505,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A111">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B111">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6530,10 +6549,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A112">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B112">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6574,12 +6593,12 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A113">
-        <f>A112+85</f>
-        <v>90</v>
+        <f>A112+140</f>
+        <v>160</v>
       </c>
       <c r="B113">
-        <f>B112+50</f>
-        <v>420</v>
+        <f>B112+80</f>
+        <v>730</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6620,12 +6639,12 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A114">
-        <f>A112+111</f>
-        <v>116</v>
+        <f>A112+190</f>
+        <v>210</v>
       </c>
       <c r="B114">
-        <f>B113+3</f>
-        <v>423</v>
+        <f>B113+10</f>
+        <v>740</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6667,11 +6686,11 @@
     <row r="115" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A115">
         <f>A114</f>
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="B115">
         <f>B114</f>
-        <v>423</v>
+        <v>740</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6713,11 +6732,11 @@
     <row r="116" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A116">
         <f>A115-6</f>
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B116">
         <f>B115+12</f>
-        <v>435</v>
+        <v>752</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6758,12 +6777,12 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A117">
-        <f t="shared" ref="A117" si="66">A116</f>
-        <v>110</v>
+        <f t="shared" ref="A117" si="64">A116</f>
+        <v>204</v>
       </c>
       <c r="B117">
         <f>B116</f>
-        <v>435</v>
+        <v>752</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6804,12 +6823,12 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A118">
-        <f>A113+3</f>
-        <v>93</v>
+        <f>A113+4</f>
+        <v>164</v>
       </c>
       <c r="B118">
-        <f>B113+33</f>
-        <v>453</v>
+        <f>B113+53</f>
+        <v>783</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6850,12 +6869,12 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A119">
-        <f>A111-25</f>
+        <f>A111-40</f>
         <v>-20</v>
       </c>
       <c r="B119">
         <f>B111-180</f>
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -6900,8 +6919,7 @@
         <v>-20</v>
       </c>
       <c r="B120">
-        <f>B119</f>
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -6942,12 +6960,12 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A121">
-        <f t="shared" ref="A121:A123" si="67">A120</f>
+        <f t="shared" ref="A121:A123" si="65">A120</f>
         <v>-20</v>
       </c>
       <c r="B121">
-        <f t="shared" ref="B121:B123" si="68">B120+30</f>
-        <v>220</v>
+        <f>B120+40</f>
+        <v>440</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -6988,12 +7006,12 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A122">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-20</v>
       </c>
       <c r="B122">
-        <f t="shared" si="68"/>
-        <v>250</v>
+        <f t="shared" ref="B122:B123" si="66">B121+40</f>
+        <v>480</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7034,12 +7052,12 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A123">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-20</v>
       </c>
       <c r="B123">
-        <f t="shared" si="68"/>
-        <v>280</v>
+        <f t="shared" si="66"/>
+        <v>520</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7081,11 +7099,11 @@
     <row r="124" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A124">
         <f>A112</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B124">
         <f>B112 - 200</f>
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7127,11 +7145,11 @@
     <row r="125" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A125">
         <f>A124</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B125">
         <f>B124+30</f>
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7173,11 +7191,11 @@
     <row r="126" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A126">
         <f>A125</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B126">
         <f>B125+30</f>
-        <v>230</v>
+        <v>510</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7221,4 +7239,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A13">
+        <v>1920</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A14">
+        <v>2132</v>
+      </c>
+      <c r="B14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A15">
+        <v>380</v>
+      </c>
+      <c r="B15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A17">
+        <v>156</v>
+      </c>
+      <c r="B17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A18">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A22">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A24">
+        <v>270</v>
+      </c>
+      <c r="B24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A25">
+        <v>408</v>
+      </c>
+      <c r="B25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A26">
+        <v>408</v>
+      </c>
+      <c r="B26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A27">
+        <v>408</v>
+      </c>
+      <c r="B27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A28">
+        <v>408</v>
+      </c>
+      <c r="B28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A29">
+        <v>408</v>
+      </c>
+      <c r="B29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A30">
+        <v>408</v>
+      </c>
+      <c r="B30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A31">
+        <v>408</v>
+      </c>
+      <c r="B31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A32">
+        <v>558</v>
+      </c>
+      <c r="B32">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A33">
+        <v>558</v>
+      </c>
+      <c r="B33">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A34">
+        <v>558</v>
+      </c>
+      <c r="B34">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A35">
+        <v>558</v>
+      </c>
+      <c r="B35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A36">
+        <v>558</v>
+      </c>
+      <c r="B36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37">
+        <v>558</v>
+      </c>
+      <c r="B37">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4Dollor/D3DX_Base/UI/UIDatas.xlsx
+++ b/4Dollor/D3DX_Base/UI/UIDatas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5273"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="5270"/>
   </bookViews>
   <sheets>
     <sheet name="UI_mainmenu" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="214">
   <si>
     <t>PT.xy</t>
   </si>
@@ -817,12 +817,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>mainmenu_button_ability_title_3_1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_button_ability_title_2.png</t>
+  </si>
+  <si>
     <t>mainmenu_button_ability_title_2_1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainmenu_button_ability_title_3_1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1749,16 +1751,16 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>COUNTA(A4:A6)</f>
         <v>2</v>
@@ -1874,7 +1876,7 @@
         <v>disenable</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>585</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1962,12 +1964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>COUNTA(A9:A10)</f>
         <v>1</v>
@@ -2025,7 +2027,7 @@
         <v>disenable</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2069,12 +2071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>COUNTA(A13:A39)</f>
         <v>25</v>
@@ -2132,7 +2134,7 @@
         <v>disenable</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>-110</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>585</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>50</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f>A16+90</f>
         <v>140</v>
@@ -2353,7 +2355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f>A17+90</f>
         <v>230</v>
@@ -2398,7 +2400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f>A20-65</f>
         <v>1145</v>
@@ -2443,7 +2445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f>A21-65</f>
         <v>1210</v>
@@ -2488,7 +2490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f>A22-65</f>
         <v>1275</v>
@@ -2533,7 +2535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f>A23-60</f>
         <v>1340</v>
@@ -2578,7 +2580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>1400</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>120</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>70</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f>A25</f>
         <v>70</v>
@@ -2757,7 +2759,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" ref="A27:A28" si="6">A26</f>
         <v>70</v>
@@ -2804,7 +2806,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -2851,7 +2853,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" ref="A29:A31" si="9">A28</f>
         <v>70</v>
@@ -2898,7 +2900,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -2945,7 +2947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -2992,7 +2994,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>400</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <f>A32</f>
         <v>400</v>
@@ -3085,7 +3087,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A37" si="11">A33</f>
         <v>400</v>
@@ -3132,7 +3134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <f t="shared" si="11"/>
         <v>400</v>
@@ -3179,7 +3181,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <f t="shared" si="11"/>
         <v>400</v>
@@ -3226,7 +3228,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <f t="shared" si="11"/>
         <v>400</v>
@@ -3273,12 +3275,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>COUNTA(A42:A159)</f>
         <v>85</v>
@@ -3336,7 +3338,7 @@
         <v>disenable</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>500</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>585</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>A43+75</f>
         <v>660</v>
@@ -3470,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" ref="A45:A47" si="14">A44+75</f>
         <v>735</v>
@@ -3516,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46">
         <f t="shared" si="14"/>
         <v>810</v>
@@ -3562,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" si="14"/>
         <v>885</v>
@@ -3608,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>A43</f>
         <v>585</v>
@@ -3654,7 +3656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49">
         <f t="shared" ref="A49:A52" si="16">A44</f>
         <v>660</v>
@@ -3700,7 +3702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50">
         <f t="shared" si="16"/>
         <v>735</v>
@@ -3746,7 +3748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51">
         <f t="shared" si="16"/>
         <v>810</v>
@@ -3792,7 +3794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" si="16"/>
         <v>885</v>
@@ -3838,7 +3840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>A48</f>
         <v>585</v>
@@ -3884,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" ref="A54:B57" si="17">A49</f>
         <v>660</v>
@@ -3930,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" si="17"/>
         <v>735</v>
@@ -3976,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56">
         <f t="shared" si="17"/>
         <v>810</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57">
         <f t="shared" si="17"/>
         <v>885</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>A53 + 15</f>
         <v>600</v>
@@ -4114,7 +4116,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" ref="A59:A62" si="18">A54 + 15</f>
         <v>675</v>
@@ -4160,7 +4162,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60">
         <f t="shared" si="18"/>
         <v>750</v>
@@ -4206,7 +4208,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61">
         <f t="shared" si="18"/>
         <v>825</v>
@@ -4252,7 +4254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" si="18"/>
         <v>900</v>
@@ -4298,7 +4300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>A58</f>
         <v>600</v>
@@ -4344,7 +4346,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" ref="A64:B64" si="20">A59</f>
         <v>675</v>
@@ -4390,7 +4392,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" ref="A65:B65" si="21">A60</f>
         <v>750</v>
@@ -4436,7 +4438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" ref="A66:B66" si="22">A61</f>
         <v>825</v>
@@ -4482,7 +4484,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" ref="A67:B67" si="23">A62</f>
         <v>900</v>
@@ -4528,7 +4530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" ref="A68:B68" si="24">A63</f>
         <v>600</v>
@@ -4574,7 +4576,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69">
         <f t="shared" ref="A69:B69" si="25">A64</f>
         <v>675</v>
@@ -4620,7 +4622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70">
         <f t="shared" ref="A70:B70" si="26">A65</f>
         <v>750</v>
@@ -4666,7 +4668,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71">
         <f t="shared" ref="A71:B71" si="27">A66</f>
         <v>825</v>
@@ -4712,7 +4714,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" ref="A72:B72" si="28">A67</f>
         <v>900</v>
@@ -4758,7 +4760,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73">
         <f t="shared" ref="A73:B73" si="29">A68</f>
         <v>600</v>
@@ -4804,7 +4806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" ref="A74:B74" si="30">A69</f>
         <v>675</v>
@@ -4850,7 +4852,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75">
         <f t="shared" ref="A75:B75" si="31">A70</f>
         <v>750</v>
@@ -4896,7 +4898,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" ref="A76:B76" si="32">A71</f>
         <v>825</v>
@@ -4942,7 +4944,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" ref="A77:B77" si="33">A72</f>
         <v>900</v>
@@ -4988,7 +4990,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" ref="A78:B78" si="34">A73</f>
         <v>600</v>
@@ -5034,7 +5036,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" ref="A79:B79" si="35">A74</f>
         <v>675</v>
@@ -5080,7 +5082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" ref="A80:B80" si="36">A75</f>
         <v>750</v>
@@ -5126,7 +5128,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81">
         <f t="shared" ref="A81:B81" si="37">A76</f>
         <v>825</v>
@@ -5172,7 +5174,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82">
         <f t="shared" ref="A82:B82" si="38">A77</f>
         <v>900</v>
@@ -5218,7 +5220,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83">
         <f t="shared" ref="A83:B83" si="39">A78</f>
         <v>600</v>
@@ -5264,7 +5266,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84">
         <f t="shared" ref="A84:B84" si="40">A79</f>
         <v>675</v>
@@ -5310,7 +5312,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85">
         <f t="shared" ref="A85:B85" si="41">A80</f>
         <v>750</v>
@@ -5356,7 +5358,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86">
         <f t="shared" ref="A86:B86" si="42">A81</f>
         <v>825</v>
@@ -5402,7 +5404,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87">
         <f t="shared" ref="A87:B87" si="43">A82</f>
         <v>900</v>
@@ -5448,7 +5450,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88">
         <f t="shared" ref="A88:B88" si="44">A83</f>
         <v>600</v>
@@ -5494,7 +5496,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89">
         <f t="shared" ref="A89:B89" si="45">A84</f>
         <v>675</v>
@@ -5540,7 +5542,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90">
         <f t="shared" ref="A90:B90" si="46">A85</f>
         <v>750</v>
@@ -5586,7 +5588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91">
         <f t="shared" ref="A91:B91" si="47">A86</f>
         <v>825</v>
@@ -5632,7 +5634,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92">
         <f t="shared" ref="A92:B92" si="48">A87</f>
         <v>900</v>
@@ -5678,7 +5680,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93">
         <f t="shared" ref="A93:B93" si="49">A88</f>
         <v>600</v>
@@ -5724,7 +5726,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94">
         <f t="shared" ref="A94:B94" si="50">A89</f>
         <v>675</v>
@@ -5770,7 +5772,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95">
         <f t="shared" ref="A95:B95" si="51">A90</f>
         <v>750</v>
@@ -5816,7 +5818,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96">
         <f t="shared" ref="A96:B96" si="52">A91</f>
         <v>825</v>
@@ -5862,7 +5864,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97">
         <f t="shared" ref="A97:B97" si="53">A92</f>
         <v>900</v>
@@ -5908,7 +5910,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98">
         <f t="shared" ref="A98:B98" si="54">A93</f>
         <v>600</v>
@@ -5954,7 +5956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99">
         <f t="shared" ref="A99:B99" si="55">A94</f>
         <v>675</v>
@@ -6000,7 +6002,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100">
         <f t="shared" ref="A100:B100" si="56">A95</f>
         <v>750</v>
@@ -6046,7 +6048,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101">
         <f t="shared" ref="A101:B101" si="57">A96</f>
         <v>825</v>
@@ -6092,7 +6094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102">
         <f t="shared" ref="A102:B102" si="58">A97</f>
         <v>900</v>
@@ -6138,7 +6140,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103">
         <f t="shared" ref="A103:B103" si="59">A98</f>
         <v>600</v>
@@ -6184,7 +6186,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104">
         <f t="shared" ref="A104:B104" si="60">A99</f>
         <v>675</v>
@@ -6230,7 +6232,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105">
         <f t="shared" ref="A105:B105" si="61">A100</f>
         <v>750</v>
@@ -6276,7 +6278,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106">
         <f t="shared" ref="A106:B106" si="62">A101</f>
         <v>825</v>
@@ -6322,7 +6324,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107">
         <f t="shared" ref="A107:B107" si="63">A102</f>
         <v>900</v>
@@ -6368,7 +6370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>-200</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>985</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110">
         <f>A109</f>
         <v>985</v>
@@ -6503,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>20</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>20</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113">
         <f>A112+140</f>
         <v>160</v>
@@ -6637,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114">
         <f>A112+190</f>
         <v>210</v>
@@ -6683,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115">
         <f>A114</f>
         <v>210</v>
@@ -6729,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116">
         <f>A115-6</f>
         <v>204</v>
@@ -6775,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117">
         <f t="shared" ref="A117" si="64">A116</f>
         <v>204</v>
@@ -6821,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118">
         <f>A113+4</f>
         <v>164</v>
@@ -6867,7 +6869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119">
         <f>A111-40</f>
         <v>-20</v>
@@ -6913,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120">
         <f>A119</f>
         <v>-20</v>
@@ -6958,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121">
         <f t="shared" ref="A121:A123" si="65">A120</f>
         <v>-20</v>
@@ -7004,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122">
         <f t="shared" si="65"/>
         <v>-20</v>
@@ -7050,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123">
         <f t="shared" si="65"/>
         <v>-20</v>
@@ -7096,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124">
         <f>A112</f>
         <v>20</v>
@@ -7130,19 +7132,19 @@
         <v>120</v>
       </c>
       <c r="K124" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="L124" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M124" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N124" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125">
         <f>A124</f>
         <v>20</v>
@@ -7176,19 +7178,19 @@
         <v>121</v>
       </c>
       <c r="K125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L125" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M125" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N125" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126">
         <f>A125</f>
         <v>20</v>
@@ -7225,10 +7227,10 @@
         <v>175</v>
       </c>
       <c r="L126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N126" t="s">
         <v>175</v>
@@ -7249,9 +7251,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1920</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2132</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>380</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>156</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>156</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>156</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>84</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>84</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>84</v>
       </c>
@@ -7323,7 +7325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>84</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>104</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>270</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>408</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>408</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>408</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>408</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>408</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>408</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>408</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>558</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>558</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>558</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>558</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>558</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>558</v>
       </c>
